--- a/organizations_1_region.xlsx
+++ b/organizations_1_region.xlsx
@@ -435,10 +435,10 @@
         <v>0.03963011889035667</v>
       </c>
       <c r="E2">
-        <v>10.30383091149274</v>
+        <v>5.151915455746368</v>
       </c>
       <c r="F2">
-        <v>23.32892998678996</v>
+        <v>18.17701453104359</v>
       </c>
       <c r="G2">
         <v>26.402</v>
@@ -458,10 +458,10 @@
         <v>0.07926023778071334</v>
       </c>
       <c r="E3">
-        <v>20.60766182298547</v>
+        <v>10.30383091149274</v>
       </c>
       <c r="F3">
-        <v>46.65785997357992</v>
+        <v>36.35402906208719</v>
       </c>
       <c r="G3">
         <v>52.804</v>
@@ -481,10 +481,10 @@
         <v>0.11889035667107</v>
       </c>
       <c r="E4">
-        <v>30.91149273447821</v>
+        <v>15.4557463672391</v>
       </c>
       <c r="F4">
-        <v>69.98678996036989</v>
+        <v>54.53104359313078</v>
       </c>
       <c r="G4">
         <v>79.206</v>
@@ -504,10 +504,10 @@
         <v>0.1585204755614267</v>
       </c>
       <c r="E5">
-        <v>41.21532364597094</v>
+        <v>20.60766182298547</v>
       </c>
       <c r="F5">
-        <v>93.31571994715983</v>
+        <v>72.70805812417437</v>
       </c>
       <c r="G5">
         <v>105.608</v>
@@ -527,10 +527,10 @@
         <v>0.1981505944517833</v>
       </c>
       <c r="E6">
-        <v>51.51915455746368</v>
+        <v>25.75957727873184</v>
       </c>
       <c r="F6">
-        <v>116.6446499339498</v>
+        <v>90.88507265521797</v>
       </c>
       <c r="G6">
         <v>132.01</v>
@@ -550,10 +550,10 @@
         <v>0.23778071334214</v>
       </c>
       <c r="E7">
-        <v>61.82298546895641</v>
+        <v>30.91149273447821</v>
       </c>
       <c r="F7">
-        <v>139.9735799207398</v>
+        <v>109.0620871862616</v>
       </c>
       <c r="G7">
         <v>158.412</v>
@@ -573,10 +573,10 @@
         <v>0.2774108322324967</v>
       </c>
       <c r="E8">
-        <v>72.12681638044914</v>
+        <v>36.06340819022457</v>
       </c>
       <c r="F8">
-        <v>163.3025099075297</v>
+        <v>127.2391017173051</v>
       </c>
       <c r="G8">
         <v>184.814</v>
@@ -596,10 +596,10 @@
         <v>0.3170409511228534</v>
       </c>
       <c r="E9">
-        <v>82.43064729194188</v>
+        <v>41.21532364597094</v>
       </c>
       <c r="F9">
-        <v>186.6314398943197</v>
+        <v>145.4161162483487</v>
       </c>
       <c r="G9">
         <v>211.216</v>
@@ -619,10 +619,10 @@
         <v>0.35667107001321</v>
       </c>
       <c r="E10">
-        <v>92.73447820343462</v>
+        <v>46.36723910171731</v>
       </c>
       <c r="F10">
-        <v>209.9603698811096</v>
+        <v>163.5931307793923</v>
       </c>
       <c r="G10">
         <v>237.618</v>
@@ -642,10 +642,10 @@
         <v>0.3963011889035667</v>
       </c>
       <c r="E11">
-        <v>103.0383091149274</v>
+        <v>51.51915455746368</v>
       </c>
       <c r="F11">
-        <v>233.2892998678996</v>
+        <v>181.7701453104359</v>
       </c>
       <c r="G11">
         <v>264.02</v>
@@ -665,10 +665,10 @@
         <v>0.4359313077939234</v>
       </c>
       <c r="E12">
-        <v>113.3421400264201</v>
+        <v>56.67107001321004</v>
       </c>
       <c r="F12">
-        <v>256.6182298546896</v>
+        <v>199.9471598414795</v>
       </c>
       <c r="G12">
         <v>290.422</v>
@@ -688,10 +688,10 @@
         <v>0.47556142668428</v>
       </c>
       <c r="E13">
-        <v>123.6459709379128</v>
+        <v>61.82298546895641</v>
       </c>
       <c r="F13">
-        <v>279.9471598414796</v>
+        <v>218.1241743725231</v>
       </c>
       <c r="G13">
         <v>316.824</v>
@@ -711,10 +711,10 @@
         <v>0.5151915455746368</v>
       </c>
       <c r="E14">
-        <v>133.9498018494056</v>
+        <v>66.97490092470278</v>
       </c>
       <c r="F14">
-        <v>303.2760898282695</v>
+        <v>236.3011889035667</v>
       </c>
       <c r="G14">
         <v>343.226</v>
@@ -734,10 +734,10 @@
         <v>0.5548216644649934</v>
       </c>
       <c r="E15">
-        <v>144.2536327608983</v>
+        <v>72.12681638044914</v>
       </c>
       <c r="F15">
-        <v>326.6050198150594</v>
+        <v>254.4782034346103</v>
       </c>
       <c r="G15">
         <v>369.628</v>
@@ -757,10 +757,10 @@
         <v>0.59445178335535</v>
       </c>
       <c r="E16">
-        <v>154.557463672391</v>
+        <v>77.27873183619552</v>
       </c>
       <c r="F16">
-        <v>349.9339498018494</v>
+        <v>272.6552179656539</v>
       </c>
       <c r="G16">
         <v>396.03</v>
@@ -780,10 +780,10 @@
         <v>0.6340819022457067</v>
       </c>
       <c r="E17">
-        <v>164.8612945838838</v>
+        <v>82.43064729194188</v>
       </c>
       <c r="F17">
-        <v>373.2628797886393</v>
+        <v>290.8322324966975</v>
       </c>
       <c r="G17">
         <v>422.432</v>
@@ -803,10 +803,10 @@
         <v>0.6737120211360634</v>
       </c>
       <c r="E18">
-        <v>175.1651254953765</v>
+        <v>87.58256274768824</v>
       </c>
       <c r="F18">
-        <v>396.5918097754293</v>
+        <v>309.0092470277411</v>
       </c>
       <c r="G18">
         <v>448.834</v>
@@ -826,10 +826,10 @@
         <v>0.71334214002642</v>
       </c>
       <c r="E19">
-        <v>185.4689564068692</v>
+        <v>92.73447820343462</v>
       </c>
       <c r="F19">
-        <v>419.9207397622193</v>
+        <v>327.1862615587847</v>
       </c>
       <c r="G19">
         <v>475.236</v>
@@ -849,10 +849,10 @@
         <v>0.7529722589167767</v>
       </c>
       <c r="E20">
-        <v>195.772787318362</v>
+        <v>97.88639365918098</v>
       </c>
       <c r="F20">
-        <v>443.2496697490092</v>
+        <v>345.3632760898282</v>
       </c>
       <c r="G20">
         <v>501.638</v>
@@ -872,10 +872,10 @@
         <v>0.7926023778071334</v>
       </c>
       <c r="E21">
-        <v>206.0766182298547</v>
+        <v>103.0383091149274</v>
       </c>
       <c r="F21">
-        <v>466.5785997357992</v>
+        <v>363.5402906208719</v>
       </c>
       <c r="G21">
         <v>528.04</v>
@@ -895,10 +895,10 @@
         <v>0.8322324966974901</v>
       </c>
       <c r="E22">
-        <v>216.3804491413474</v>
+        <v>108.1902245706737</v>
       </c>
       <c r="F22">
-        <v>489.9075297225892</v>
+        <v>381.7173051519154</v>
       </c>
       <c r="G22">
         <v>554.442</v>
@@ -918,10 +918,10 @@
         <v>0.8718626155878467</v>
       </c>
       <c r="E23">
-        <v>226.6842800528402</v>
+        <v>113.3421400264201</v>
       </c>
       <c r="F23">
-        <v>513.2364597093791</v>
+        <v>399.894319682959</v>
       </c>
       <c r="G23">
         <v>580.8440000000001</v>
@@ -941,10 +941,10 @@
         <v>0.9114927344782033</v>
       </c>
       <c r="E24">
-        <v>236.9881109643329</v>
+        <v>118.4940554821665</v>
       </c>
       <c r="F24">
-        <v>536.5653896961691</v>
+        <v>418.0713342140026</v>
       </c>
       <c r="G24">
         <v>607.246</v>
@@ -964,10 +964,10 @@
         <v>0.9511228533685601</v>
       </c>
       <c r="E25">
-        <v>247.2919418758256</v>
+        <v>123.6459709379128</v>
       </c>
       <c r="F25">
-        <v>559.8943196829591</v>
+        <v>436.2483487450463</v>
       </c>
       <c r="G25">
         <v>633.648</v>
@@ -987,10 +987,10 @@
         <v>0.9907529722589168</v>
       </c>
       <c r="E26">
-        <v>257.5957727873184</v>
+        <v>128.7978863936592</v>
       </c>
       <c r="F26">
-        <v>583.2232496697491</v>
+        <v>454.4253632760899</v>
       </c>
       <c r="G26">
         <v>660.0500000000001</v>
@@ -1010,10 +1010,10 @@
         <v>1.030383091149274</v>
       </c>
       <c r="E27">
-        <v>267.8996036988111</v>
+        <v>133.9498018494056</v>
       </c>
       <c r="F27">
-        <v>606.552179656539</v>
+        <v>472.6023778071335</v>
       </c>
       <c r="G27">
         <v>686.452</v>
@@ -1033,10 +1033,10 @@
         <v>1.07001321003963</v>
       </c>
       <c r="E28">
-        <v>278.2034346103039</v>
+        <v>139.1017173051519</v>
       </c>
       <c r="F28">
-        <v>629.881109643329</v>
+        <v>490.779392338177</v>
       </c>
       <c r="G28">
         <v>712.854</v>
@@ -1056,10 +1056,10 @@
         <v>1.109643328929987</v>
       </c>
       <c r="E29">
-        <v>288.5072655217966</v>
+        <v>144.2536327608983</v>
       </c>
       <c r="F29">
-        <v>653.2100396301189</v>
+        <v>508.9564068692206</v>
       </c>
       <c r="G29">
         <v>739.2560000000001</v>
@@ -1079,10 +1079,10 @@
         <v>1.149273447820343</v>
       </c>
       <c r="E30">
-        <v>298.8110964332893</v>
+        <v>149.4055482166447</v>
       </c>
       <c r="F30">
-        <v>676.5389696169088</v>
+        <v>527.1334214002643</v>
       </c>
       <c r="G30">
         <v>765.658</v>
@@ -1102,10 +1102,10 @@
         <v>1.1889035667107</v>
       </c>
       <c r="E31">
-        <v>309.1149273447821</v>
+        <v>154.557463672391</v>
       </c>
       <c r="F31">
-        <v>699.8678996036988</v>
+        <v>545.3104359313078</v>
       </c>
       <c r="G31">
         <v>792.0600000000001</v>
@@ -1125,10 +1125,10 @@
         <v>1.228533685601057</v>
       </c>
       <c r="E32">
-        <v>319.4187582562748</v>
+        <v>159.7093791281374</v>
       </c>
       <c r="F32">
-        <v>723.1968295904887</v>
+        <v>563.4874504623514</v>
       </c>
       <c r="G32">
         <v>818.462</v>
@@ -1148,10 +1148,10 @@
         <v>1.268163804491413</v>
       </c>
       <c r="E33">
-        <v>329.7225891677675</v>
+        <v>164.8612945838838</v>
       </c>
       <c r="F33">
-        <v>746.5257595772787</v>
+        <v>581.664464993395</v>
       </c>
       <c r="G33">
         <v>844.864</v>
@@ -1171,10 +1171,10 @@
         <v>1.30779392338177</v>
       </c>
       <c r="E34">
-        <v>340.0264200792603</v>
+        <v>170.0132100396301</v>
       </c>
       <c r="F34">
-        <v>769.8546895640687</v>
+        <v>599.8414795244386</v>
       </c>
       <c r="G34">
         <v>871.2660000000001</v>
@@ -1194,10 +1194,10 @@
         <v>1.347424042272127</v>
       </c>
       <c r="E35">
-        <v>350.330250990753</v>
+        <v>175.1651254953765</v>
       </c>
       <c r="F35">
-        <v>793.1836195508586</v>
+        <v>618.0184940554822</v>
       </c>
       <c r="G35">
         <v>897.668</v>
@@ -1217,10 +1217,10 @@
         <v>1.387054161162483</v>
       </c>
       <c r="E36">
-        <v>360.6340819022457</v>
+        <v>180.3170409511229</v>
       </c>
       <c r="F36">
-        <v>816.5125495376486</v>
+        <v>636.1955085865258</v>
       </c>
       <c r="G36">
         <v>924.0700000000001</v>
@@ -1240,10 +1240,10 @@
         <v>1.42668428005284</v>
       </c>
       <c r="E37">
-        <v>370.9379128137385</v>
+        <v>185.4689564068692</v>
       </c>
       <c r="F37">
-        <v>839.8414795244386</v>
+        <v>654.3725231175694</v>
       </c>
       <c r="G37">
         <v>950.472</v>
@@ -1263,10 +1263,10 @@
         <v>1.466314398943197</v>
       </c>
       <c r="E38">
-        <v>381.2417437252312</v>
+        <v>190.6208718626156</v>
       </c>
       <c r="F38">
-        <v>863.1704095112285</v>
+        <v>672.549537648613</v>
       </c>
       <c r="G38">
         <v>976.874</v>
@@ -1286,10 +1286,10 @@
         <v>1.505944517833553</v>
       </c>
       <c r="E39">
-        <v>391.5455746367239</v>
+        <v>195.772787318362</v>
       </c>
       <c r="F39">
-        <v>886.4993394980185</v>
+        <v>690.7265521796564</v>
       </c>
       <c r="G39">
         <v>1003.276</v>
@@ -1309,10 +1309,10 @@
         <v>1.54557463672391</v>
       </c>
       <c r="E40">
-        <v>401.8494055482167</v>
+        <v>200.9247027741083</v>
       </c>
       <c r="F40">
-        <v>909.8282694848085</v>
+        <v>708.9035667107001</v>
       </c>
       <c r="G40">
         <v>1029.678</v>
@@ -1332,10 +1332,10 @@
         <v>1.585204755614267</v>
       </c>
       <c r="E41">
-        <v>412.1532364597094</v>
+        <v>206.0766182298547</v>
       </c>
       <c r="F41">
-        <v>933.1571994715985</v>
+        <v>727.0805812417437</v>
       </c>
       <c r="G41">
         <v>1056.08</v>
@@ -1355,10 +1355,10 @@
         <v>1.624834874504623</v>
       </c>
       <c r="E42">
-        <v>422.4570673712021</v>
+        <v>211.2285336856011</v>
       </c>
       <c r="F42">
-        <v>956.4861294583884</v>
+        <v>745.2575957727873</v>
       </c>
       <c r="G42">
         <v>1082.482</v>
@@ -1378,10 +1378,10 @@
         <v>1.66446499339498</v>
       </c>
       <c r="E43">
-        <v>432.7608982826949</v>
+        <v>216.3804491413474</v>
       </c>
       <c r="F43">
-        <v>979.8150594451783</v>
+        <v>763.4346103038308</v>
       </c>
       <c r="G43">
         <v>1108.884</v>
@@ -1401,10 +1401,10 @@
         <v>1.704095112285337</v>
       </c>
       <c r="E44">
-        <v>443.0647291941876</v>
+        <v>221.5323645970938</v>
       </c>
       <c r="F44">
-        <v>1003.143989431968</v>
+        <v>781.6116248348746</v>
       </c>
       <c r="G44">
         <v>1135.286</v>
@@ -1424,10 +1424,10 @@
         <v>1.743725231175693</v>
       </c>
       <c r="E45">
-        <v>453.3685601056803</v>
+        <v>226.6842800528402</v>
       </c>
       <c r="F45">
-        <v>1026.472919418758</v>
+        <v>799.788639365918</v>
       </c>
       <c r="G45">
         <v>1161.688</v>
@@ -1447,10 +1447,10 @@
         <v>1.78335535006605</v>
       </c>
       <c r="E46">
-        <v>463.6723910171731</v>
+        <v>231.8361955085865</v>
       </c>
       <c r="F46">
-        <v>1049.801849405548</v>
+        <v>817.9656538969617</v>
       </c>
       <c r="G46">
         <v>1188.09</v>
@@ -1470,10 +1470,10 @@
         <v>1.822985468956407</v>
       </c>
       <c r="E47">
-        <v>473.9762219286658</v>
+        <v>236.9881109643329</v>
       </c>
       <c r="F47">
-        <v>1073.130779392338</v>
+        <v>836.1426684280052</v>
       </c>
       <c r="G47">
         <v>1214.492</v>
@@ -1493,10 +1493,10 @@
         <v>1.862615587846763</v>
       </c>
       <c r="E48">
-        <v>484.2800528401585</v>
+        <v>242.1400264200793</v>
       </c>
       <c r="F48">
-        <v>1096.459709379128</v>
+        <v>854.3196829590489</v>
       </c>
       <c r="G48">
         <v>1240.894</v>
@@ -1516,10 +1516,10 @@
         <v>1.90224570673712</v>
       </c>
       <c r="E49">
-        <v>494.5838837516513</v>
+        <v>247.2919418758256</v>
       </c>
       <c r="F49">
-        <v>1119.788639365918</v>
+        <v>872.4966974900925</v>
       </c>
       <c r="G49">
         <v>1267.296</v>
@@ -1539,10 +1539,10 @@
         <v>1.941875825627477</v>
       </c>
       <c r="E50">
-        <v>504.887714663144</v>
+        <v>252.443857331572</v>
       </c>
       <c r="F50">
-        <v>1143.117569352708</v>
+        <v>890.673712021136</v>
       </c>
       <c r="G50">
         <v>1293.698</v>
@@ -1562,10 +1562,10 @@
         <v>1.981505944517834</v>
       </c>
       <c r="E51">
-        <v>515.1915455746367</v>
+        <v>257.5957727873184</v>
       </c>
       <c r="F51">
-        <v>1166.446499339498</v>
+        <v>908.8507265521798</v>
       </c>
       <c r="G51">
         <v>1320.1</v>
@@ -1585,10 +1585,10 @@
         <v>2.02113606340819</v>
       </c>
       <c r="E52">
-        <v>525.4953764861295</v>
+        <v>262.7476882430648</v>
       </c>
       <c r="F52">
-        <v>1189.775429326288</v>
+        <v>927.0277410832233</v>
       </c>
       <c r="G52">
         <v>1346.502</v>
@@ -1608,10 +1608,10 @@
         <v>2.060766182298547</v>
       </c>
       <c r="E53">
-        <v>535.7992073976222</v>
+        <v>267.8996036988111</v>
       </c>
       <c r="F53">
-        <v>1213.104359313078</v>
+        <v>945.2047556142669</v>
       </c>
       <c r="G53">
         <v>1372.904</v>
@@ -1631,10 +1631,10 @@
         <v>2.100396301188904</v>
       </c>
       <c r="E54">
-        <v>546.1030383091149</v>
+        <v>273.0515191545575</v>
       </c>
       <c r="F54">
-        <v>1236.433289299868</v>
+        <v>963.3817701453104</v>
       </c>
       <c r="G54">
         <v>1399.306</v>
@@ -1654,10 +1654,10 @@
         <v>2.14002642007926</v>
       </c>
       <c r="E55">
-        <v>556.4068692206077</v>
+        <v>278.2034346103039</v>
       </c>
       <c r="F55">
-        <v>1259.762219286658</v>
+        <v>981.558784676354</v>
       </c>
       <c r="G55">
         <v>1425.708</v>
@@ -1677,10 +1677,10 @@
         <v>2.179656538969617</v>
       </c>
       <c r="E56">
-        <v>566.7107001321004</v>
+        <v>283.3553500660502</v>
       </c>
       <c r="F56">
-        <v>1283.091149273448</v>
+        <v>999.7357992073976</v>
       </c>
       <c r="G56">
         <v>1452.11</v>
@@ -1700,10 +1700,10 @@
         <v>2.219286657859973</v>
       </c>
       <c r="E57">
-        <v>577.0145310435931</v>
+        <v>288.5072655217966</v>
       </c>
       <c r="F57">
-        <v>1306.420079260238</v>
+        <v>1017.912813738441</v>
       </c>
       <c r="G57">
         <v>1478.512</v>
@@ -1723,10 +1723,10 @@
         <v>2.25891677675033</v>
       </c>
       <c r="E58">
-        <v>587.3183619550859</v>
+        <v>293.659180977543</v>
       </c>
       <c r="F58">
-        <v>1329.749009247028</v>
+        <v>1036.089828269485</v>
       </c>
       <c r="G58">
         <v>1504.914</v>
@@ -1746,10 +1746,10 @@
         <v>2.298546895640687</v>
       </c>
       <c r="E59">
-        <v>597.6221928665786</v>
+        <v>298.8110964332893</v>
       </c>
       <c r="F59">
-        <v>1353.077939233818</v>
+        <v>1054.266842800529</v>
       </c>
       <c r="G59">
         <v>1531.316</v>
@@ -1769,10 +1769,10 @@
         <v>2.338177014531043</v>
       </c>
       <c r="E60">
-        <v>607.9260237780713</v>
+        <v>303.9630118890357</v>
       </c>
       <c r="F60">
-        <v>1376.406869220608</v>
+        <v>1072.443857331572</v>
       </c>
       <c r="G60">
         <v>1557.718</v>
@@ -1792,10 +1792,10 @@
         <v>2.3778071334214</v>
       </c>
       <c r="E61">
-        <v>618.2298546895641</v>
+        <v>309.1149273447821</v>
       </c>
       <c r="F61">
-        <v>1399.735799207398</v>
+        <v>1090.620871862616</v>
       </c>
       <c r="G61">
         <v>1584.12</v>
@@ -1815,10 +1815,10 @@
         <v>2.417437252311757</v>
       </c>
       <c r="E62">
-        <v>628.5336856010568</v>
+        <v>314.2668428005284</v>
       </c>
       <c r="F62">
-        <v>1423.064729194188</v>
+        <v>1108.797886393659</v>
       </c>
       <c r="G62">
         <v>1610.522</v>
@@ -1838,10 +1838,10 @@
         <v>2.457067371202113</v>
       </c>
       <c r="E63">
-        <v>638.8375165125495</v>
+        <v>319.4187582562748</v>
       </c>
       <c r="F63">
-        <v>1446.393659180977</v>
+        <v>1126.974900924703</v>
       </c>
       <c r="G63">
         <v>1636.924</v>
@@ -1861,10 +1861,10 @@
         <v>2.49669749009247</v>
       </c>
       <c r="E64">
-        <v>649.1413474240424</v>
+        <v>324.5706737120212</v>
       </c>
       <c r="F64">
-        <v>1469.722589167768</v>
+        <v>1145.151915455746</v>
       </c>
       <c r="G64">
         <v>1663.326</v>
@@ -1884,10 +1884,10 @@
         <v>2.536327608982827</v>
       </c>
       <c r="E65">
-        <v>659.445178335535</v>
+        <v>329.7225891677675</v>
       </c>
       <c r="F65">
-        <v>1493.051519154557</v>
+        <v>1163.32892998679</v>
       </c>
       <c r="G65">
         <v>1689.728</v>
@@ -1907,10 +1907,10 @@
         <v>2.575957727873183</v>
       </c>
       <c r="E66">
-        <v>669.7490092470277</v>
+        <v>334.8745046235139</v>
       </c>
       <c r="F66">
-        <v>1516.380449141348</v>
+        <v>1181.505944517834</v>
       </c>
       <c r="G66">
         <v>1716.13</v>
@@ -1930,10 +1930,10 @@
         <v>2.61558784676354</v>
       </c>
       <c r="E67">
-        <v>680.0528401585206</v>
+        <v>340.0264200792603</v>
       </c>
       <c r="F67">
-        <v>1539.709379128137</v>
+        <v>1199.682959048877</v>
       </c>
       <c r="G67">
         <v>1742.532</v>
@@ -1953,10 +1953,10 @@
         <v>2.655217965653897</v>
       </c>
       <c r="E68">
-        <v>690.3566710700132</v>
+        <v>345.1783355350066</v>
       </c>
       <c r="F68">
-        <v>1563.038309114927</v>
+        <v>1217.859973579921</v>
       </c>
       <c r="G68">
         <v>1768.934</v>
@@ -1976,10 +1976,10 @@
         <v>2.694848084544254</v>
       </c>
       <c r="E69">
-        <v>700.6605019815059</v>
+        <v>350.330250990753</v>
       </c>
       <c r="F69">
-        <v>1586.367239101717</v>
+        <v>1236.036988110964</v>
       </c>
       <c r="G69">
         <v>1795.336</v>
@@ -1999,10 +1999,10 @@
         <v>2.73447820343461</v>
       </c>
       <c r="E70">
-        <v>710.9643328929988</v>
+        <v>355.4821664464994</v>
       </c>
       <c r="F70">
-        <v>1609.696169088507</v>
+        <v>1254.214002642008</v>
       </c>
       <c r="G70">
         <v>1821.738</v>
@@ -2022,10 +2022,10 @@
         <v>2.774108322324967</v>
       </c>
       <c r="E71">
-        <v>721.2681638044915</v>
+        <v>360.6340819022457</v>
       </c>
       <c r="F71">
-        <v>1633.025099075297</v>
+        <v>1272.391017173052</v>
       </c>
       <c r="G71">
         <v>1848.14</v>
@@ -2045,10 +2045,10 @@
         <v>2.813738441215324</v>
       </c>
       <c r="E72">
-        <v>731.5719947159841</v>
+        <v>365.7859973579921</v>
       </c>
       <c r="F72">
-        <v>1656.354029062087</v>
+        <v>1290.568031704095</v>
       </c>
       <c r="G72">
         <v>1874.542</v>
@@ -2068,10 +2068,10 @@
         <v>2.85336856010568</v>
       </c>
       <c r="E73">
-        <v>741.875825627477</v>
+        <v>370.9379128137385</v>
       </c>
       <c r="F73">
-        <v>1679.682959048877</v>
+        <v>1308.745046235139</v>
       </c>
       <c r="G73">
         <v>1900.944</v>
@@ -2091,10 +2091,10 @@
         <v>2.892998678996037</v>
       </c>
       <c r="E74">
-        <v>752.1796565389697</v>
+        <v>376.0898282694848</v>
       </c>
       <c r="F74">
-        <v>1703.011889035667</v>
+        <v>1326.922060766182</v>
       </c>
       <c r="G74">
         <v>1927.346</v>
@@ -2114,10 +2114,10 @@
         <v>2.932628797886394</v>
       </c>
       <c r="E75">
-        <v>762.4834874504623</v>
+        <v>381.2417437252312</v>
       </c>
       <c r="F75">
-        <v>1726.340819022457</v>
+        <v>1345.099075297226</v>
       </c>
       <c r="G75">
         <v>1953.748</v>
@@ -2137,10 +2137,10 @@
         <v>2.97225891677675</v>
       </c>
       <c r="E76">
-        <v>772.7873183619552</v>
+        <v>386.3936591809776</v>
       </c>
       <c r="F76">
-        <v>1749.669749009247</v>
+        <v>1363.27608982827</v>
       </c>
       <c r="G76">
         <v>1980.15</v>
@@ -2160,10 +2160,10 @@
         <v>3.011889035667107</v>
       </c>
       <c r="E77">
-        <v>783.0911492734479</v>
+        <v>391.5455746367239</v>
       </c>
       <c r="F77">
-        <v>1772.998678996037</v>
+        <v>1381.453104359313</v>
       </c>
       <c r="G77">
         <v>2006.552</v>
@@ -2183,10 +2183,10 @@
         <v>3.051519154557464</v>
       </c>
       <c r="E78">
-        <v>793.3949801849406</v>
+        <v>396.6974900924703</v>
       </c>
       <c r="F78">
-        <v>1796.327608982827</v>
+        <v>1399.630118890357</v>
       </c>
       <c r="G78">
         <v>2032.954</v>
@@ -2206,10 +2206,10 @@
         <v>3.09114927344782</v>
       </c>
       <c r="E79">
-        <v>803.6988110964334</v>
+        <v>401.8494055482167</v>
       </c>
       <c r="F79">
-        <v>1819.656538969617</v>
+        <v>1417.8071334214</v>
       </c>
       <c r="G79">
         <v>2059.356</v>
@@ -2229,10 +2229,10 @@
         <v>3.130779392338177</v>
       </c>
       <c r="E80">
-        <v>814.0026420079261</v>
+        <v>407.001321003963</v>
       </c>
       <c r="F80">
-        <v>1842.985468956407</v>
+        <v>1435.984147952444</v>
       </c>
       <c r="G80">
         <v>2085.758</v>
@@ -2252,10 +2252,10 @@
         <v>3.170409511228534</v>
       </c>
       <c r="E81">
-        <v>824.3064729194189</v>
+        <v>412.1532364597094</v>
       </c>
       <c r="F81">
-        <v>1866.314398943197</v>
+        <v>1454.161162483487</v>
       </c>
       <c r="G81">
         <v>2112.16</v>
@@ -2275,10 +2275,10 @@
         <v>3.21003963011889</v>
       </c>
       <c r="E82">
-        <v>834.6103038309116</v>
+        <v>417.3051519154558</v>
       </c>
       <c r="F82">
-        <v>1889.643328929987</v>
+        <v>1472.338177014531</v>
       </c>
       <c r="G82">
         <v>2138.562</v>
@@ -2298,10 +2298,10 @@
         <v>3.249669749009247</v>
       </c>
       <c r="E83">
-        <v>844.9141347424043</v>
+        <v>422.4570673712021</v>
       </c>
       <c r="F83">
-        <v>1912.972258916777</v>
+        <v>1490.515191545575</v>
       </c>
       <c r="G83">
         <v>2164.964</v>
@@ -2321,10 +2321,10 @@
         <v>3.289299867899603</v>
       </c>
       <c r="E84">
-        <v>855.2179656538971</v>
+        <v>427.6089828269485</v>
       </c>
       <c r="F84">
-        <v>1936.301188903567</v>
+        <v>1508.692206076618</v>
       </c>
       <c r="G84">
         <v>2191.366</v>
@@ -2344,10 +2344,10 @@
         <v>3.32892998678996</v>
       </c>
       <c r="E85">
-        <v>865.5217965653898</v>
+        <v>432.7608982826949</v>
       </c>
       <c r="F85">
-        <v>1959.630118890357</v>
+        <v>1526.869220607662</v>
       </c>
       <c r="G85">
         <v>2217.768</v>
@@ -2367,10 +2367,10 @@
         <v>3.368560105680317</v>
       </c>
       <c r="E86">
-        <v>875.8256274768825</v>
+        <v>437.9128137384412</v>
       </c>
       <c r="F86">
-        <v>1982.959048877146</v>
+        <v>1545.046235138705</v>
       </c>
       <c r="G86">
         <v>2244.17</v>
@@ -2390,10 +2390,10 @@
         <v>3.408190224570673</v>
       </c>
       <c r="E87">
-        <v>886.1294583883753</v>
+        <v>443.0647291941876</v>
       </c>
       <c r="F87">
-        <v>2006.287978863937</v>
+        <v>1563.223249669749</v>
       </c>
       <c r="G87">
         <v>2270.572</v>
@@ -2413,10 +2413,10 @@
         <v>3.44782034346103</v>
       </c>
       <c r="E88">
-        <v>896.433289299868</v>
+        <v>448.216644649934</v>
       </c>
       <c r="F88">
-        <v>2029.616908850727</v>
+        <v>1581.400264200793</v>
       </c>
       <c r="G88">
         <v>2296.974</v>
@@ -2436,10 +2436,10 @@
         <v>3.487450462351387</v>
       </c>
       <c r="E89">
-        <v>906.7371202113607</v>
+        <v>453.3685601056803</v>
       </c>
       <c r="F89">
-        <v>2052.945838837516</v>
+        <v>1599.577278731836</v>
       </c>
       <c r="G89">
         <v>2323.376</v>
@@ -2459,10 +2459,10 @@
         <v>3.527080581241743</v>
       </c>
       <c r="E90">
-        <v>917.0409511228535</v>
+        <v>458.5204755614267</v>
       </c>
       <c r="F90">
-        <v>2076.274768824307</v>
+        <v>1617.75429326288</v>
       </c>
       <c r="G90">
         <v>2349.778</v>
@@ -2482,10 +2482,10 @@
         <v>3.5667107001321</v>
       </c>
       <c r="E91">
-        <v>927.3447820343462</v>
+        <v>463.6723910171731</v>
       </c>
       <c r="F91">
-        <v>2099.603698811096</v>
+        <v>1635.931307793923</v>
       </c>
       <c r="G91">
         <v>2376.18</v>
@@ -2505,10 +2505,10 @@
         <v>3.606340819022457</v>
       </c>
       <c r="E92">
-        <v>937.6486129458389</v>
+        <v>468.8243064729194</v>
       </c>
       <c r="F92">
-        <v>2122.932628797887</v>
+        <v>1654.108322324967</v>
       </c>
       <c r="G92">
         <v>2402.582</v>
@@ -2528,10 +2528,10 @@
         <v>3.645970937912813</v>
       </c>
       <c r="E93">
-        <v>947.9524438573317</v>
+        <v>473.9762219286658</v>
       </c>
       <c r="F93">
-        <v>2146.261558784676</v>
+        <v>1672.28533685601</v>
       </c>
       <c r="G93">
         <v>2428.984</v>
@@ -2551,10 +2551,10 @@
         <v>3.68560105680317</v>
       </c>
       <c r="E94">
-        <v>958.2562747688244</v>
+        <v>479.1281373844122</v>
       </c>
       <c r="F94">
-        <v>2169.590488771466</v>
+        <v>1690.462351387054</v>
       </c>
       <c r="G94">
         <v>2455.386</v>
@@ -2574,10 +2574,10 @@
         <v>3.725231175693527</v>
       </c>
       <c r="E95">
-        <v>968.5601056803171</v>
+        <v>484.2800528401585</v>
       </c>
       <c r="F95">
-        <v>2192.919418758256</v>
+        <v>1708.639365918098</v>
       </c>
       <c r="G95">
         <v>2481.788</v>
@@ -2597,10 +2597,10 @@
         <v>3.764861294583884</v>
       </c>
       <c r="E96">
-        <v>978.8639365918099</v>
+        <v>489.4319682959049</v>
       </c>
       <c r="F96">
-        <v>2216.248348745046</v>
+        <v>1726.816380449141</v>
       </c>
       <c r="G96">
         <v>2508.19</v>
@@ -2620,10 +2620,10 @@
         <v>3.80449141347424</v>
       </c>
       <c r="E97">
-        <v>989.1677675033026</v>
+        <v>494.5838837516513</v>
       </c>
       <c r="F97">
-        <v>2239.577278731836</v>
+        <v>1744.993394980185</v>
       </c>
       <c r="G97">
         <v>2534.592</v>
@@ -2643,10 +2643,10 @@
         <v>3.844121532364597</v>
       </c>
       <c r="E98">
-        <v>999.4715984147953</v>
+        <v>499.7357992073976</v>
       </c>
       <c r="F98">
-        <v>2262.906208718626</v>
+        <v>1763.170409511229</v>
       </c>
       <c r="G98">
         <v>2560.994</v>
@@ -2666,10 +2666,10 @@
         <v>3.883751651254954</v>
       </c>
       <c r="E99">
-        <v>1009.775429326288</v>
+        <v>504.887714663144</v>
       </c>
       <c r="F99">
-        <v>2286.235138705416</v>
+        <v>1781.347424042272</v>
       </c>
       <c r="G99">
         <v>2587.396</v>
@@ -2689,10 +2689,10 @@
         <v>3.92338177014531</v>
       </c>
       <c r="E100">
-        <v>1020.079260237781</v>
+        <v>510.0396301188904</v>
       </c>
       <c r="F100">
-        <v>2309.564068692206</v>
+        <v>1799.524438573316</v>
       </c>
       <c r="G100">
         <v>2613.798</v>
@@ -2712,10 +2712,10 @@
         <v>3.963011889035667</v>
       </c>
       <c r="E101">
-        <v>1030.383091149273</v>
+        <v>515.1915455746367</v>
       </c>
       <c r="F101">
-        <v>2332.892998678996</v>
+        <v>1817.70145310436</v>
       </c>
       <c r="G101">
         <v>2640.2</v>
@@ -2735,10 +2735,10 @@
         <v>4.002642007926023</v>
       </c>
       <c r="E102">
-        <v>1040.686922060766</v>
+        <v>520.3434610303831</v>
       </c>
       <c r="F102">
-        <v>2356.221928665786</v>
+        <v>1835.878467635403</v>
       </c>
       <c r="G102">
         <v>2666.602</v>
@@ -2758,10 +2758,10 @@
         <v>4.04227212681638</v>
       </c>
       <c r="E103">
-        <v>1050.990752972259</v>
+        <v>525.4953764861295</v>
       </c>
       <c r="F103">
-        <v>2379.550858652576</v>
+        <v>1854.055482166447</v>
       </c>
       <c r="G103">
         <v>2693.004</v>
@@ -2781,10 +2781,10 @@
         <v>4.081902245706737</v>
       </c>
       <c r="E104">
-        <v>1061.294583883752</v>
+        <v>530.6472919418759</v>
       </c>
       <c r="F104">
-        <v>2402.879788639366</v>
+        <v>1872.23249669749</v>
       </c>
       <c r="G104">
         <v>2719.406</v>
@@ -2804,10 +2804,10 @@
         <v>4.121532364597094</v>
       </c>
       <c r="E105">
-        <v>1071.598414795244</v>
+        <v>535.7992073976222</v>
       </c>
       <c r="F105">
-        <v>2426.208718626156</v>
+        <v>1890.409511228534</v>
       </c>
       <c r="G105">
         <v>2745.808</v>
@@ -2827,10 +2827,10 @@
         <v>4.16116248348745</v>
       </c>
       <c r="E106">
-        <v>1081.902245706737</v>
+        <v>540.9511228533686</v>
       </c>
       <c r="F106">
-        <v>2449.537648612946</v>
+        <v>1908.586525759577</v>
       </c>
       <c r="G106">
         <v>2772.21</v>
@@ -2850,10 +2850,10 @@
         <v>4.200792602377807</v>
       </c>
       <c r="E107">
-        <v>1092.20607661823</v>
+        <v>546.1030383091149</v>
       </c>
       <c r="F107">
-        <v>2472.866578599735</v>
+        <v>1926.763540290621</v>
       </c>
       <c r="G107">
         <v>2798.612</v>
@@ -2873,10 +2873,10 @@
         <v>4.240422721268164</v>
       </c>
       <c r="E108">
-        <v>1102.509907529723</v>
+        <v>551.2549537648613</v>
       </c>
       <c r="F108">
-        <v>2496.195508586526</v>
+        <v>1944.940554821664</v>
       </c>
       <c r="G108">
         <v>2825.014</v>
@@ -2896,10 +2896,10 @@
         <v>4.28005284015852</v>
       </c>
       <c r="E109">
-        <v>1112.813738441215</v>
+        <v>556.4068692206077</v>
       </c>
       <c r="F109">
-        <v>2519.524438573316</v>
+        <v>1963.117569352708</v>
       </c>
       <c r="G109">
         <v>2851.416</v>
@@ -2919,10 +2919,10 @@
         <v>4.319682959048877</v>
       </c>
       <c r="E110">
-        <v>1123.117569352708</v>
+        <v>561.5587846763541</v>
       </c>
       <c r="F110">
-        <v>2542.853368560106</v>
+        <v>1981.294583883752</v>
       </c>
       <c r="G110">
         <v>2877.818</v>
@@ -2942,10 +2942,10 @@
         <v>4.359313077939234</v>
       </c>
       <c r="E111">
-        <v>1133.421400264201</v>
+        <v>566.7107001321004</v>
       </c>
       <c r="F111">
-        <v>2566.182298546896</v>
+        <v>1999.471598414795</v>
       </c>
       <c r="G111">
         <v>2904.22</v>
@@ -2965,10 +2965,10 @@
         <v>4.39894319682959</v>
       </c>
       <c r="E112">
-        <v>1143.725231175694</v>
+        <v>571.8626155878468</v>
       </c>
       <c r="F112">
-        <v>2589.511228533685</v>
+        <v>2017.648612945839</v>
       </c>
       <c r="G112">
         <v>2930.622</v>
@@ -2988,10 +2988,10 @@
         <v>4.438573315719947</v>
       </c>
       <c r="E113">
-        <v>1154.029062087186</v>
+        <v>577.0145310435931</v>
       </c>
       <c r="F113">
-        <v>2612.840158520476</v>
+        <v>2035.825627476882</v>
       </c>
       <c r="G113">
         <v>2957.024</v>
@@ -3011,10 +3011,10 @@
         <v>4.478203434610304</v>
       </c>
       <c r="E114">
-        <v>1164.332892998679</v>
+        <v>582.1664464993395</v>
       </c>
       <c r="F114">
-        <v>2636.169088507266</v>
+        <v>2054.002642007926</v>
       </c>
       <c r="G114">
         <v>2983.426</v>
@@ -3034,10 +3034,10 @@
         <v>4.51783355350066</v>
       </c>
       <c r="E115">
-        <v>1174.636723910172</v>
+        <v>587.3183619550859</v>
       </c>
       <c r="F115">
-        <v>2659.498018494055</v>
+        <v>2072.17965653897</v>
       </c>
       <c r="G115">
         <v>3009.828</v>
@@ -3057,10 +3057,10 @@
         <v>4.557463672391017</v>
       </c>
       <c r="E116">
-        <v>1184.940554821665</v>
+        <v>592.4702774108323</v>
       </c>
       <c r="F116">
-        <v>2682.826948480845</v>
+        <v>2090.356671070013</v>
       </c>
       <c r="G116">
         <v>3036.23</v>
@@ -3080,10 +3080,10 @@
         <v>4.597093791281374</v>
       </c>
       <c r="E117">
-        <v>1195.244385733157</v>
+        <v>597.6221928665786</v>
       </c>
       <c r="F117">
-        <v>2706.155878467635</v>
+        <v>2108.533685601057</v>
       </c>
       <c r="G117">
         <v>3062.632</v>
@@ -3103,10 +3103,10 @@
         <v>4.63672391017173</v>
       </c>
       <c r="E118">
-        <v>1205.54821664465</v>
+        <v>602.774108322325</v>
       </c>
       <c r="F118">
-        <v>2729.484808454426</v>
+        <v>2126.7107001321</v>
       </c>
       <c r="G118">
         <v>3089.034</v>
@@ -3126,10 +3126,10 @@
         <v>4.676354029062087</v>
       </c>
       <c r="E119">
-        <v>1215.852047556143</v>
+        <v>607.9260237780713</v>
       </c>
       <c r="F119">
-        <v>2752.813738441216</v>
+        <v>2144.887714663144</v>
       </c>
       <c r="G119">
         <v>3115.436</v>
@@ -3149,10 +3149,10 @@
         <v>4.715984147952444</v>
       </c>
       <c r="E120">
-        <v>1226.155878467635</v>
+        <v>613.0779392338177</v>
       </c>
       <c r="F120">
-        <v>2776.142668428005</v>
+        <v>2163.064729194187</v>
       </c>
       <c r="G120">
         <v>3141.838</v>
@@ -3172,10 +3172,10 @@
         <v>4.7556142668428</v>
       </c>
       <c r="E121">
-        <v>1236.459709379128</v>
+        <v>618.2298546895641</v>
       </c>
       <c r="F121">
-        <v>2799.471598414795</v>
+        <v>2181.241743725231</v>
       </c>
       <c r="G121">
         <v>3168.24</v>
@@ -3195,10 +3195,10 @@
         <v>4.795244385733157</v>
       </c>
       <c r="E122">
-        <v>1246.763540290621</v>
+        <v>623.3817701453105</v>
       </c>
       <c r="F122">
-        <v>2822.800528401585</v>
+        <v>2199.418758256275</v>
       </c>
       <c r="G122">
         <v>3194.642</v>
@@ -3218,10 +3218,10 @@
         <v>4.834874504623514</v>
       </c>
       <c r="E123">
-        <v>1257.067371202114</v>
+        <v>628.5336856010568</v>
       </c>
       <c r="F123">
-        <v>2846.129458388375</v>
+        <v>2217.595772787318</v>
       </c>
       <c r="G123">
         <v>3221.044</v>
@@ -3241,10 +3241,10 @@
         <v>4.874504623513871</v>
       </c>
       <c r="E124">
-        <v>1267.371202113606</v>
+        <v>633.6856010568032</v>
       </c>
       <c r="F124">
-        <v>2869.458388375165</v>
+        <v>2235.772787318362</v>
       </c>
       <c r="G124">
         <v>3247.446</v>
@@ -3264,10 +3264,10 @@
         <v>4.914134742404227</v>
       </c>
       <c r="E125">
-        <v>1277.675033025099</v>
+        <v>638.8375165125495</v>
       </c>
       <c r="F125">
-        <v>2892.787318361955</v>
+        <v>2253.949801849406</v>
       </c>
       <c r="G125">
         <v>3273.848</v>
@@ -3287,10 +3287,10 @@
         <v>4.953764861294584</v>
       </c>
       <c r="E126">
-        <v>1287.978863936592</v>
+        <v>643.9894319682959</v>
       </c>
       <c r="F126">
-        <v>2916.116248348745</v>
+        <v>2272.126816380449</v>
       </c>
       <c r="G126">
         <v>3300.25</v>
@@ -3310,10 +3310,10 @@
         <v>4.993394980184941</v>
       </c>
       <c r="E127">
-        <v>1298.282694848085</v>
+        <v>649.1413474240424</v>
       </c>
       <c r="F127">
-        <v>2939.445178335535</v>
+        <v>2290.303830911493</v>
       </c>
       <c r="G127">
         <v>3326.652</v>
@@ -3333,10 +3333,10 @@
         <v>5.033025099075297</v>
       </c>
       <c r="E128">
-        <v>1308.586525759577</v>
+        <v>654.2932628797887</v>
       </c>
       <c r="F128">
-        <v>2962.774108322325</v>
+        <v>2308.480845442537</v>
       </c>
       <c r="G128">
         <v>3353.054</v>
@@ -3356,10 +3356,10 @@
         <v>5.072655217965654</v>
       </c>
       <c r="E129">
-        <v>1318.89035667107</v>
+        <v>659.445178335535</v>
       </c>
       <c r="F129">
-        <v>2986.103038309115</v>
+        <v>2326.65785997358</v>
       </c>
       <c r="G129">
         <v>3379.456</v>
@@ -3379,10 +3379,10 @@
         <v>5.112285336856011</v>
       </c>
       <c r="E130">
-        <v>1329.194187582563</v>
+        <v>664.5970937912814</v>
       </c>
       <c r="F130">
-        <v>3009.431968295905</v>
+        <v>2344.834874504623</v>
       </c>
       <c r="G130">
         <v>3405.858</v>
@@ -3402,10 +3402,10 @@
         <v>5.151915455746367</v>
       </c>
       <c r="E131">
-        <v>1339.498018494055</v>
+        <v>669.7490092470277</v>
       </c>
       <c r="F131">
-        <v>3032.760898282695</v>
+        <v>2363.011889035667</v>
       </c>
       <c r="G131">
         <v>3432.26</v>
@@ -3425,10 +3425,10 @@
         <v>5.191545574636724</v>
       </c>
       <c r="E132">
-        <v>1349.801849405548</v>
+        <v>674.9009247027742</v>
       </c>
       <c r="F132">
-        <v>3056.089828269485</v>
+        <v>2381.188903566711</v>
       </c>
       <c r="G132">
         <v>3458.662</v>
@@ -3448,10 +3448,10 @@
         <v>5.231175693527081</v>
       </c>
       <c r="E133">
-        <v>1360.105680317041</v>
+        <v>680.0528401585206</v>
       </c>
       <c r="F133">
-        <v>3079.418758256275</v>
+        <v>2399.365918097754</v>
       </c>
       <c r="G133">
         <v>3485.064</v>
@@ -3471,10 +3471,10 @@
         <v>5.270805812417437</v>
       </c>
       <c r="E134">
-        <v>1370.409511228534</v>
+        <v>685.2047556142669</v>
       </c>
       <c r="F134">
-        <v>3102.747688243065</v>
+        <v>2417.542932628798</v>
       </c>
       <c r="G134">
         <v>3511.466</v>
@@ -3494,10 +3494,10 @@
         <v>5.310435931307794</v>
       </c>
       <c r="E135">
-        <v>1380.713342140026</v>
+        <v>690.3566710700132</v>
       </c>
       <c r="F135">
-        <v>3126.076618229855</v>
+        <v>2435.719947159841</v>
       </c>
       <c r="G135">
         <v>3537.868</v>
@@ -3517,10 +3517,10 @@
         <v>5.350066050198151</v>
       </c>
       <c r="E136">
-        <v>1391.017173051519</v>
+        <v>695.5085865257596</v>
       </c>
       <c r="F136">
-        <v>3149.405548216645</v>
+        <v>2453.896961690885</v>
       </c>
       <c r="G136">
         <v>3564.27</v>
@@ -3540,10 +3540,10 @@
         <v>5.389696169088507</v>
       </c>
       <c r="E137">
-        <v>1401.321003963012</v>
+        <v>700.6605019815059</v>
       </c>
       <c r="F137">
-        <v>3172.734478203434</v>
+        <v>2472.073976221929</v>
       </c>
       <c r="G137">
         <v>3590.672</v>
@@ -3563,10 +3563,10 @@
         <v>5.429326287978864</v>
       </c>
       <c r="E138">
-        <v>1411.624834874505</v>
+        <v>705.8124174372524</v>
       </c>
       <c r="F138">
-        <v>3196.063408190225</v>
+        <v>2490.250990752972</v>
       </c>
       <c r="G138">
         <v>3617.074</v>
@@ -3586,10 +3586,10 @@
         <v>5.46895640686922</v>
       </c>
       <c r="E139">
-        <v>1421.928665785998</v>
+        <v>710.9643328929988</v>
       </c>
       <c r="F139">
-        <v>3219.392338177015</v>
+        <v>2508.428005284016</v>
       </c>
       <c r="G139">
         <v>3643.476</v>
@@ -3609,10 +3609,10 @@
         <v>5.508586525759577</v>
       </c>
       <c r="E140">
-        <v>1432.23249669749</v>
+        <v>716.1162483487451</v>
       </c>
       <c r="F140">
-        <v>3242.721268163805</v>
+        <v>2526.60501981506</v>
       </c>
       <c r="G140">
         <v>3669.878</v>
@@ -3632,10 +3632,10 @@
         <v>5.548216644649933</v>
       </c>
       <c r="E141">
-        <v>1442.536327608983</v>
+        <v>721.2681638044915</v>
       </c>
       <c r="F141">
-        <v>3266.050198150594</v>
+        <v>2544.782034346103</v>
       </c>
       <c r="G141">
         <v>3696.28</v>
@@ -3655,10 +3655,10 @@
         <v>5.58784676354029</v>
       </c>
       <c r="E142">
-        <v>1452.840158520476</v>
+        <v>726.4200792602378</v>
       </c>
       <c r="F142">
-        <v>3289.379128137384</v>
+        <v>2562.959048877146</v>
       </c>
       <c r="G142">
         <v>3722.682</v>
@@ -3678,10 +3678,10 @@
         <v>5.627476882430647</v>
       </c>
       <c r="E143">
-        <v>1463.143989431968</v>
+        <v>731.5719947159841</v>
       </c>
       <c r="F143">
-        <v>3312.708058124174</v>
+        <v>2581.13606340819</v>
       </c>
       <c r="G143">
         <v>3749.084</v>
@@ -3701,10 +3701,10 @@
         <v>5.667107001321003</v>
       </c>
       <c r="E144">
-        <v>1473.447820343461</v>
+        <v>736.7239101717306</v>
       </c>
       <c r="F144">
-        <v>3336.036988110965</v>
+        <v>2599.313077939234</v>
       </c>
       <c r="G144">
         <v>3775.486</v>
@@ -3724,10 +3724,10 @@
         <v>5.70673712021136</v>
       </c>
       <c r="E145">
-        <v>1483.751651254954</v>
+        <v>741.875825627477</v>
       </c>
       <c r="F145">
-        <v>3359.365918097754</v>
+        <v>2617.490092470277</v>
       </c>
       <c r="G145">
         <v>3801.888</v>
@@ -3747,10 +3747,10 @@
         <v>5.746367239101717</v>
       </c>
       <c r="E146">
-        <v>1494.055482166447</v>
+        <v>747.0277410832233</v>
       </c>
       <c r="F146">
-        <v>3382.694848084544</v>
+        <v>2635.667107001321</v>
       </c>
       <c r="G146">
         <v>3828.29</v>
@@ -3770,10 +3770,10 @@
         <v>5.785997357992073</v>
       </c>
       <c r="E147">
-        <v>1504.359313077939</v>
+        <v>752.1796565389697</v>
       </c>
       <c r="F147">
-        <v>3406.023778071334</v>
+        <v>2653.844121532365</v>
       </c>
       <c r="G147">
         <v>3854.692</v>
@@ -3793,10 +3793,10 @@
         <v>5.82562747688243</v>
       </c>
       <c r="E148">
-        <v>1514.663143989432</v>
+        <v>757.331571994716</v>
       </c>
       <c r="F148">
-        <v>3429.352708058124</v>
+        <v>2672.021136063408</v>
       </c>
       <c r="G148">
         <v>3881.094</v>
@@ -3816,10 +3816,10 @@
         <v>5.865257595772787</v>
       </c>
       <c r="E149">
-        <v>1524.966974900925</v>
+        <v>762.4834874504623</v>
       </c>
       <c r="F149">
-        <v>3452.681638044914</v>
+        <v>2690.198150594452</v>
       </c>
       <c r="G149">
         <v>3907.496</v>
@@ -3839,10 +3839,10 @@
         <v>5.904887714663143</v>
       </c>
       <c r="E150">
-        <v>1535.270805812418</v>
+        <v>767.6354029062088</v>
       </c>
       <c r="F150">
-        <v>3476.010568031705</v>
+        <v>2708.375165125496</v>
       </c>
       <c r="G150">
         <v>3933.898</v>
@@ -3862,10 +3862,10 @@
         <v>5.9445178335535</v>
       </c>
       <c r="E151">
-        <v>1545.57463672391</v>
+        <v>772.7873183619552</v>
       </c>
       <c r="F151">
-        <v>3499.339498018494</v>
+        <v>2726.552179656539</v>
       </c>
       <c r="G151">
         <v>3960.3</v>
@@ -3885,10 +3885,10 @@
         <v>5.984147952443857</v>
       </c>
       <c r="E152">
-        <v>1555.878467635403</v>
+        <v>777.9392338177015</v>
       </c>
       <c r="F152">
-        <v>3522.668428005284</v>
+        <v>2744.729194187583</v>
       </c>
       <c r="G152">
         <v>3986.702</v>
@@ -3908,10 +3908,10 @@
         <v>6.023778071334213</v>
       </c>
       <c r="E153">
-        <v>1566.182298546896</v>
+        <v>783.0911492734479</v>
       </c>
       <c r="F153">
-        <v>3545.997357992074</v>
+        <v>2762.906208718626</v>
       </c>
       <c r="G153">
         <v>4013.104</v>
@@ -3931,10 +3931,10 @@
         <v>6.06340819022457</v>
       </c>
       <c r="E154">
-        <v>1576.486129458388</v>
+        <v>788.2430647291942</v>
       </c>
       <c r="F154">
-        <v>3569.326287978864</v>
+        <v>2781.08322324967</v>
       </c>
       <c r="G154">
         <v>4039.506</v>
@@ -3954,10 +3954,10 @@
         <v>6.103038309114927</v>
       </c>
       <c r="E155">
-        <v>1586.789960369881</v>
+        <v>793.3949801849406</v>
       </c>
       <c r="F155">
-        <v>3592.655217965654</v>
+        <v>2799.260237780713</v>
       </c>
       <c r="G155">
         <v>4065.908</v>
@@ -3977,10 +3977,10 @@
         <v>6.142668428005284</v>
       </c>
       <c r="E156">
-        <v>1597.093791281374</v>
+        <v>798.546895640687</v>
       </c>
       <c r="F156">
-        <v>3615.984147952444</v>
+        <v>2817.437252311757</v>
       </c>
       <c r="G156">
         <v>4092.31</v>
@@ -4000,10 +4000,10 @@
         <v>6.18229854689564</v>
       </c>
       <c r="E157">
-        <v>1607.397622192867</v>
+        <v>803.6988110964334</v>
       </c>
       <c r="F157">
-        <v>3639.313077939234</v>
+        <v>2835.614266842801</v>
       </c>
       <c r="G157">
         <v>4118.712</v>
@@ -4023,10 +4023,10 @@
         <v>6.221928665785997</v>
       </c>
       <c r="E158">
-        <v>1617.701453104359</v>
+        <v>808.8507265521797</v>
       </c>
       <c r="F158">
-        <v>3662.642007926024</v>
+        <v>2853.791281373844</v>
       </c>
       <c r="G158">
         <v>4145.114</v>
@@ -4046,10 +4046,10 @@
         <v>6.261558784676354</v>
       </c>
       <c r="E159">
-        <v>1628.005284015852</v>
+        <v>814.0026420079261</v>
       </c>
       <c r="F159">
-        <v>3685.970937912813</v>
+        <v>2871.968295904888</v>
       </c>
       <c r="G159">
         <v>4171.516000000001</v>
@@ -4069,10 +4069,10 @@
         <v>6.30118890356671</v>
       </c>
       <c r="E160">
-        <v>1638.309114927345</v>
+        <v>819.1545574636724</v>
       </c>
       <c r="F160">
-        <v>3709.299867899604</v>
+        <v>2890.145310435931</v>
       </c>
       <c r="G160">
         <v>4197.918000000001</v>
@@ -4092,10 +4092,10 @@
         <v>6.340819022457067</v>
       </c>
       <c r="E161">
-        <v>1648.612945838838</v>
+        <v>824.3064729194189</v>
       </c>
       <c r="F161">
-        <v>3732.628797886394</v>
+        <v>2908.322324966975</v>
       </c>
       <c r="G161">
         <v>4224.32</v>
@@ -4115,10 +4115,10 @@
         <v>6.380449141347424</v>
       </c>
       <c r="E162">
-        <v>1658.91677675033</v>
+        <v>829.4583883751652</v>
       </c>
       <c r="F162">
-        <v>3755.957727873184</v>
+        <v>2926.499339498019</v>
       </c>
       <c r="G162">
         <v>4250.722</v>
@@ -4138,10 +4138,10 @@
         <v>6.42007926023778</v>
       </c>
       <c r="E163">
-        <v>1669.220607661823</v>
+        <v>834.6103038309116</v>
       </c>
       <c r="F163">
-        <v>3779.286657859974</v>
+        <v>2944.676354029062</v>
       </c>
       <c r="G163">
         <v>4277.124</v>
@@ -4161,10 +4161,10 @@
         <v>6.459709379128137</v>
       </c>
       <c r="E164">
-        <v>1679.524438573316</v>
+        <v>839.7622192866579</v>
       </c>
       <c r="F164">
-        <v>3802.615587846763</v>
+        <v>2962.853368560106</v>
       </c>
       <c r="G164">
         <v>4303.526</v>
@@ -4184,10 +4184,10 @@
         <v>6.499339498018494</v>
       </c>
       <c r="E165">
-        <v>1689.828269484809</v>
+        <v>844.9141347424043</v>
       </c>
       <c r="F165">
-        <v>3825.944517833554</v>
+        <v>2981.030383091149</v>
       </c>
       <c r="G165">
         <v>4329.928</v>
@@ -4207,10 +4207,10 @@
         <v>6.53896961690885</v>
       </c>
       <c r="E166">
-        <v>1700.132100396301</v>
+        <v>850.0660501981506</v>
       </c>
       <c r="F166">
-        <v>3849.273447820343</v>
+        <v>2999.207397622193</v>
       </c>
       <c r="G166">
         <v>4356.33</v>
@@ -4230,10 +4230,10 @@
         <v>6.578599735799207</v>
       </c>
       <c r="E167">
-        <v>1710.435931307794</v>
+        <v>855.2179656538971</v>
       </c>
       <c r="F167">
-        <v>3872.602377807134</v>
+        <v>3017.384412153237</v>
       </c>
       <c r="G167">
         <v>4382.732</v>
@@ -4253,10 +4253,10 @@
         <v>6.618229854689564</v>
       </c>
       <c r="E168">
-        <v>1720.739762219287</v>
+        <v>860.3698811096434</v>
       </c>
       <c r="F168">
-        <v>3895.931307793923</v>
+        <v>3035.56142668428</v>
       </c>
       <c r="G168">
         <v>4409.134</v>
@@ -4276,10 +4276,10 @@
         <v>6.657859973579921</v>
       </c>
       <c r="E169">
-        <v>1731.04359313078</v>
+        <v>865.5217965653898</v>
       </c>
       <c r="F169">
-        <v>3919.260237780713</v>
+        <v>3053.738441215323</v>
       </c>
       <c r="G169">
         <v>4435.536</v>
@@ -4299,10 +4299,10 @@
         <v>6.697490092470277</v>
       </c>
       <c r="E170">
-        <v>1741.347424042272</v>
+        <v>870.6737120211361</v>
       </c>
       <c r="F170">
-        <v>3942.589167767504</v>
+        <v>3071.915455746367</v>
       </c>
       <c r="G170">
         <v>4461.938</v>
@@ -4322,10 +4322,10 @@
         <v>6.737120211360634</v>
       </c>
       <c r="E171">
-        <v>1751.651254953765</v>
+        <v>875.8256274768825</v>
       </c>
       <c r="F171">
-        <v>3965.918097754293</v>
+        <v>3090.09247027741</v>
       </c>
       <c r="G171">
         <v>4488.34</v>
@@ -4345,10 +4345,10 @@
         <v>6.776750330250991</v>
       </c>
       <c r="E172">
-        <v>1761.955085865258</v>
+        <v>880.9775429326288</v>
       </c>
       <c r="F172">
-        <v>3989.247027741083</v>
+        <v>3108.269484808454</v>
       </c>
       <c r="G172">
         <v>4514.742</v>
@@ -4368,10 +4368,10 @@
         <v>6.816380449141347</v>
       </c>
       <c r="E173">
-        <v>1772.258916776751</v>
+        <v>886.1294583883753</v>
       </c>
       <c r="F173">
-        <v>4012.575957727874</v>
+        <v>3126.446499339499</v>
       </c>
       <c r="G173">
         <v>4541.144</v>
@@ -4391,10 +4391,10 @@
         <v>6.856010568031704</v>
       </c>
       <c r="E174">
-        <v>1782.562747688243</v>
+        <v>891.2813738441216</v>
       </c>
       <c r="F174">
-        <v>4035.904887714663</v>
+        <v>3144.623513870542</v>
       </c>
       <c r="G174">
         <v>4567.546</v>
@@ -4414,10 +4414,10 @@
         <v>6.895640686922061</v>
       </c>
       <c r="E175">
-        <v>1792.866578599736</v>
+        <v>896.433289299868</v>
       </c>
       <c r="F175">
-        <v>4059.233817701453</v>
+        <v>3162.800528401585</v>
       </c>
       <c r="G175">
         <v>4593.948</v>
@@ -4437,10 +4437,10 @@
         <v>6.935270805812417</v>
       </c>
       <c r="E176">
-        <v>1803.170409511229</v>
+        <v>901.5852047556143</v>
       </c>
       <c r="F176">
-        <v>4082.562747688243</v>
+        <v>3180.977542932629</v>
       </c>
       <c r="G176">
         <v>4620.35</v>
@@ -4460,10 +4460,10 @@
         <v>6.974900924702774</v>
       </c>
       <c r="E177">
-        <v>1813.474240422721</v>
+        <v>906.7371202113607</v>
       </c>
       <c r="F177">
-        <v>4105.891677675033</v>
+        <v>3199.154557463672</v>
       </c>
       <c r="G177">
         <v>4646.752</v>
@@ -4483,10 +4483,10 @@
         <v>7.014531043593131</v>
       </c>
       <c r="E178">
-        <v>1823.778071334214</v>
+        <v>911.889035667107</v>
       </c>
       <c r="F178">
-        <v>4129.220607661823</v>
+        <v>3217.331571994716</v>
       </c>
       <c r="G178">
         <v>4673.154</v>
@@ -4506,10 +4506,10 @@
         <v>7.054161162483487</v>
       </c>
       <c r="E179">
-        <v>1834.081902245707</v>
+        <v>917.0409511228535</v>
       </c>
       <c r="F179">
-        <v>4152.549537648613</v>
+        <v>3235.50858652576</v>
       </c>
       <c r="G179">
         <v>4699.556</v>
@@ -4529,10 +4529,10 @@
         <v>7.093791281373844</v>
       </c>
       <c r="E180">
-        <v>1844.3857331572</v>
+        <v>922.1928665785998</v>
       </c>
       <c r="F180">
-        <v>4175.878467635403</v>
+        <v>3253.685601056803</v>
       </c>
       <c r="G180">
         <v>4725.958000000001</v>
@@ -4552,10 +4552,10 @@
         <v>7.133421400264201</v>
       </c>
       <c r="E181">
-        <v>1854.689564068692</v>
+        <v>927.3447820343462</v>
       </c>
       <c r="F181">
-        <v>4199.207397622193</v>
+        <v>3271.862615587847</v>
       </c>
       <c r="G181">
         <v>4752.360000000001</v>
@@ -4575,10 +4575,10 @@
         <v>7.173051519154557</v>
       </c>
       <c r="E182">
-        <v>1864.993394980185</v>
+        <v>932.4966974900925</v>
       </c>
       <c r="F182">
-        <v>4222.536327608983</v>
+        <v>3290.03963011889</v>
       </c>
       <c r="G182">
         <v>4778.762000000001</v>
@@ -4598,10 +4598,10 @@
         <v>7.212681638044914</v>
       </c>
       <c r="E183">
-        <v>1875.297225891678</v>
+        <v>937.6486129458389</v>
       </c>
       <c r="F183">
-        <v>4245.865257595773</v>
+        <v>3308.216644649934</v>
       </c>
       <c r="G183">
         <v>4805.164</v>
@@ -4621,10 +4621,10 @@
         <v>7.252311756935271</v>
       </c>
       <c r="E184">
-        <v>1885.60105680317</v>
+        <v>942.8005284015852</v>
       </c>
       <c r="F184">
-        <v>4269.194187582563</v>
+        <v>3326.393659180978</v>
       </c>
       <c r="G184">
         <v>4831.566</v>
@@ -4644,10 +4644,10 @@
         <v>7.291941875825627</v>
       </c>
       <c r="E185">
-        <v>1895.904887714663</v>
+        <v>947.9524438573317</v>
       </c>
       <c r="F185">
-        <v>4292.523117569353</v>
+        <v>3344.570673712021</v>
       </c>
       <c r="G185">
         <v>4857.968</v>
@@ -4667,10 +4667,10 @@
         <v>7.331571994715984</v>
       </c>
       <c r="E186">
-        <v>1906.208718626156</v>
+        <v>953.104359313078</v>
       </c>
       <c r="F186">
-        <v>4315.852047556143</v>
+        <v>3362.747688243065</v>
       </c>
       <c r="G186">
         <v>4884.37</v>
@@ -4690,10 +4690,10 @@
         <v>7.371202113606341</v>
       </c>
       <c r="E187">
-        <v>1916.512549537649</v>
+        <v>958.2562747688244</v>
       </c>
       <c r="F187">
-        <v>4339.180977542933</v>
+        <v>3380.924702774108</v>
       </c>
       <c r="G187">
         <v>4910.772</v>
@@ -4713,10 +4713,10 @@
         <v>7.410832232496698</v>
       </c>
       <c r="E188">
-        <v>1926.816380449141</v>
+        <v>963.4081902245707</v>
       </c>
       <c r="F188">
-        <v>4362.509907529722</v>
+        <v>3399.101717305152</v>
       </c>
       <c r="G188">
         <v>4937.174</v>
@@ -4736,10 +4736,10 @@
         <v>7.450462351387054</v>
       </c>
       <c r="E189">
-        <v>1937.120211360634</v>
+        <v>968.5601056803171</v>
       </c>
       <c r="F189">
-        <v>4385.838837516512</v>
+        <v>3417.278731836196</v>
       </c>
       <c r="G189">
         <v>4963.576</v>
@@ -4759,10 +4759,10 @@
         <v>7.490092470277411</v>
       </c>
       <c r="E190">
-        <v>1947.424042272127</v>
+        <v>973.7120211360634</v>
       </c>
       <c r="F190">
-        <v>4409.167767503302</v>
+        <v>3435.455746367239</v>
       </c>
       <c r="G190">
         <v>4989.978</v>
@@ -4782,10 +4782,10 @@
         <v>7.529722589167767</v>
       </c>
       <c r="E191">
-        <v>1957.72787318362</v>
+        <v>978.8639365918099</v>
       </c>
       <c r="F191">
-        <v>4432.496697490093</v>
+        <v>3453.632760898282</v>
       </c>
       <c r="G191">
         <v>5016.38</v>
@@ -4805,10 +4805,10 @@
         <v>7.569352708058124</v>
       </c>
       <c r="E192">
-        <v>1968.031704095112</v>
+        <v>984.0158520475562</v>
       </c>
       <c r="F192">
-        <v>4455.825627476883</v>
+        <v>3471.809775429326</v>
       </c>
       <c r="G192">
         <v>5042.782</v>
@@ -4828,10 +4828,10 @@
         <v>7.60898282694848</v>
       </c>
       <c r="E193">
-        <v>1978.335535006605</v>
+        <v>989.1677675033026</v>
       </c>
       <c r="F193">
-        <v>4479.154557463673</v>
+        <v>3489.98678996037</v>
       </c>
       <c r="G193">
         <v>5069.184</v>
@@ -4851,10 +4851,10 @@
         <v>7.648612945838837</v>
       </c>
       <c r="E194">
-        <v>1988.639365918098</v>
+        <v>994.3196829590489</v>
       </c>
       <c r="F194">
-        <v>4502.483487450462</v>
+        <v>3508.163804491413</v>
       </c>
       <c r="G194">
         <v>5095.586</v>
@@ -4874,10 +4874,10 @@
         <v>7.688243064729193</v>
       </c>
       <c r="E195">
-        <v>1998.943196829591</v>
+        <v>999.4715984147953</v>
       </c>
       <c r="F195">
-        <v>4525.812417437252</v>
+        <v>3526.340819022457</v>
       </c>
       <c r="G195">
         <v>5121.988</v>
@@ -4897,10 +4897,10 @@
         <v>7.72787318361955</v>
       </c>
       <c r="E196">
-        <v>2009.247027741083</v>
+        <v>1004.623513870542</v>
       </c>
       <c r="F196">
-        <v>4549.141347424042</v>
+        <v>3544.5178335535</v>
       </c>
       <c r="G196">
         <v>5148.39</v>
@@ -4920,10 +4920,10 @@
         <v>7.767503302509907</v>
       </c>
       <c r="E197">
-        <v>2019.550858652576</v>
+        <v>1009.775429326288</v>
       </c>
       <c r="F197">
-        <v>4572.470277410832</v>
+        <v>3562.694848084544</v>
       </c>
       <c r="G197">
         <v>5174.792</v>
@@ -4943,10 +4943,10 @@
         <v>7.807133421400263</v>
       </c>
       <c r="E198">
-        <v>2029.854689564069</v>
+        <v>1014.927344782034</v>
       </c>
       <c r="F198">
-        <v>4595.799207397622</v>
+        <v>3580.871862615588</v>
       </c>
       <c r="G198">
         <v>5201.194</v>
@@ -4966,10 +4966,10 @@
         <v>7.84676354029062</v>
       </c>
       <c r="E199">
-        <v>2040.158520475562</v>
+        <v>1020.079260237781</v>
       </c>
       <c r="F199">
-        <v>4619.128137384412</v>
+        <v>3599.048877146632</v>
       </c>
       <c r="G199">
         <v>5227.596</v>
@@ -4989,10 +4989,10 @@
         <v>7.886393659180977</v>
       </c>
       <c r="E200">
-        <v>2050.462351387054</v>
+        <v>1025.231175693527</v>
       </c>
       <c r="F200">
-        <v>4642.457067371202</v>
+        <v>3617.225891677675</v>
       </c>
       <c r="G200">
         <v>5253.998000000001</v>
@@ -5012,10 +5012,10 @@
         <v>7.926023778071334</v>
       </c>
       <c r="E201">
-        <v>2060.766182298547</v>
+        <v>1030.383091149273</v>
       </c>
       <c r="F201">
-        <v>4665.785997357993</v>
+        <v>3635.402906208719</v>
       </c>
       <c r="G201">
         <v>5280.400000000001</v>
@@ -5035,10 +5035,10 @@
         <v>7.96565389696169</v>
       </c>
       <c r="E202">
-        <v>2071.07001321004</v>
+        <v>1035.53500660502</v>
       </c>
       <c r="F202">
-        <v>4689.114927344782</v>
+        <v>3653.579920739762</v>
       </c>
       <c r="G202">
         <v>5306.802000000001</v>
@@ -5058,10 +5058,10 @@
         <v>8.005284015852046</v>
       </c>
       <c r="E203">
-        <v>2081.373844121532</v>
+        <v>1040.686922060766</v>
       </c>
       <c r="F203">
-        <v>4712.443857331571</v>
+        <v>3671.756935270805</v>
       </c>
       <c r="G203">
         <v>5333.204000000001</v>
@@ -5081,10 +5081,10 @@
         <v>8.044914134742404</v>
       </c>
       <c r="E204">
-        <v>2091.677675033025</v>
+        <v>1045.838837516513</v>
       </c>
       <c r="F204">
-        <v>4735.772787318361</v>
+        <v>3689.933949801849</v>
       </c>
       <c r="G204">
         <v>5359.606</v>
@@ -5104,10 +5104,10 @@
         <v>8.08454425363276</v>
       </c>
       <c r="E205">
-        <v>2101.981505944518</v>
+        <v>1050.990752972259</v>
       </c>
       <c r="F205">
-        <v>4759.101717305152</v>
+        <v>3708.110964332893</v>
       </c>
       <c r="G205">
         <v>5386.008</v>
@@ -5127,10 +5127,10 @@
         <v>8.124174372523116</v>
       </c>
       <c r="E206">
-        <v>2112.285336856011</v>
+        <v>1056.142668428005</v>
       </c>
       <c r="F206">
-        <v>4782.430647291942</v>
+        <v>3726.287978863937</v>
       </c>
       <c r="G206">
         <v>5412.41</v>
@@ -5150,10 +5150,10 @@
         <v>8.163804491413474</v>
       </c>
       <c r="E207">
-        <v>2122.589167767504</v>
+        <v>1061.294583883752</v>
       </c>
       <c r="F207">
-        <v>4805.759577278732</v>
+        <v>3744.46499339498</v>
       </c>
       <c r="G207">
         <v>5438.812</v>
@@ -5173,10 +5173,10 @@
         <v>8.20343461030383</v>
       </c>
       <c r="E208">
-        <v>2132.892998678996</v>
+        <v>1066.446499339498</v>
       </c>
       <c r="F208">
-        <v>4829.088507265522</v>
+        <v>3762.642007926024</v>
       </c>
       <c r="G208">
         <v>5465.214</v>
@@ -5196,10 +5196,10 @@
         <v>8.243064729194188</v>
       </c>
       <c r="E209">
-        <v>2143.196829590489</v>
+        <v>1071.598414795244</v>
       </c>
       <c r="F209">
-        <v>4852.417437252312</v>
+        <v>3780.819022457068</v>
       </c>
       <c r="G209">
         <v>5491.616</v>
@@ -5219,10 +5219,10 @@
         <v>8.282694848084544</v>
       </c>
       <c r="E210">
-        <v>2153.500660501982</v>
+        <v>1076.750330250991</v>
       </c>
       <c r="F210">
-        <v>4875.746367239102</v>
+        <v>3798.996036988111</v>
       </c>
       <c r="G210">
         <v>5518.018</v>
@@ -5242,10 +5242,10 @@
         <v>8.3223249669749</v>
       </c>
       <c r="E211">
-        <v>2163.804491413474</v>
+        <v>1081.902245706737</v>
       </c>
       <c r="F211">
-        <v>4899.075297225892</v>
+        <v>3817.173051519155</v>
       </c>
       <c r="G211">
         <v>5544.42</v>
@@ -5265,10 +5265,10 @@
         <v>8.361955085865258</v>
       </c>
       <c r="E212">
-        <v>2174.108322324967</v>
+        <v>1087.054161162484</v>
       </c>
       <c r="F212">
-        <v>4922.404227212682</v>
+        <v>3835.350066050198</v>
       </c>
       <c r="G212">
         <v>5570.822</v>
@@ -5288,10 +5288,10 @@
         <v>8.401585204755614</v>
       </c>
       <c r="E213">
-        <v>2184.41215323646</v>
+        <v>1092.20607661823</v>
       </c>
       <c r="F213">
-        <v>4945.733157199471</v>
+        <v>3853.527080581242</v>
       </c>
       <c r="G213">
         <v>5597.224</v>
@@ -5311,10 +5311,10 @@
         <v>8.44121532364597</v>
       </c>
       <c r="E214">
-        <v>2194.715984147952</v>
+        <v>1097.357992073976</v>
       </c>
       <c r="F214">
-        <v>4969.062087186261</v>
+        <v>3871.704095112285</v>
       </c>
       <c r="G214">
         <v>5623.626</v>
@@ -5334,10 +5334,10 @@
         <v>8.480845442536328</v>
       </c>
       <c r="E215">
-        <v>2205.019815059445</v>
+        <v>1102.509907529723</v>
       </c>
       <c r="F215">
-        <v>4992.391017173051</v>
+        <v>3889.881109643329</v>
       </c>
       <c r="G215">
         <v>5650.028</v>
@@ -5357,10 +5357,10 @@
         <v>8.520475561426684</v>
       </c>
       <c r="E216">
-        <v>2215.323645970938</v>
+        <v>1107.661822985469</v>
       </c>
       <c r="F216">
-        <v>5015.719947159841</v>
+        <v>3908.058124174373</v>
       </c>
       <c r="G216">
         <v>5676.43</v>
@@ -5380,10 +5380,10 @@
         <v>8.56010568031704</v>
       </c>
       <c r="E217">
-        <v>2225.627476882431</v>
+        <v>1112.813738441215</v>
       </c>
       <c r="F217">
-        <v>5039.048877146632</v>
+        <v>3926.235138705416</v>
       </c>
       <c r="G217">
         <v>5702.832</v>
@@ -5403,10 +5403,10 @@
         <v>8.599735799207398</v>
       </c>
       <c r="E218">
-        <v>2235.931307793924</v>
+        <v>1117.965653896962</v>
       </c>
       <c r="F218">
-        <v>5062.377807133422</v>
+        <v>3944.41215323646</v>
       </c>
       <c r="G218">
         <v>5729.234</v>
@@ -5426,10 +5426,10 @@
         <v>8.639365918097754</v>
       </c>
       <c r="E219">
-        <v>2246.235138705416</v>
+        <v>1123.117569352708</v>
       </c>
       <c r="F219">
-        <v>5085.706737120212</v>
+        <v>3962.589167767504</v>
       </c>
       <c r="G219">
         <v>5755.636</v>
@@ -5449,10 +5449,10 @@
         <v>8.67899603698811</v>
       </c>
       <c r="E220">
-        <v>2256.538969616909</v>
+        <v>1128.269484808455</v>
       </c>
       <c r="F220">
-        <v>5109.035667107</v>
+        <v>3980.766182298546</v>
       </c>
       <c r="G220">
         <v>5782.038</v>
@@ -5472,10 +5472,10 @@
         <v>8.718626155878468</v>
       </c>
       <c r="E221">
-        <v>2266.842800528402</v>
+        <v>1133.421400264201</v>
       </c>
       <c r="F221">
-        <v>5132.364597093791</v>
+        <v>3998.94319682959</v>
       </c>
       <c r="G221">
         <v>5808.440000000001</v>
@@ -5495,10 +5495,10 @@
         <v>8.758256274768824</v>
       </c>
       <c r="E222">
-        <v>2277.146631439894</v>
+        <v>1138.573315719947</v>
       </c>
       <c r="F222">
-        <v>5155.693527080582</v>
+        <v>4017.120211360634</v>
       </c>
       <c r="G222">
         <v>5834.842000000001</v>
@@ -5518,10 +5518,10 @@
         <v>8.79788639365918</v>
       </c>
       <c r="E223">
-        <v>2287.450462351387</v>
+        <v>1143.725231175694</v>
       </c>
       <c r="F223">
-        <v>5179.022457067371</v>
+        <v>4035.297225891678</v>
       </c>
       <c r="G223">
         <v>5861.244000000001</v>
@@ -5541,10 +5541,10 @@
         <v>8.837516512549538</v>
       </c>
       <c r="E224">
-        <v>2297.75429326288</v>
+        <v>1148.87714663144</v>
       </c>
       <c r="F224">
-        <v>5202.351387054161</v>
+        <v>4053.474240422721</v>
       </c>
       <c r="G224">
         <v>5887.646000000001</v>
@@ -5564,10 +5564,10 @@
         <v>8.877146631439894</v>
       </c>
       <c r="E225">
-        <v>2308.058124174373</v>
+        <v>1154.029062087186</v>
       </c>
       <c r="F225">
-        <v>5225.680317040951</v>
+        <v>4071.651254953765</v>
       </c>
       <c r="G225">
         <v>5914.048000000001</v>
@@ -5587,10 +5587,10 @@
         <v>8.91677675033025</v>
       </c>
       <c r="E226">
-        <v>2318.361955085865</v>
+        <v>1159.180977542933</v>
       </c>
       <c r="F226">
-        <v>5249.009247027741</v>
+        <v>4089.828269484809</v>
       </c>
       <c r="G226">
         <v>5940.45</v>
@@ -5610,10 +5610,10 @@
         <v>8.956406869220608</v>
       </c>
       <c r="E227">
-        <v>2328.665785997358</v>
+        <v>1164.332892998679</v>
       </c>
       <c r="F227">
-        <v>5272.338177014532</v>
+        <v>4108.005284015852</v>
       </c>
       <c r="G227">
         <v>5966.852</v>
@@ -5633,10 +5633,10 @@
         <v>8.996036988110964</v>
       </c>
       <c r="E228">
-        <v>2338.969616908851</v>
+        <v>1169.484808454426</v>
       </c>
       <c r="F228">
-        <v>5295.667107001322</v>
+        <v>4126.182298546895</v>
       </c>
       <c r="G228">
         <v>5993.254</v>
@@ -5656,10 +5656,10 @@
         <v>9.03566710700132</v>
       </c>
       <c r="E229">
-        <v>2349.273447820344</v>
+        <v>1174.636723910172</v>
       </c>
       <c r="F229">
-        <v>5318.996036988111</v>
+        <v>4144.359313077939</v>
       </c>
       <c r="G229">
         <v>6019.656</v>
@@ -5679,10 +5679,10 @@
         <v>9.075297225891678</v>
       </c>
       <c r="E230">
-        <v>2359.577278731836</v>
+        <v>1179.788639365918</v>
       </c>
       <c r="F230">
-        <v>5342.324966974901</v>
+        <v>4162.536327608983</v>
       </c>
       <c r="G230">
         <v>6046.058</v>
@@ -5702,10 +5702,10 @@
         <v>9.114927344782034</v>
       </c>
       <c r="E231">
-        <v>2369.881109643329</v>
+        <v>1184.940554821665</v>
       </c>
       <c r="F231">
-        <v>5365.65389696169</v>
+        <v>4180.713342140027</v>
       </c>
       <c r="G231">
         <v>6072.46</v>
@@ -5725,10 +5725,10 @@
         <v>9.15455746367239</v>
       </c>
       <c r="E232">
-        <v>2380.184940554822</v>
+        <v>1190.092470277411</v>
       </c>
       <c r="F232">
-        <v>5388.982826948481</v>
+        <v>4198.890356671071</v>
       </c>
       <c r="G232">
         <v>6098.862</v>
@@ -5748,10 +5748,10 @@
         <v>9.194187582562748</v>
       </c>
       <c r="E233">
-        <v>2390.488771466315</v>
+        <v>1195.244385733157</v>
       </c>
       <c r="F233">
-        <v>5412.311756935271</v>
+        <v>4217.067371202114</v>
       </c>
       <c r="G233">
         <v>6125.264</v>
@@ -5771,10 +5771,10 @@
         <v>9.233817701453104</v>
       </c>
       <c r="E234">
-        <v>2400.792602377807</v>
+        <v>1200.396301188904</v>
       </c>
       <c r="F234">
-        <v>5435.640686922061</v>
+        <v>4235.244385733156</v>
       </c>
       <c r="G234">
         <v>6151.666</v>
@@ -5794,10 +5794,10 @@
         <v>9.27344782034346</v>
       </c>
       <c r="E235">
-        <v>2411.0964332893</v>
+        <v>1205.54821664465</v>
       </c>
       <c r="F235">
-        <v>5458.969616908851</v>
+        <v>4253.4214002642</v>
       </c>
       <c r="G235">
         <v>6178.068</v>
@@ -5817,10 +5817,10 @@
         <v>9.313077939233818</v>
       </c>
       <c r="E236">
-        <v>2421.400264200793</v>
+        <v>1210.700132100396</v>
       </c>
       <c r="F236">
-        <v>5482.298546895641</v>
+        <v>4271.598414795244</v>
       </c>
       <c r="G236">
         <v>6204.47</v>
@@ -5840,10 +5840,10 @@
         <v>9.352708058124174</v>
       </c>
       <c r="E237">
-        <v>2431.704095112285</v>
+        <v>1215.852047556143</v>
       </c>
       <c r="F237">
-        <v>5505.627476882431</v>
+        <v>4289.775429326288</v>
       </c>
       <c r="G237">
         <v>6230.872</v>
@@ -5863,10 +5863,10 @@
         <v>9.39233817701453</v>
       </c>
       <c r="E238">
-        <v>2442.007926023778</v>
+        <v>1221.003963011889</v>
       </c>
       <c r="F238">
-        <v>5528.956406869221</v>
+        <v>4307.952443857332</v>
       </c>
       <c r="G238">
         <v>6257.274</v>
@@ -5886,10 +5886,10 @@
         <v>9.431968295904888</v>
       </c>
       <c r="E239">
-        <v>2452.311756935271</v>
+        <v>1226.155878467635</v>
       </c>
       <c r="F239">
-        <v>5552.28533685601</v>
+        <v>4326.129458388375</v>
       </c>
       <c r="G239">
         <v>6283.676</v>
@@ -5909,10 +5909,10 @@
         <v>9.471598414795244</v>
       </c>
       <c r="E240">
-        <v>2462.615587846764</v>
+        <v>1231.307793923382</v>
       </c>
       <c r="F240">
-        <v>5575.6142668428</v>
+        <v>4344.306472919418</v>
       </c>
       <c r="G240">
         <v>6310.078</v>
@@ -5932,10 +5932,10 @@
         <v>9.5112285336856</v>
       </c>
       <c r="E241">
-        <v>2472.919418758257</v>
+        <v>1236.459709379128</v>
       </c>
       <c r="F241">
-        <v>5598.94319682959</v>
+        <v>4362.483487450462</v>
       </c>
       <c r="G241">
         <v>6336.48</v>
@@ -5955,10 +5955,10 @@
         <v>9.550858652575958</v>
       </c>
       <c r="E242">
-        <v>2483.223249669749</v>
+        <v>1241.611624834875</v>
       </c>
       <c r="F242">
-        <v>5622.27212681638</v>
+        <v>4380.660501981506</v>
       </c>
       <c r="G242">
         <v>6362.882000000001</v>
@@ -5978,10 +5978,10 @@
         <v>9.590488771466314</v>
       </c>
       <c r="E243">
-        <v>2493.527080581242</v>
+        <v>1246.763540290621</v>
       </c>
       <c r="F243">
-        <v>5645.601056803171</v>
+        <v>4398.83751651255</v>
       </c>
       <c r="G243">
         <v>6389.284000000001</v>
@@ -6001,10 +6001,10 @@
         <v>9.630118890356671</v>
       </c>
       <c r="E244">
-        <v>2503.830911492735</v>
+        <v>1251.915455746367</v>
       </c>
       <c r="F244">
-        <v>5668.929986789961</v>
+        <v>4417.014531043594</v>
       </c>
       <c r="G244">
         <v>6415.686000000001</v>
@@ -6024,10 +6024,10 @@
         <v>9.669749009247028</v>
       </c>
       <c r="E245">
-        <v>2514.134742404227</v>
+        <v>1257.067371202114</v>
       </c>
       <c r="F245">
-        <v>5692.25891677675</v>
+        <v>4435.191545574637</v>
       </c>
       <c r="G245">
         <v>6442.088000000001</v>
@@ -6047,10 +6047,10 @@
         <v>9.709379128137384</v>
       </c>
       <c r="E246">
-        <v>2524.43857331572</v>
+        <v>1262.21928665786</v>
       </c>
       <c r="F246">
-        <v>5715.58784676354</v>
+        <v>4453.36856010568</v>
       </c>
       <c r="G246">
         <v>6468.490000000001</v>
@@ -6070,10 +6070,10 @@
         <v>9.749009247027741</v>
       </c>
       <c r="E247">
-        <v>2534.742404227213</v>
+        <v>1267.371202113606</v>
       </c>
       <c r="F247">
-        <v>5738.91677675033</v>
+        <v>4471.545574636723</v>
       </c>
       <c r="G247">
         <v>6494.892</v>
@@ -6093,10 +6093,10 @@
         <v>9.788639365918097</v>
       </c>
       <c r="E248">
-        <v>2545.046235138705</v>
+        <v>1272.523117569353</v>
       </c>
       <c r="F248">
-        <v>5762.24570673712</v>
+        <v>4489.722589167767</v>
       </c>
       <c r="G248">
         <v>6521.294</v>
@@ -6116,10 +6116,10 @@
         <v>9.828269484808454</v>
       </c>
       <c r="E249">
-        <v>2555.350066050198</v>
+        <v>1277.675033025099</v>
       </c>
       <c r="F249">
-        <v>5785.57463672391</v>
+        <v>4507.899603698811</v>
       </c>
       <c r="G249">
         <v>6547.696</v>
@@ -6139,10 +6139,10 @@
         <v>9.867899603698811</v>
       </c>
       <c r="E250">
-        <v>2565.653896961691</v>
+        <v>1282.826948480845</v>
       </c>
       <c r="F250">
-        <v>5808.9035667107</v>
+        <v>4526.076618229855</v>
       </c>
       <c r="G250">
         <v>6574.098</v>
@@ -6162,10 +6162,10 @@
         <v>9.907529722589167</v>
       </c>
       <c r="E251">
-        <v>2575.957727873184</v>
+        <v>1287.978863936592</v>
       </c>
       <c r="F251">
-        <v>5832.23249669749</v>
+        <v>4544.253632760898</v>
       </c>
       <c r="G251">
         <v>6600.5</v>
@@ -6185,10 +6185,10 @@
         <v>9.947159841479523</v>
       </c>
       <c r="E252">
-        <v>2586.261558784677</v>
+        <v>1293.130779392338</v>
       </c>
       <c r="F252">
-        <v>5855.56142668428</v>
+        <v>4562.430647291942</v>
       </c>
       <c r="G252">
         <v>6626.902</v>
@@ -6208,10 +6208,10 @@
         <v>9.986789960369881</v>
       </c>
       <c r="E253">
-        <v>2596.565389696169</v>
+        <v>1298.282694848085</v>
       </c>
       <c r="F253">
-        <v>5878.890356671071</v>
+        <v>4580.607661822985</v>
       </c>
       <c r="G253">
         <v>6653.304</v>
@@ -6231,10 +6231,10 @@
         <v>10.02642007926024</v>
       </c>
       <c r="E254">
-        <v>2606.869220607662</v>
+        <v>1303.434610303831</v>
       </c>
       <c r="F254">
-        <v>5902.219286657861</v>
+        <v>4598.784676354029</v>
       </c>
       <c r="G254">
         <v>6679.706</v>
@@ -6254,10 +6254,10 @@
         <v>10.06605019815059</v>
       </c>
       <c r="E255">
-        <v>2617.173051519155</v>
+        <v>1308.586525759577</v>
       </c>
       <c r="F255">
-        <v>5925.54821664465</v>
+        <v>4616.961690885073</v>
       </c>
       <c r="G255">
         <v>6706.108</v>
@@ -6277,10 +6277,10 @@
         <v>10.10568031704095</v>
       </c>
       <c r="E256">
-        <v>2627.476882430647</v>
+        <v>1313.738441215324</v>
       </c>
       <c r="F256">
-        <v>5948.877146631439</v>
+        <v>4635.138705416116</v>
       </c>
       <c r="G256">
         <v>6732.51</v>
@@ -6300,10 +6300,10 @@
         <v>10.14531043593131</v>
       </c>
       <c r="E257">
-        <v>2637.78071334214</v>
+        <v>1318.89035667107</v>
       </c>
       <c r="F257">
-        <v>5972.206076618229</v>
+        <v>4653.31571994716</v>
       </c>
       <c r="G257">
         <v>6758.912</v>
@@ -6323,10 +6323,10 @@
         <v>10.18494055482166</v>
       </c>
       <c r="E258">
-        <v>2648.084544253633</v>
+        <v>1324.042272126816</v>
       </c>
       <c r="F258">
-        <v>5995.53500660502</v>
+        <v>4671.492734478204</v>
       </c>
       <c r="G258">
         <v>6785.314</v>
@@ -6346,10 +6346,10 @@
         <v>10.22457067371202</v>
       </c>
       <c r="E259">
-        <v>2658.388375165126</v>
+        <v>1329.194187582563</v>
       </c>
       <c r="F259">
-        <v>6018.86393659181</v>
+        <v>4689.669749009247</v>
       </c>
       <c r="G259">
         <v>6811.716</v>
@@ -6369,10 +6369,10 @@
         <v>10.26420079260238</v>
       </c>
       <c r="E260">
-        <v>2668.692206076618</v>
+        <v>1334.346103038309</v>
       </c>
       <c r="F260">
-        <v>6042.1928665786</v>
+        <v>4707.84676354029</v>
       </c>
       <c r="G260">
         <v>6838.118</v>
@@ -6392,10 +6392,10 @@
         <v>10.30383091149273</v>
       </c>
       <c r="E261">
-        <v>2678.996036988111</v>
+        <v>1339.498018494055</v>
       </c>
       <c r="F261">
-        <v>6065.52179656539</v>
+        <v>4726.023778071334</v>
       </c>
       <c r="G261">
         <v>6864.52</v>
@@ -6415,10 +6415,10 @@
         <v>10.34346103038309</v>
       </c>
       <c r="E262">
-        <v>2689.299867899604</v>
+        <v>1344.649933949802</v>
       </c>
       <c r="F262">
-        <v>6088.850726552179</v>
+        <v>4744.200792602378</v>
       </c>
       <c r="G262">
         <v>6890.922</v>
@@ -6438,10 +6438,10 @@
         <v>10.38309114927345</v>
       </c>
       <c r="E263">
-        <v>2699.603698811097</v>
+        <v>1349.801849405548</v>
       </c>
       <c r="F263">
-        <v>6112.17965653897</v>
+        <v>4762.377807133422</v>
       </c>
       <c r="G263">
         <v>6917.324000000001</v>
@@ -6461,10 +6461,10 @@
         <v>10.4227212681638</v>
       </c>
       <c r="E264">
-        <v>2709.90752972259</v>
+        <v>1354.953764861295</v>
       </c>
       <c r="F264">
-        <v>6135.50858652576</v>
+        <v>4780.554821664465</v>
       </c>
       <c r="G264">
         <v>6943.726000000001</v>
@@ -6484,10 +6484,10 @@
         <v>10.46235138705416</v>
       </c>
       <c r="E265">
-        <v>2720.211360634082</v>
+        <v>1360.105680317041</v>
       </c>
       <c r="F265">
-        <v>6158.83751651255</v>
+        <v>4798.731836195509</v>
       </c>
       <c r="G265">
         <v>6970.128000000001</v>
@@ -6507,10 +6507,10 @@
         <v>10.50198150594452</v>
       </c>
       <c r="E266">
-        <v>2730.515191545575</v>
+        <v>1365.257595772787</v>
       </c>
       <c r="F266">
-        <v>6182.166446499339</v>
+        <v>4816.908850726552</v>
       </c>
       <c r="G266">
         <v>6996.530000000001</v>
@@ -6530,10 +6530,10 @@
         <v>10.54161162483487</v>
       </c>
       <c r="E267">
-        <v>2740.819022457068</v>
+        <v>1370.409511228534</v>
       </c>
       <c r="F267">
-        <v>6205.495376486129</v>
+        <v>4835.085865257595</v>
       </c>
       <c r="G267">
         <v>7022.932000000001</v>
@@ -6553,10 +6553,10 @@
         <v>10.58124174372523</v>
       </c>
       <c r="E268">
-        <v>2751.12285336856</v>
+        <v>1375.56142668428</v>
       </c>
       <c r="F268">
-        <v>6228.824306472919</v>
+        <v>4853.262879788639</v>
       </c>
       <c r="G268">
         <v>7049.334</v>
@@ -6576,10 +6576,10 @@
         <v>10.62087186261559</v>
       </c>
       <c r="E269">
-        <v>2761.426684280053</v>
+        <v>1380.713342140026</v>
       </c>
       <c r="F269">
-        <v>6252.15323645971</v>
+        <v>4871.439894319683</v>
       </c>
       <c r="G269">
         <v>7075.736</v>
@@ -6599,10 +6599,10 @@
         <v>10.66050198150594</v>
       </c>
       <c r="E270">
-        <v>2771.730515191546</v>
+        <v>1385.865257595773</v>
       </c>
       <c r="F270">
-        <v>6275.4821664465</v>
+        <v>4889.616908850727</v>
       </c>
       <c r="G270">
         <v>7102.138</v>
@@ -6622,10 +6622,10 @@
         <v>10.7001321003963</v>
       </c>
       <c r="E271">
-        <v>2782.034346103038</v>
+        <v>1391.017173051519</v>
       </c>
       <c r="F271">
-        <v>6298.81109643329</v>
+        <v>4907.793923381771</v>
       </c>
       <c r="G271">
         <v>7128.54</v>
@@ -6645,10 +6645,10 @@
         <v>10.73976221928666</v>
       </c>
       <c r="E272">
-        <v>2792.338177014531</v>
+        <v>1396.169088507266</v>
       </c>
       <c r="F272">
-        <v>6322.140026420079</v>
+        <v>4925.970937912813</v>
       </c>
       <c r="G272">
         <v>7154.942</v>
@@ -6668,10 +6668,10 @@
         <v>10.77939233817701</v>
       </c>
       <c r="E273">
-        <v>2802.642007926024</v>
+        <v>1401.321003963012</v>
       </c>
       <c r="F273">
-        <v>6345.468956406869</v>
+        <v>4944.147952443857</v>
       </c>
       <c r="G273">
         <v>7181.344</v>
@@ -6691,10 +6691,10 @@
         <v>10.81902245706737</v>
       </c>
       <c r="E274">
-        <v>2812.945838837516</v>
+        <v>1406.472919418758</v>
       </c>
       <c r="F274">
-        <v>6368.797886393659</v>
+        <v>4962.324966974901</v>
       </c>
       <c r="G274">
         <v>7207.746</v>
@@ -6714,10 +6714,10 @@
         <v>10.85865257595773</v>
       </c>
       <c r="E275">
-        <v>2823.24966974901</v>
+        <v>1411.624834874505</v>
       </c>
       <c r="F275">
-        <v>6392.12681638045</v>
+        <v>4980.501981505945</v>
       </c>
       <c r="G275">
         <v>7234.148</v>
@@ -6737,10 +6737,10 @@
         <v>10.89828269484808</v>
       </c>
       <c r="E276">
-        <v>2833.553500660502</v>
+        <v>1416.776750330251</v>
       </c>
       <c r="F276">
-        <v>6415.455746367239</v>
+        <v>4998.678996036988</v>
       </c>
       <c r="G276">
         <v>7260.55</v>
@@ -6760,10 +6760,10 @@
         <v>10.93791281373844</v>
       </c>
       <c r="E277">
-        <v>2843.857331571995</v>
+        <v>1421.928665785998</v>
       </c>
       <c r="F277">
-        <v>6438.784676354029</v>
+        <v>5016.856010568032</v>
       </c>
       <c r="G277">
         <v>7286.952</v>
@@ -6783,10 +6783,10 @@
         <v>10.9775429326288</v>
       </c>
       <c r="E278">
-        <v>2854.161162483488</v>
+        <v>1427.080581241744</v>
       </c>
       <c r="F278">
-        <v>6462.113606340819</v>
+        <v>5035.033025099076</v>
       </c>
       <c r="G278">
         <v>7313.354</v>
@@ -6806,10 +6806,10 @@
         <v>11.01717305151915</v>
       </c>
       <c r="E279">
-        <v>2864.46499339498</v>
+        <v>1432.23249669749</v>
       </c>
       <c r="F279">
-        <v>6485.44253632761</v>
+        <v>5053.210039630119</v>
       </c>
       <c r="G279">
         <v>7339.756</v>
@@ -6829,10 +6829,10 @@
         <v>11.05680317040951</v>
       </c>
       <c r="E280">
-        <v>2874.768824306473</v>
+        <v>1437.384412153237</v>
       </c>
       <c r="F280">
-        <v>6508.7714663144</v>
+        <v>5071.387054161163</v>
       </c>
       <c r="G280">
         <v>7366.158</v>
@@ -6852,10 +6852,10 @@
         <v>11.09643328929987</v>
       </c>
       <c r="E281">
-        <v>2885.072655217966</v>
+        <v>1442.536327608983</v>
       </c>
       <c r="F281">
-        <v>6532.100396301189</v>
+        <v>5089.564068692206</v>
       </c>
       <c r="G281">
         <v>7392.56</v>
@@ -6875,10 +6875,10 @@
         <v>11.13606340819022</v>
       </c>
       <c r="E282">
-        <v>2895.376486129458</v>
+        <v>1447.688243064729</v>
       </c>
       <c r="F282">
-        <v>6555.429326287979</v>
+        <v>5107.74108322325</v>
       </c>
       <c r="G282">
         <v>7418.962</v>
@@ -6898,10 +6898,10 @@
         <v>11.17569352708058</v>
       </c>
       <c r="E283">
-        <v>2905.680317040951</v>
+        <v>1452.840158520476</v>
       </c>
       <c r="F283">
-        <v>6578.758256274768</v>
+        <v>5125.918097754293</v>
       </c>
       <c r="G283">
         <v>7445.364</v>
@@ -6921,10 +6921,10 @@
         <v>11.21532364597094</v>
       </c>
       <c r="E284">
-        <v>2915.984147952444</v>
+        <v>1457.992073976222</v>
       </c>
       <c r="F284">
-        <v>6602.087186261559</v>
+        <v>5144.095112285337</v>
       </c>
       <c r="G284">
         <v>7471.766000000001</v>
@@ -6944,10 +6944,10 @@
         <v>11.25495376486129</v>
       </c>
       <c r="E285">
-        <v>2926.287978863937</v>
+        <v>1463.143989431968</v>
       </c>
       <c r="F285">
-        <v>6625.416116248349</v>
+        <v>5162.27212681638</v>
       </c>
       <c r="G285">
         <v>7498.168000000001</v>
@@ -6967,10 +6967,10 @@
         <v>11.29458388375165</v>
       </c>
       <c r="E286">
-        <v>2936.591809775429</v>
+        <v>1468.295904887715</v>
       </c>
       <c r="F286">
-        <v>6648.745046235139</v>
+        <v>5180.449141347424</v>
       </c>
       <c r="G286">
         <v>7524.570000000001</v>
@@ -6990,10 +6990,10 @@
         <v>11.33421400264201</v>
       </c>
       <c r="E287">
-        <v>2946.895640686922</v>
+        <v>1473.447820343461</v>
       </c>
       <c r="F287">
-        <v>6672.073976221929</v>
+        <v>5198.626155878468</v>
       </c>
       <c r="G287">
         <v>7550.972000000001</v>
@@ -7013,10 +7013,10 @@
         <v>11.37384412153236</v>
       </c>
       <c r="E288">
-        <v>2957.199471598415</v>
+        <v>1478.599735799208</v>
       </c>
       <c r="F288">
-        <v>6695.402906208719</v>
+        <v>5216.803170409511</v>
       </c>
       <c r="G288">
         <v>7577.374000000001</v>
@@ -7036,10 +7036,10 @@
         <v>11.41347424042272</v>
       </c>
       <c r="E289">
-        <v>2967.503302509908</v>
+        <v>1483.751651254954</v>
       </c>
       <c r="F289">
-        <v>6718.731836195509</v>
+        <v>5234.980184940555</v>
       </c>
       <c r="G289">
         <v>7603.776</v>
@@ -7059,10 +7059,10 @@
         <v>11.45310435931308</v>
       </c>
       <c r="E290">
-        <v>2977.807133421401</v>
+        <v>1488.9035667107</v>
       </c>
       <c r="F290">
-        <v>6742.060766182299</v>
+        <v>5253.157199471599</v>
       </c>
       <c r="G290">
         <v>7630.178</v>
@@ -7082,10 +7082,10 @@
         <v>11.49273447820343</v>
       </c>
       <c r="E291">
-        <v>2988.110964332893</v>
+        <v>1494.055482166447</v>
       </c>
       <c r="F291">
-        <v>6765.389696169089</v>
+        <v>5271.334214002643</v>
       </c>
       <c r="G291">
         <v>7656.58</v>
@@ -7105,10 +7105,10 @@
         <v>11.53236459709379</v>
       </c>
       <c r="E292">
-        <v>2998.414795244386</v>
+        <v>1499.207397622193</v>
       </c>
       <c r="F292">
-        <v>6788.718626155878</v>
+        <v>5289.511228533685</v>
       </c>
       <c r="G292">
         <v>7682.982</v>
@@ -7128,10 +7128,10 @@
         <v>11.57199471598415</v>
       </c>
       <c r="E293">
-        <v>3008.718626155879</v>
+        <v>1504.359313077939</v>
       </c>
       <c r="F293">
-        <v>6812.047556142668</v>
+        <v>5307.688243064729</v>
       </c>
       <c r="G293">
         <v>7709.384</v>
@@ -7151,10 +7151,10 @@
         <v>11.6116248348745</v>
       </c>
       <c r="E294">
-        <v>3019.022457067371</v>
+        <v>1509.511228533686</v>
       </c>
       <c r="F294">
-        <v>6835.376486129458</v>
+        <v>5325.865257595773</v>
       </c>
       <c r="G294">
         <v>7735.786</v>
@@ -7174,10 +7174,10 @@
         <v>11.65125495376486</v>
       </c>
       <c r="E295">
-        <v>3029.326287978864</v>
+        <v>1514.663143989432</v>
       </c>
       <c r="F295">
-        <v>6858.705416116249</v>
+        <v>5344.042272126816</v>
       </c>
       <c r="G295">
         <v>7762.188</v>
@@ -7197,10 +7197,10 @@
         <v>11.69088507265522</v>
       </c>
       <c r="E296">
-        <v>3039.630118890357</v>
+        <v>1519.815059445178</v>
       </c>
       <c r="F296">
-        <v>6882.034346103039</v>
+        <v>5362.21928665786</v>
       </c>
       <c r="G296">
         <v>7788.59</v>
@@ -7220,10 +7220,10 @@
         <v>11.73051519154557</v>
       </c>
       <c r="E297">
-        <v>3049.933949801849</v>
+        <v>1524.966974900925</v>
       </c>
       <c r="F297">
-        <v>6905.363276089828</v>
+        <v>5380.396301188904</v>
       </c>
       <c r="G297">
         <v>7814.992</v>
@@ -7243,10 +7243,10 @@
         <v>11.77014531043593</v>
       </c>
       <c r="E298">
-        <v>3060.237780713343</v>
+        <v>1530.118890356671</v>
       </c>
       <c r="F298">
-        <v>6928.692206076619</v>
+        <v>5398.573315719947</v>
       </c>
       <c r="G298">
         <v>7841.394</v>
@@ -7266,10 +7266,10 @@
         <v>11.80977542932629</v>
       </c>
       <c r="E299">
-        <v>3070.541611624835</v>
+        <v>1535.270805812418</v>
       </c>
       <c r="F299">
-        <v>6952.021136063409</v>
+        <v>5416.750330250991</v>
       </c>
       <c r="G299">
         <v>7867.796</v>
@@ -7289,10 +7289,10 @@
         <v>11.84940554821664</v>
       </c>
       <c r="E300">
-        <v>3080.845442536328</v>
+        <v>1540.422721268164</v>
       </c>
       <c r="F300">
-        <v>6975.350066050198</v>
+        <v>5434.927344782034</v>
       </c>
       <c r="G300">
         <v>7894.198</v>
@@ -7312,10 +7312,10 @@
         <v>11.889035667107</v>
       </c>
       <c r="E301">
-        <v>3091.149273447821</v>
+        <v>1545.57463672391</v>
       </c>
       <c r="F301">
-        <v>6998.678996036988</v>
+        <v>5453.104359313078</v>
       </c>
       <c r="G301">
         <v>7920.6</v>
@@ -7335,10 +7335,10 @@
         <v>11.92866578599736</v>
       </c>
       <c r="E302">
-        <v>3101.453104359313</v>
+        <v>1550.726552179657</v>
       </c>
       <c r="F302">
-        <v>7022.007926023778</v>
+        <v>5471.281373844122</v>
       </c>
       <c r="G302">
         <v>7947.002</v>
@@ -7358,10 +7358,10 @@
         <v>11.96829590488771</v>
       </c>
       <c r="E303">
-        <v>3111.756935270806</v>
+        <v>1555.878467635403</v>
       </c>
       <c r="F303">
-        <v>7045.336856010568</v>
+        <v>5489.458388375166</v>
       </c>
       <c r="G303">
         <v>7973.404</v>
@@ -7381,10 +7381,10 @@
         <v>12.00792602377807</v>
       </c>
       <c r="E304">
-        <v>3122.060766182299</v>
+        <v>1561.030383091149</v>
       </c>
       <c r="F304">
-        <v>7068.665785997358</v>
+        <v>5507.635402906209</v>
       </c>
       <c r="G304">
         <v>7999.806</v>
@@ -7404,10 +7404,10 @@
         <v>12.04755614266843</v>
       </c>
       <c r="E305">
-        <v>3132.364597093791</v>
+        <v>1566.182298546896</v>
       </c>
       <c r="F305">
-        <v>7091.994715984148</v>
+        <v>5525.812417437251</v>
       </c>
       <c r="G305">
         <v>8026.208000000001</v>
@@ -7427,10 +7427,10 @@
         <v>12.08718626155878</v>
       </c>
       <c r="E306">
-        <v>3142.668428005284</v>
+        <v>1571.334214002642</v>
       </c>
       <c r="F306">
-        <v>7115.323645970938</v>
+        <v>5543.989431968295</v>
       </c>
       <c r="G306">
         <v>8052.610000000001</v>
@@ -7450,10 +7450,10 @@
         <v>12.12681638044914</v>
       </c>
       <c r="E307">
-        <v>3152.972258916777</v>
+        <v>1576.486129458388</v>
       </c>
       <c r="F307">
-        <v>7138.652575957729</v>
+        <v>5562.16644649934</v>
       </c>
       <c r="G307">
         <v>8079.012000000001</v>
@@ -7473,10 +7473,10 @@
         <v>12.1664464993395</v>
       </c>
       <c r="E308">
-        <v>3163.27608982827</v>
+        <v>1581.638044914135</v>
       </c>
       <c r="F308">
-        <v>7161.981505944517</v>
+        <v>5580.343461030383</v>
       </c>
       <c r="G308">
         <v>8105.414000000001</v>
@@ -7496,10 +7496,10 @@
         <v>12.20607661822985</v>
       </c>
       <c r="E309">
-        <v>3173.579920739762</v>
+        <v>1586.789960369881</v>
       </c>
       <c r="F309">
-        <v>7185.310435931307</v>
+        <v>5598.520475561427</v>
       </c>
       <c r="G309">
         <v>8131.816000000001</v>
@@ -7519,10 +7519,10 @@
         <v>12.24570673712021</v>
       </c>
       <c r="E310">
-        <v>3183.883751651255</v>
+        <v>1591.941875825628</v>
       </c>
       <c r="F310">
-        <v>7208.639365918099</v>
+        <v>5616.697490092471</v>
       </c>
       <c r="G310">
         <v>8158.218000000001</v>
@@ -7542,10 +7542,10 @@
         <v>12.28533685601057</v>
       </c>
       <c r="E311">
-        <v>3194.187582562748</v>
+        <v>1597.093791281374</v>
       </c>
       <c r="F311">
-        <v>7231.968295904888</v>
+        <v>5634.874504623514</v>
       </c>
       <c r="G311">
         <v>8184.62</v>
@@ -7565,10 +7565,10 @@
         <v>12.32496697490092</v>
       </c>
       <c r="E312">
-        <v>3204.491413474241</v>
+        <v>1602.24570673712</v>
       </c>
       <c r="F312">
-        <v>7255.297225891678</v>
+        <v>5653.051519154558</v>
       </c>
       <c r="G312">
         <v>8211.022000000001</v>
@@ -7588,10 +7588,10 @@
         <v>12.36459709379128</v>
       </c>
       <c r="E313">
-        <v>3214.795244385733</v>
+        <v>1607.397622192867</v>
       </c>
       <c r="F313">
-        <v>7278.626155878468</v>
+        <v>5671.228533685601</v>
       </c>
       <c r="G313">
         <v>8237.424000000001</v>
@@ -7611,10 +7611,10 @@
         <v>12.40422721268164</v>
       </c>
       <c r="E314">
-        <v>3225.099075297226</v>
+        <v>1612.549537648613</v>
       </c>
       <c r="F314">
-        <v>7301.955085865258</v>
+        <v>5689.405548216645</v>
       </c>
       <c r="G314">
         <v>8263.826000000001</v>
@@ -7634,10 +7634,10 @@
         <v>12.44385733157199</v>
       </c>
       <c r="E315">
-        <v>3235.402906208719</v>
+        <v>1617.701453104359</v>
       </c>
       <c r="F315">
-        <v>7325.284015852048</v>
+        <v>5707.582562747689</v>
       </c>
       <c r="G315">
         <v>8290.228000000001</v>
@@ -7657,10 +7657,10 @@
         <v>12.48348745046235</v>
       </c>
       <c r="E316">
-        <v>3245.706737120212</v>
+        <v>1622.853368560106</v>
       </c>
       <c r="F316">
-        <v>7348.612945838839</v>
+        <v>5725.759577278733</v>
       </c>
       <c r="G316">
         <v>8316.630000000001</v>
@@ -7680,10 +7680,10 @@
         <v>12.52311756935271</v>
       </c>
       <c r="E317">
-        <v>3256.010568031704</v>
+        <v>1628.005284015852</v>
       </c>
       <c r="F317">
-        <v>7371.941875825627</v>
+        <v>5743.936591809776</v>
       </c>
       <c r="G317">
         <v>8343.032000000001</v>
@@ -7703,10 +7703,10 @@
         <v>12.56274768824306</v>
       </c>
       <c r="E318">
-        <v>3266.314398943197</v>
+        <v>1633.157199471598</v>
       </c>
       <c r="F318">
-        <v>7395.270805812417</v>
+        <v>5762.113606340818</v>
       </c>
       <c r="G318">
         <v>8369.434000000001</v>
@@ -7726,10 +7726,10 @@
         <v>12.60237780713342</v>
       </c>
       <c r="E319">
-        <v>3276.61822985469</v>
+        <v>1638.309114927345</v>
       </c>
       <c r="F319">
-        <v>7418.599735799207</v>
+        <v>5780.290620871862</v>
       </c>
       <c r="G319">
         <v>8395.836000000001</v>
@@ -7749,10 +7749,10 @@
         <v>12.64200792602378</v>
       </c>
       <c r="E320">
-        <v>3286.922060766182</v>
+        <v>1643.461030383091</v>
       </c>
       <c r="F320">
-        <v>7441.928665785996</v>
+        <v>5798.467635402905</v>
       </c>
       <c r="G320">
         <v>8422.238000000001</v>
@@ -7772,10 +7772,10 @@
         <v>12.68163804491413</v>
       </c>
       <c r="E321">
-        <v>3297.225891677675</v>
+        <v>1648.612945838838</v>
       </c>
       <c r="F321">
-        <v>7465.257595772788</v>
+        <v>5816.64464993395</v>
       </c>
       <c r="G321">
         <v>8448.639999999999</v>
@@ -7795,10 +7795,10 @@
         <v>12.72126816380449</v>
       </c>
       <c r="E322">
-        <v>3307.529722589168</v>
+        <v>1653.764861294584</v>
       </c>
       <c r="F322">
-        <v>7488.586525759578</v>
+        <v>5834.821664464994</v>
       </c>
       <c r="G322">
         <v>8475.041999999999</v>
@@ -7818,10 +7818,10 @@
         <v>12.76089828269485</v>
       </c>
       <c r="E323">
-        <v>3317.833553500661</v>
+        <v>1658.91677675033</v>
       </c>
       <c r="F323">
-        <v>7511.915455746368</v>
+        <v>5852.998678996038</v>
       </c>
       <c r="G323">
         <v>8501.444</v>
@@ -7841,10 +7841,10 @@
         <v>12.8005284015852</v>
       </c>
       <c r="E324">
-        <v>3328.137384412154</v>
+        <v>1664.068692206077</v>
       </c>
       <c r="F324">
-        <v>7535.244385733157</v>
+        <v>5871.175693527081</v>
       </c>
       <c r="G324">
         <v>8527.846</v>
@@ -7864,10 +7864,10 @@
         <v>12.84015852047556</v>
       </c>
       <c r="E325">
-        <v>3338.441215323646</v>
+        <v>1669.220607661823</v>
       </c>
       <c r="F325">
-        <v>7558.573315719947</v>
+        <v>5889.352708058124</v>
       </c>
       <c r="G325">
         <v>8554.248</v>
@@ -7887,10 +7887,10 @@
         <v>12.87978863936592</v>
       </c>
       <c r="E326">
-        <v>3348.745046235139</v>
+        <v>1674.372523117569</v>
       </c>
       <c r="F326">
-        <v>7581.902245706738</v>
+        <v>5907.529722589168</v>
       </c>
       <c r="G326">
         <v>8580.65</v>
@@ -7910,10 +7910,10 @@
         <v>12.91941875825627</v>
       </c>
       <c r="E327">
-        <v>3359.048877146632</v>
+        <v>1679.524438573316</v>
       </c>
       <c r="F327">
-        <v>7605.231175693527</v>
+        <v>5925.706737120211</v>
       </c>
       <c r="G327">
         <v>8607.052</v>
@@ -7933,10 +7933,10 @@
         <v>12.95904887714663</v>
       </c>
       <c r="E328">
-        <v>3369.352708058124</v>
+        <v>1684.676354029062</v>
       </c>
       <c r="F328">
-        <v>7628.560105680317</v>
+        <v>5943.883751651255</v>
       </c>
       <c r="G328">
         <v>8633.454</v>
@@ -7956,10 +7956,10 @@
         <v>12.99867899603699</v>
       </c>
       <c r="E329">
-        <v>3379.656538969617</v>
+        <v>1689.828269484809</v>
       </c>
       <c r="F329">
-        <v>7651.889035667107</v>
+        <v>5962.060766182299</v>
       </c>
       <c r="G329">
         <v>8659.856</v>
@@ -7979,10 +7979,10 @@
         <v>13.03830911492734</v>
       </c>
       <c r="E330">
-        <v>3389.96036988111</v>
+        <v>1694.980184940555</v>
       </c>
       <c r="F330">
-        <v>7675.217965653896</v>
+        <v>5980.237780713342</v>
       </c>
       <c r="G330">
         <v>8686.258</v>
@@ -8002,10 +8002,10 @@
         <v>13.0779392338177</v>
       </c>
       <c r="E331">
-        <v>3400.264200792602</v>
+        <v>1700.132100396301</v>
       </c>
       <c r="F331">
-        <v>7698.546895640687</v>
+        <v>5998.414795244385</v>
       </c>
       <c r="G331">
         <v>8712.66</v>
@@ -8025,10 +8025,10 @@
         <v>13.11756935270806</v>
       </c>
       <c r="E332">
-        <v>3410.568031704095</v>
+        <v>1705.284015852048</v>
       </c>
       <c r="F332">
-        <v>7721.875825627477</v>
+        <v>6016.591809775429</v>
       </c>
       <c r="G332">
         <v>8739.062</v>
@@ -8048,10 +8048,10 @@
         <v>13.15719947159841</v>
       </c>
       <c r="E333">
-        <v>3420.871862615588</v>
+        <v>1710.435931307794</v>
       </c>
       <c r="F333">
-        <v>7745.204755614268</v>
+        <v>6034.768824306473</v>
       </c>
       <c r="G333">
         <v>8765.464</v>
@@ -8071,10 +8071,10 @@
         <v>13.19682959048877</v>
       </c>
       <c r="E334">
-        <v>3431.175693527081</v>
+        <v>1715.58784676354</v>
       </c>
       <c r="F334">
-        <v>7768.533685601058</v>
+        <v>6052.945838837517</v>
       </c>
       <c r="G334">
         <v>8791.866</v>
@@ -8094,10 +8094,10 @@
         <v>13.23645970937913</v>
       </c>
       <c r="E335">
-        <v>3441.479524438574</v>
+        <v>1720.739762219287</v>
       </c>
       <c r="F335">
-        <v>7791.862615587846</v>
+        <v>6071.12285336856</v>
       </c>
       <c r="G335">
         <v>8818.268</v>
@@ -8117,10 +8117,10 @@
         <v>13.27608982826948</v>
       </c>
       <c r="E336">
-        <v>3451.783355350066</v>
+        <v>1725.891677675033</v>
       </c>
       <c r="F336">
-        <v>7815.191545574637</v>
+        <v>6089.299867899604</v>
       </c>
       <c r="G336">
         <v>8844.67</v>
@@ -8140,10 +8140,10 @@
         <v>13.31571994715984</v>
       </c>
       <c r="E337">
-        <v>3462.087186261559</v>
+        <v>1731.04359313078</v>
       </c>
       <c r="F337">
-        <v>7838.520475561427</v>
+        <v>6107.476882430647</v>
       </c>
       <c r="G337">
         <v>8871.072</v>
@@ -8163,10 +8163,10 @@
         <v>13.3553500660502</v>
       </c>
       <c r="E338">
-        <v>3472.391017173052</v>
+        <v>1736.195508586526</v>
       </c>
       <c r="F338">
-        <v>7861.849405548217</v>
+        <v>6125.65389696169</v>
       </c>
       <c r="G338">
         <v>8897.474</v>
@@ -8186,10 +8186,10 @@
         <v>13.39498018494055</v>
       </c>
       <c r="E339">
-        <v>3482.694848084544</v>
+        <v>1741.347424042272</v>
       </c>
       <c r="F339">
-        <v>7885.178335535007</v>
+        <v>6143.830911492734</v>
       </c>
       <c r="G339">
         <v>8923.876</v>
@@ -8209,10 +8209,10 @@
         <v>13.43461030383091</v>
       </c>
       <c r="E340">
-        <v>3492.998678996037</v>
+        <v>1746.499339498019</v>
       </c>
       <c r="F340">
-        <v>7908.507265521797</v>
+        <v>6162.007926023778</v>
       </c>
       <c r="G340">
         <v>8950.278</v>
@@ -8232,10 +8232,10 @@
         <v>13.47424042272127</v>
       </c>
       <c r="E341">
-        <v>3503.30250990753</v>
+        <v>1751.651254953765</v>
       </c>
       <c r="F341">
-        <v>7931.836195508586</v>
+        <v>6180.184940554821</v>
       </c>
       <c r="G341">
         <v>8976.68</v>
@@ -8255,10 +8255,10 @@
         <v>13.51387054161162</v>
       </c>
       <c r="E342">
-        <v>3513.606340819023</v>
+        <v>1756.803170409511</v>
       </c>
       <c r="F342">
-        <v>7955.165125495376</v>
+        <v>6198.361955085865</v>
       </c>
       <c r="G342">
         <v>9003.082</v>
@@ -8278,10 +8278,10 @@
         <v>13.55350066050198</v>
       </c>
       <c r="E343">
-        <v>3523.910171730515</v>
+        <v>1761.955085865258</v>
       </c>
       <c r="F343">
-        <v>7978.494055482166</v>
+        <v>6216.538969616909</v>
       </c>
       <c r="G343">
         <v>9029.484</v>
@@ -8301,10 +8301,10 @@
         <v>13.59313077939234</v>
       </c>
       <c r="E344">
-        <v>3534.214002642008</v>
+        <v>1767.107001321004</v>
       </c>
       <c r="F344">
-        <v>8001.822985468956</v>
+        <v>6234.715984147952</v>
       </c>
       <c r="G344">
         <v>9055.886</v>
@@ -8324,10 +8324,10 @@
         <v>13.63276089828269</v>
       </c>
       <c r="E345">
-        <v>3544.517833553501</v>
+        <v>1772.258916776751</v>
       </c>
       <c r="F345">
-        <v>8025.151915455747</v>
+        <v>6252.892998678997</v>
       </c>
       <c r="G345">
         <v>9082.288</v>
@@ -8347,10 +8347,10 @@
         <v>13.67239101717305</v>
       </c>
       <c r="E346">
-        <v>3554.821664464994</v>
+        <v>1777.410832232497</v>
       </c>
       <c r="F346">
-        <v>8048.480845442537</v>
+        <v>6271.070013210039</v>
       </c>
       <c r="G346">
         <v>9108.690000000001</v>
@@ -8370,10 +8370,10 @@
         <v>13.71202113606341</v>
       </c>
       <c r="E347">
-        <v>3565.125495376486</v>
+        <v>1782.562747688243</v>
       </c>
       <c r="F347">
-        <v>8071.809775429327</v>
+        <v>6289.247027741083</v>
       </c>
       <c r="G347">
         <v>9135.092000000001</v>
@@ -8393,10 +8393,10 @@
         <v>13.75165125495376</v>
       </c>
       <c r="E348">
-        <v>3575.429326287979</v>
+        <v>1787.71466314399</v>
       </c>
       <c r="F348">
-        <v>8095.138705416116</v>
+        <v>6307.424042272127</v>
       </c>
       <c r="G348">
         <v>9161.494000000001</v>
@@ -8416,10 +8416,10 @@
         <v>13.79128137384412</v>
       </c>
       <c r="E349">
-        <v>3585.733157199472</v>
+        <v>1792.866578599736</v>
       </c>
       <c r="F349">
-        <v>8118.467635402906</v>
+        <v>6325.601056803171</v>
       </c>
       <c r="G349">
         <v>9187.896000000001</v>
@@ -8439,10 +8439,10 @@
         <v>13.83091149273448</v>
       </c>
       <c r="E350">
-        <v>3596.036988110965</v>
+        <v>1798.018494055482</v>
       </c>
       <c r="F350">
-        <v>8141.796565389696</v>
+        <v>6343.778071334214</v>
       </c>
       <c r="G350">
         <v>9214.298000000001</v>
@@ -8462,10 +8462,10 @@
         <v>13.87054161162483</v>
       </c>
       <c r="E351">
-        <v>3606.340819022457</v>
+        <v>1803.170409511229</v>
       </c>
       <c r="F351">
-        <v>8165.125495376486</v>
+        <v>6361.955085865258</v>
       </c>
       <c r="G351">
         <v>9240.700000000001</v>
@@ -8485,10 +8485,10 @@
         <v>13.91017173051519</v>
       </c>
       <c r="E352">
-        <v>3616.64464993395</v>
+        <v>1808.322324966975</v>
       </c>
       <c r="F352">
-        <v>8188.454425363276</v>
+        <v>6380.1321003963</v>
       </c>
       <c r="G352">
         <v>9267.102000000001</v>
@@ -8508,10 +8508,10 @@
         <v>13.94980184940555</v>
       </c>
       <c r="E353">
-        <v>3626.948480845443</v>
+        <v>1813.474240422721</v>
       </c>
       <c r="F353">
-        <v>8211.783355350066</v>
+        <v>6398.309114927344</v>
       </c>
       <c r="G353">
         <v>9293.504000000001</v>
@@ -8531,10 +8531,10 @@
         <v>13.9894319682959</v>
       </c>
       <c r="E354">
-        <v>3637.252311756935</v>
+        <v>1818.626155878468</v>
       </c>
       <c r="F354">
-        <v>8235.112285336856</v>
+        <v>6416.486129458388</v>
       </c>
       <c r="G354">
         <v>9319.906000000001</v>
@@ -8554,10 +8554,10 @@
         <v>14.02906208718626</v>
       </c>
       <c r="E355">
-        <v>3647.556142668428</v>
+        <v>1823.778071334214</v>
       </c>
       <c r="F355">
-        <v>8258.441215323646</v>
+        <v>6434.663143989432</v>
       </c>
       <c r="G355">
         <v>9346.308000000001</v>
@@ -8577,10 +8577,10 @@
         <v>14.06869220607662</v>
       </c>
       <c r="E356">
-        <v>3657.859973579921</v>
+        <v>1828.929986789961</v>
       </c>
       <c r="F356">
-        <v>8281.770145310436</v>
+        <v>6452.840158520477</v>
       </c>
       <c r="G356">
         <v>9372.710000000001</v>
@@ -8600,10 +8600,10 @@
         <v>14.10832232496697</v>
       </c>
       <c r="E357">
-        <v>3668.163804491414</v>
+        <v>1834.081902245707</v>
       </c>
       <c r="F357">
-        <v>8305.099075297227</v>
+        <v>6471.017173051519</v>
       </c>
       <c r="G357">
         <v>9399.112000000001</v>
@@ -8623,10 +8623,10 @@
         <v>14.14795244385733</v>
       </c>
       <c r="E358">
-        <v>3678.467635402907</v>
+        <v>1839.233817701453</v>
       </c>
       <c r="F358">
-        <v>8328.428005284017</v>
+        <v>6489.194187582563</v>
       </c>
       <c r="G358">
         <v>9425.514000000001</v>
@@ -8646,10 +8646,10 @@
         <v>14.18758256274769</v>
       </c>
       <c r="E359">
-        <v>3688.771466314399</v>
+        <v>1844.3857331572</v>
       </c>
       <c r="F359">
-        <v>8351.756935270805</v>
+        <v>6507.371202113606</v>
       </c>
       <c r="G359">
         <v>9451.916000000001</v>
@@ -8669,10 +8669,10 @@
         <v>14.22721268163804</v>
       </c>
       <c r="E360">
-        <v>3699.075297225892</v>
+        <v>1849.537648612946</v>
       </c>
       <c r="F360">
-        <v>8375.085865257595</v>
+        <v>6525.54821664465</v>
       </c>
       <c r="G360">
         <v>9478.318000000001</v>
@@ -8692,10 +8692,10 @@
         <v>14.2668428005284</v>
       </c>
       <c r="E361">
-        <v>3709.379128137385</v>
+        <v>1854.689564068692</v>
       </c>
       <c r="F361">
-        <v>8398.414795244385</v>
+        <v>6543.725231175694</v>
       </c>
       <c r="G361">
         <v>9504.720000000001</v>
@@ -8715,10 +8715,10 @@
         <v>14.30647291941876</v>
       </c>
       <c r="E362">
-        <v>3719.682959048877</v>
+        <v>1859.841479524439</v>
       </c>
       <c r="F362">
-        <v>8421.743725231176</v>
+        <v>6561.902245706738</v>
       </c>
       <c r="G362">
         <v>9531.122000000001</v>
@@ -8738,10 +8738,10 @@
         <v>14.34610303830911</v>
       </c>
       <c r="E363">
-        <v>3729.98678996037</v>
+        <v>1864.993394980185</v>
       </c>
       <c r="F363">
-        <v>8445.072655217966</v>
+        <v>6580.079260237781</v>
       </c>
       <c r="G363">
         <v>9557.524000000001</v>
@@ -8761,10 +8761,10 @@
         <v>14.38573315719947</v>
       </c>
       <c r="E364">
-        <v>3740.290620871863</v>
+        <v>1870.145310435931</v>
       </c>
       <c r="F364">
-        <v>8468.401585204756</v>
+        <v>6598.256274768824</v>
       </c>
       <c r="G364">
         <v>9583.925999999999</v>
@@ -8784,10 +8784,10 @@
         <v>14.42536327608983</v>
       </c>
       <c r="E365">
-        <v>3750.594451783355</v>
+        <v>1875.297225891678</v>
       </c>
       <c r="F365">
-        <v>8491.730515191546</v>
+        <v>6616.433289299868</v>
       </c>
       <c r="G365">
         <v>9610.328</v>
@@ -8807,10 +8807,10 @@
         <v>14.46499339498018</v>
       </c>
       <c r="E366">
-        <v>3760.898282694848</v>
+        <v>1880.449141347424</v>
       </c>
       <c r="F366">
-        <v>8515.059445178336</v>
+        <v>6634.610303830912</v>
       </c>
       <c r="G366">
         <v>9636.73</v>
@@ -8830,10 +8830,10 @@
         <v>14.50462351387054</v>
       </c>
       <c r="E367">
-        <v>3771.202113606341</v>
+        <v>1885.60105680317</v>
       </c>
       <c r="F367">
-        <v>8538.388375165126</v>
+        <v>6652.787318361956</v>
       </c>
       <c r="G367">
         <v>9663.132</v>
@@ -8853,10 +8853,10 @@
         <v>14.5442536327609</v>
       </c>
       <c r="E368">
-        <v>3781.505944517834</v>
+        <v>1890.752972258917</v>
       </c>
       <c r="F368">
-        <v>8561.717305151917</v>
+        <v>6670.964332892999</v>
       </c>
       <c r="G368">
         <v>9689.534</v>
@@ -8876,10 +8876,10 @@
         <v>14.58388375165125</v>
       </c>
       <c r="E369">
-        <v>3791.809775429327</v>
+        <v>1895.904887714663</v>
       </c>
       <c r="F369">
-        <v>8585.046235138705</v>
+        <v>6689.141347424042</v>
       </c>
       <c r="G369">
         <v>9715.936</v>
@@ -8899,10 +8899,10 @@
         <v>14.62351387054161</v>
       </c>
       <c r="E370">
-        <v>3802.113606340819</v>
+        <v>1901.05680317041</v>
       </c>
       <c r="F370">
-        <v>8608.375165125495</v>
+        <v>6707.318361955085</v>
       </c>
       <c r="G370">
         <v>9742.338</v>
@@ -8922,10 +8922,10 @@
         <v>14.66314398943197</v>
       </c>
       <c r="E371">
-        <v>3812.417437252312</v>
+        <v>1906.208718626156</v>
       </c>
       <c r="F371">
-        <v>8631.704095112285</v>
+        <v>6725.495376486129</v>
       </c>
       <c r="G371">
         <v>9768.74</v>
@@ -8945,10 +8945,10 @@
         <v>14.70277410832233</v>
       </c>
       <c r="E372">
-        <v>3822.721268163805</v>
+        <v>1911.360634081902</v>
       </c>
       <c r="F372">
-        <v>8655.033025099076</v>
+        <v>6743.672391017173</v>
       </c>
       <c r="G372">
         <v>9795.142</v>
@@ -8968,10 +8968,10 @@
         <v>14.74240422721268</v>
       </c>
       <c r="E373">
-        <v>3833.025099075297</v>
+        <v>1916.512549537649</v>
       </c>
       <c r="F373">
-        <v>8678.361955085866</v>
+        <v>6761.849405548217</v>
       </c>
       <c r="G373">
         <v>9821.544</v>
@@ -8991,10 +8991,10 @@
         <v>14.78203434610304</v>
       </c>
       <c r="E374">
-        <v>3843.32892998679</v>
+        <v>1921.664464993395</v>
       </c>
       <c r="F374">
-        <v>8701.690885072654</v>
+        <v>6780.02642007926</v>
       </c>
       <c r="G374">
         <v>9847.946</v>
@@ -9014,10 +9014,10 @@
         <v>14.8216644649934</v>
       </c>
       <c r="E375">
-        <v>3853.632760898283</v>
+        <v>1926.816380449141</v>
       </c>
       <c r="F375">
-        <v>8725.019815059444</v>
+        <v>6798.203434610304</v>
       </c>
       <c r="G375">
         <v>9874.348</v>
@@ -9037,10 +9037,10 @@
         <v>14.86129458388375</v>
       </c>
       <c r="E376">
-        <v>3863.936591809776</v>
+        <v>1931.968295904888</v>
       </c>
       <c r="F376">
-        <v>8748.348745046234</v>
+        <v>6816.380449141348</v>
       </c>
       <c r="G376">
         <v>9900.75</v>
@@ -9060,10 +9060,10 @@
         <v>14.90092470277411</v>
       </c>
       <c r="E377">
-        <v>3874.240422721268</v>
+        <v>1937.120211360634</v>
       </c>
       <c r="F377">
-        <v>8771.677675033025</v>
+        <v>6834.557463672391</v>
       </c>
       <c r="G377">
         <v>9927.152</v>
@@ -9083,10 +9083,10 @@
         <v>14.94055482166447</v>
       </c>
       <c r="E378">
-        <v>3884.544253632761</v>
+        <v>1942.27212681638</v>
       </c>
       <c r="F378">
-        <v>8795.006605019815</v>
+        <v>6852.734478203435</v>
       </c>
       <c r="G378">
         <v>9953.554</v>
@@ -9106,10 +9106,10 @@
         <v>14.98018494055482</v>
       </c>
       <c r="E379">
-        <v>3894.848084544254</v>
+        <v>1947.424042272127</v>
       </c>
       <c r="F379">
-        <v>8818.335535006605</v>
+        <v>6870.911492734478</v>
       </c>
       <c r="G379">
         <v>9979.956</v>
@@ -9129,10 +9129,10 @@
         <v>15.01981505944518</v>
       </c>
       <c r="E380">
-        <v>3905.151915455747</v>
+        <v>1952.575957727873</v>
       </c>
       <c r="F380">
-        <v>8841.664464993395</v>
+        <v>6889.088507265521</v>
       </c>
       <c r="G380">
         <v>10006.358</v>
@@ -9152,10 +9152,10 @@
         <v>15.05944517833553</v>
       </c>
       <c r="E381">
-        <v>3915.455746367239</v>
+        <v>1957.72787318362</v>
       </c>
       <c r="F381">
-        <v>8864.993394980185</v>
+        <v>6907.265521796565</v>
       </c>
       <c r="G381">
         <v>10032.76</v>
@@ -9175,10 +9175,10 @@
         <v>15.09907529722589</v>
       </c>
       <c r="E382">
-        <v>3925.759577278732</v>
+        <v>1962.879788639366</v>
       </c>
       <c r="F382">
-        <v>8888.322324966975</v>
+        <v>6925.442536327609</v>
       </c>
       <c r="G382">
         <v>10059.162</v>
@@ -9198,10 +9198,10 @@
         <v>15.13870541611625</v>
       </c>
       <c r="E383">
-        <v>3936.063408190225</v>
+        <v>1968.031704095112</v>
       </c>
       <c r="F383">
-        <v>8911.651254953766</v>
+        <v>6943.619550858652</v>
       </c>
       <c r="G383">
         <v>10085.564</v>
@@ -9221,10 +9221,10 @@
         <v>15.1783355350066</v>
       </c>
       <c r="E384">
-        <v>3946.367239101718</v>
+        <v>1973.183619550859</v>
       </c>
       <c r="F384">
-        <v>8934.980184940556</v>
+        <v>6961.796565389696</v>
       </c>
       <c r="G384">
         <v>10111.966</v>
@@ -9244,10 +9244,10 @@
         <v>15.21796565389696</v>
       </c>
       <c r="E385">
-        <v>3956.67107001321</v>
+        <v>1978.335535006605</v>
       </c>
       <c r="F385">
-        <v>8958.309114927346</v>
+        <v>6979.97357992074</v>
       </c>
       <c r="G385">
         <v>10138.368</v>
@@ -9267,10 +9267,10 @@
         <v>15.25759577278732</v>
       </c>
       <c r="E386">
-        <v>3966.974900924703</v>
+        <v>1983.487450462351</v>
       </c>
       <c r="F386">
-        <v>8981.638044914134</v>
+        <v>6998.150594451783</v>
       </c>
       <c r="G386">
         <v>10164.77</v>
@@ -9290,10 +9290,10 @@
         <v>15.29722589167767</v>
       </c>
       <c r="E387">
-        <v>3977.278731836196</v>
+        <v>1988.639365918098</v>
       </c>
       <c r="F387">
-        <v>9004.966974900924</v>
+        <v>7016.327608982827</v>
       </c>
       <c r="G387">
         <v>10191.172</v>
@@ -9313,10 +9313,10 @@
         <v>15.33685601056803</v>
       </c>
       <c r="E388">
-        <v>3987.582562747688</v>
+        <v>1993.791281373844</v>
       </c>
       <c r="F388">
-        <v>9028.295904887715</v>
+        <v>7034.504623513871</v>
       </c>
       <c r="G388">
         <v>10217.574</v>
@@ -9336,10 +9336,10 @@
         <v>15.37648612945839</v>
       </c>
       <c r="E389">
-        <v>3997.886393659181</v>
+        <v>1998.943196829591</v>
       </c>
       <c r="F389">
-        <v>9051.624834874505</v>
+        <v>7052.681638044915</v>
       </c>
       <c r="G389">
         <v>10243.976</v>
@@ -9359,10 +9359,10 @@
         <v>15.41611624834874</v>
       </c>
       <c r="E390">
-        <v>4008.190224570674</v>
+        <v>2004.095112285337</v>
       </c>
       <c r="F390">
-        <v>9074.953764861295</v>
+        <v>7070.858652575958</v>
       </c>
       <c r="G390">
         <v>10270.378</v>
@@ -9382,10 +9382,10 @@
         <v>15.4557463672391</v>
       </c>
       <c r="E391">
-        <v>4018.494055482167</v>
+        <v>2009.247027741083</v>
       </c>
       <c r="F391">
-        <v>9098.282694848083</v>
+        <v>7089.035667107</v>
       </c>
       <c r="G391">
         <v>10296.78</v>
@@ -9405,10 +9405,10 @@
         <v>15.49537648612946</v>
       </c>
       <c r="E392">
-        <v>4028.79788639366</v>
+        <v>2014.39894319683</v>
       </c>
       <c r="F392">
-        <v>9121.611624834874</v>
+        <v>7107.212681638044</v>
       </c>
       <c r="G392">
         <v>10323.182</v>
@@ -9428,10 +9428,10 @@
         <v>15.53500660501981</v>
       </c>
       <c r="E393">
-        <v>4039.101717305152</v>
+        <v>2019.550858652576</v>
       </c>
       <c r="F393">
-        <v>9144.940554821664</v>
+        <v>7125.389696169088</v>
       </c>
       <c r="G393">
         <v>10349.584</v>
@@ -9451,10 +9451,10 @@
         <v>15.57463672391017</v>
       </c>
       <c r="E394">
-        <v>4049.405548216645</v>
+        <v>2024.702774108323</v>
       </c>
       <c r="F394">
-        <v>9168.269484808454</v>
+        <v>7143.566710700132</v>
       </c>
       <c r="G394">
         <v>10375.986</v>
@@ -9474,10 +9474,10 @@
         <v>15.61426684280053</v>
       </c>
       <c r="E395">
-        <v>4059.709379128138</v>
+        <v>2029.854689564069</v>
       </c>
       <c r="F395">
-        <v>9191.598414795244</v>
+        <v>7161.743725231176</v>
       </c>
       <c r="G395">
         <v>10402.388</v>
@@ -9497,10 +9497,10 @@
         <v>15.65389696169088</v>
       </c>
       <c r="E396">
-        <v>4070.01321003963</v>
+        <v>2035.006605019815</v>
       </c>
       <c r="F396">
-        <v>9214.927344782034</v>
+        <v>7179.920739762219</v>
       </c>
       <c r="G396">
         <v>10428.79</v>
@@ -9520,10 +9520,10 @@
         <v>15.69352708058124</v>
       </c>
       <c r="E397">
-        <v>4080.317040951123</v>
+        <v>2040.158520475562</v>
       </c>
       <c r="F397">
-        <v>9238.256274768824</v>
+        <v>7198.097754293263</v>
       </c>
       <c r="G397">
         <v>10455.192</v>
@@ -9543,10 +9543,10 @@
         <v>15.7331571994716</v>
       </c>
       <c r="E398">
-        <v>4090.620871862616</v>
+        <v>2045.310435931308</v>
       </c>
       <c r="F398">
-        <v>9261.585204755615</v>
+        <v>7216.274768824307</v>
       </c>
       <c r="G398">
         <v>10481.594</v>
@@ -9566,10 +9566,10 @@
         <v>15.77278731836195</v>
       </c>
       <c r="E399">
-        <v>4100.924702774108</v>
+        <v>2050.462351387054</v>
       </c>
       <c r="F399">
-        <v>9284.914134742405</v>
+        <v>7234.451783355351</v>
       </c>
       <c r="G399">
         <v>10507.996</v>
@@ -9589,10 +9589,10 @@
         <v>15.81241743725231</v>
       </c>
       <c r="E400">
-        <v>4111.228533685601</v>
+        <v>2055.614266842801</v>
       </c>
       <c r="F400">
-        <v>9308.243064729195</v>
+        <v>7252.628797886395</v>
       </c>
       <c r="G400">
         <v>10534.398</v>
@@ -9612,10 +9612,10 @@
         <v>15.85204755614267</v>
       </c>
       <c r="E401">
-        <v>4121.532364597094</v>
+        <v>2060.766182298547</v>
       </c>
       <c r="F401">
-        <v>9331.571994715985</v>
+        <v>7270.805812417439</v>
       </c>
       <c r="G401">
         <v>10560.8</v>
@@ -9635,10 +9635,10 @@
         <v>15.89167767503302</v>
       </c>
       <c r="E402">
-        <v>4131.836195508587</v>
+        <v>2065.918097754293</v>
       </c>
       <c r="F402">
-        <v>9354.900924702773</v>
+        <v>7288.982826948481</v>
       </c>
       <c r="G402">
         <v>10587.202</v>
@@ -9658,10 +9658,10 @@
         <v>15.93130779392338</v>
       </c>
       <c r="E403">
-        <v>4142.140026420079</v>
+        <v>2071.07001321004</v>
       </c>
       <c r="F403">
-        <v>9378.229854689564</v>
+        <v>7307.159841479524</v>
       </c>
       <c r="G403">
         <v>10613.604</v>
@@ -9681,10 +9681,10 @@
         <v>15.97093791281374</v>
       </c>
       <c r="E404">
-        <v>4152.443857331572</v>
+        <v>2076.221928665786</v>
       </c>
       <c r="F404">
-        <v>9401.558784676354</v>
+        <v>7325.336856010568</v>
       </c>
       <c r="G404">
         <v>10640.006</v>
@@ -9704,10 +9704,10 @@
         <v>16.01056803170409</v>
       </c>
       <c r="E405">
-        <v>4162.747688243065</v>
+        <v>2081.373844121532</v>
       </c>
       <c r="F405">
-        <v>9424.887714663142</v>
+        <v>7343.51387054161</v>
       </c>
       <c r="G405">
         <v>10666.408</v>
@@ -9727,10 +9727,10 @@
         <v>16.05019815059445</v>
       </c>
       <c r="E406">
-        <v>4173.051519154557</v>
+        <v>2086.525759577279</v>
       </c>
       <c r="F406">
-        <v>9448.216644649934</v>
+        <v>7361.690885072656</v>
       </c>
       <c r="G406">
         <v>10692.81</v>
@@ -9750,10 +9750,10 @@
         <v>16.08982826948481</v>
       </c>
       <c r="E407">
-        <v>4183.35535006605</v>
+        <v>2091.677675033025</v>
       </c>
       <c r="F407">
-        <v>9471.545574636722</v>
+        <v>7379.867899603698</v>
       </c>
       <c r="G407">
         <v>10719.212</v>
@@ -9773,10 +9773,10 @@
         <v>16.12945838837516</v>
       </c>
       <c r="E408">
-        <v>4193.659180977543</v>
+        <v>2096.829590488771</v>
       </c>
       <c r="F408">
-        <v>9494.874504623513</v>
+        <v>7398.044914134742</v>
       </c>
       <c r="G408">
         <v>10745.614</v>
@@ -9796,10 +9796,10 @@
         <v>16.16908850726552</v>
       </c>
       <c r="E409">
-        <v>4203.963011889036</v>
+        <v>2101.981505944518</v>
       </c>
       <c r="F409">
-        <v>9518.203434610305</v>
+        <v>7416.221928665786</v>
       </c>
       <c r="G409">
         <v>10772.016</v>
@@ -9819,10 +9819,10 @@
         <v>16.20871862615588</v>
       </c>
       <c r="E410">
-        <v>4214.266842800529</v>
+        <v>2107.133421400265</v>
       </c>
       <c r="F410">
-        <v>9541.532364597095</v>
+        <v>7434.39894319683</v>
       </c>
       <c r="G410">
         <v>10798.418</v>
@@ -9842,10 +9842,10 @@
         <v>16.24834874504623</v>
       </c>
       <c r="E411">
-        <v>4224.570673712022</v>
+        <v>2112.285336856011</v>
       </c>
       <c r="F411">
-        <v>9564.861294583885</v>
+        <v>7452.575957727874</v>
       </c>
       <c r="G411">
         <v>10824.82</v>
@@ -9865,10 +9865,10 @@
         <v>16.28797886393659</v>
       </c>
       <c r="E412">
-        <v>4234.874504623514</v>
+        <v>2117.437252311757</v>
       </c>
       <c r="F412">
-        <v>9588.190224570673</v>
+        <v>7470.752972258917</v>
       </c>
       <c r="G412">
         <v>10851.222</v>
@@ -9888,10 +9888,10 @@
         <v>16.32760898282695</v>
       </c>
       <c r="E413">
-        <v>4245.178335535007</v>
+        <v>2122.589167767504</v>
       </c>
       <c r="F413">
-        <v>9611.519154557463</v>
+        <v>7488.92998678996</v>
       </c>
       <c r="G413">
         <v>10877.624</v>
@@ -9911,10 +9911,10 @@
         <v>16.3672391017173</v>
       </c>
       <c r="E414">
-        <v>4255.4821664465</v>
+        <v>2127.74108322325</v>
       </c>
       <c r="F414">
-        <v>9634.848084544254</v>
+        <v>7507.107001321004</v>
       </c>
       <c r="G414">
         <v>10904.026</v>
@@ -9934,10 +9934,10 @@
         <v>16.40686922060766</v>
       </c>
       <c r="E415">
-        <v>4265.785997357993</v>
+        <v>2132.892998678996</v>
       </c>
       <c r="F415">
-        <v>9658.177014531044</v>
+        <v>7525.284015852048</v>
       </c>
       <c r="G415">
         <v>10930.428</v>
@@ -9957,10 +9957,10 @@
         <v>16.44649933949802</v>
       </c>
       <c r="E416">
-        <v>4276.089828269485</v>
+        <v>2138.044914134743</v>
       </c>
       <c r="F416">
-        <v>9681.505944517834</v>
+        <v>7543.46103038309</v>
       </c>
       <c r="G416">
         <v>10956.83</v>
@@ -9980,10 +9980,10 @@
         <v>16.48612945838838</v>
       </c>
       <c r="E417">
-        <v>4286.393659180978</v>
+        <v>2143.196829590489</v>
       </c>
       <c r="F417">
-        <v>9704.834874504624</v>
+        <v>7561.638044914135</v>
       </c>
       <c r="G417">
         <v>10983.232</v>
@@ -10003,10 +10003,10 @@
         <v>16.52575957727873</v>
       </c>
       <c r="E418">
-        <v>4296.697490092471</v>
+        <v>2148.348745046235</v>
       </c>
       <c r="F418">
-        <v>9728.163804491414</v>
+        <v>7579.815059445178</v>
       </c>
       <c r="G418">
         <v>11009.634</v>
@@ -10026,10 +10026,10 @@
         <v>16.56538969616909</v>
       </c>
       <c r="E419">
-        <v>4307.001321003963</v>
+        <v>2153.500660501982</v>
       </c>
       <c r="F419">
-        <v>9751.492734478205</v>
+        <v>7597.992073976222</v>
       </c>
       <c r="G419">
         <v>11036.036</v>
@@ -10049,10 +10049,10 @@
         <v>16.60501981505945</v>
       </c>
       <c r="E420">
-        <v>4317.305151915456</v>
+        <v>2158.652575957728</v>
       </c>
       <c r="F420">
-        <v>9774.821664464995</v>
+        <v>7616.169088507266</v>
       </c>
       <c r="G420">
         <v>11062.438</v>
@@ -10072,10 +10072,10 @@
         <v>16.6446499339498</v>
       </c>
       <c r="E421">
-        <v>4327.608982826949</v>
+        <v>2163.804491413474</v>
       </c>
       <c r="F421">
-        <v>9798.150594451785</v>
+        <v>7634.34610303831</v>
       </c>
       <c r="G421">
         <v>11088.84</v>
@@ -10095,10 +10095,10 @@
         <v>16.68428005284016</v>
       </c>
       <c r="E422">
-        <v>4337.912813738441</v>
+        <v>2168.956406869221</v>
       </c>
       <c r="F422">
-        <v>9821.479524438575</v>
+        <v>7652.523117569353</v>
       </c>
       <c r="G422">
         <v>11115.242</v>
@@ -10118,10 +10118,10 @@
         <v>16.72391017173052</v>
       </c>
       <c r="E423">
-        <v>4348.216644649934</v>
+        <v>2174.108322324967</v>
       </c>
       <c r="F423">
-        <v>9844.808454425363</v>
+        <v>7670.700132100396</v>
       </c>
       <c r="G423">
         <v>11141.644</v>
@@ -10141,10 +10141,10 @@
         <v>16.76354029062087</v>
       </c>
       <c r="E424">
-        <v>4358.520475561427</v>
+        <v>2179.260237780713</v>
       </c>
       <c r="F424">
-        <v>9868.137384412152</v>
+        <v>7688.877146631439</v>
       </c>
       <c r="G424">
         <v>11168.046</v>
@@ -10164,10 +10164,10 @@
         <v>16.80317040951123</v>
       </c>
       <c r="E425">
-        <v>4368.824306472919</v>
+        <v>2184.41215323646</v>
       </c>
       <c r="F425">
-        <v>9891.466314398942</v>
+        <v>7707.054161162483</v>
       </c>
       <c r="G425">
         <v>11194.448</v>
@@ -10187,10 +10187,10 @@
         <v>16.84280052840159</v>
       </c>
       <c r="E426">
-        <v>4379.128137384412</v>
+        <v>2189.564068692206</v>
       </c>
       <c r="F426">
-        <v>9914.795244385732</v>
+        <v>7725.231175693527</v>
       </c>
       <c r="G426">
         <v>11220.85</v>
@@ -10210,10 +10210,10 @@
         <v>16.88243064729194</v>
       </c>
       <c r="E427">
-        <v>4389.431968295905</v>
+        <v>2194.715984147952</v>
       </c>
       <c r="F427">
-        <v>9938.124174372522</v>
+        <v>7743.408190224571</v>
       </c>
       <c r="G427">
         <v>11247.252</v>
@@ -10233,10 +10233,10 @@
         <v>16.9220607661823</v>
       </c>
       <c r="E428">
-        <v>4399.735799207398</v>
+        <v>2199.867899603699</v>
       </c>
       <c r="F428">
-        <v>9961.453104359312</v>
+        <v>7761.585204755615</v>
       </c>
       <c r="G428">
         <v>11273.654</v>
@@ -10256,10 +10256,10 @@
         <v>16.96169088507266</v>
       </c>
       <c r="E429">
-        <v>4410.03963011889</v>
+        <v>2205.019815059445</v>
       </c>
       <c r="F429">
-        <v>9984.782034346103</v>
+        <v>7779.762219286657</v>
       </c>
       <c r="G429">
         <v>11300.056</v>
@@ -10279,10 +10279,10 @@
         <v>17.00132100396301</v>
       </c>
       <c r="E430">
-        <v>4420.343461030383</v>
+        <v>2210.171730515191</v>
       </c>
       <c r="F430">
-        <v>10008.11096433289</v>
+        <v>7797.939233817701</v>
       </c>
       <c r="G430">
         <v>11326.458</v>
@@ -10302,10 +10302,10 @@
         <v>17.04095112285337</v>
       </c>
       <c r="E431">
-        <v>4430.647291941876</v>
+        <v>2215.323645970938</v>
       </c>
       <c r="F431">
-        <v>10031.43989431968</v>
+        <v>7816.116248348745</v>
       </c>
       <c r="G431">
         <v>11352.86</v>
@@ -10325,10 +10325,10 @@
         <v>17.08058124174373</v>
       </c>
       <c r="E432">
-        <v>4440.951122853369</v>
+        <v>2220.475561426685</v>
       </c>
       <c r="F432">
-        <v>10054.76882430647</v>
+        <v>7834.29326287979</v>
       </c>
       <c r="G432">
         <v>11379.262</v>
@@ -10348,10 +10348,10 @@
         <v>17.12021136063408</v>
       </c>
       <c r="E433">
-        <v>4451.254953764862</v>
+        <v>2225.627476882431</v>
       </c>
       <c r="F433">
-        <v>10078.09775429326</v>
+        <v>7852.470277410832</v>
       </c>
       <c r="G433">
         <v>11405.664</v>
@@ -10371,10 +10371,10 @@
         <v>17.15984147952444</v>
       </c>
       <c r="E434">
-        <v>4461.558784676355</v>
+        <v>2230.779392338177</v>
       </c>
       <c r="F434">
-        <v>10101.42668428005</v>
+        <v>7870.647291941876</v>
       </c>
       <c r="G434">
         <v>11432.066</v>
@@ -10394,10 +10394,10 @@
         <v>17.1994715984148</v>
       </c>
       <c r="E435">
-        <v>4471.862615587847</v>
+        <v>2235.931307793924</v>
       </c>
       <c r="F435">
-        <v>10124.75561426684</v>
+        <v>7888.824306472919</v>
       </c>
       <c r="G435">
         <v>11458.468</v>
@@ -10417,10 +10417,10 @@
         <v>17.23910171730515</v>
       </c>
       <c r="E436">
-        <v>4482.16644649934</v>
+        <v>2241.08322324967</v>
       </c>
       <c r="F436">
-        <v>10148.08454425363</v>
+        <v>7907.001321003963</v>
       </c>
       <c r="G436">
         <v>11484.87</v>
@@ -10440,10 +10440,10 @@
         <v>17.27873183619551</v>
       </c>
       <c r="E437">
-        <v>4492.470277410833</v>
+        <v>2246.235138705416</v>
       </c>
       <c r="F437">
-        <v>10171.41347424042</v>
+        <v>7925.178335535007</v>
       </c>
       <c r="G437">
         <v>11511.272</v>
@@ -10463,10 +10463,10 @@
         <v>17.31836195508587</v>
       </c>
       <c r="E438">
-        <v>4502.774108322325</v>
+        <v>2251.387054161163</v>
       </c>
       <c r="F438">
-        <v>10194.74240422721</v>
+        <v>7943.355350066051</v>
       </c>
       <c r="G438">
         <v>11537.674</v>
@@ -10486,10 +10486,10 @@
         <v>17.35799207397622</v>
       </c>
       <c r="E439">
-        <v>4513.077939233818</v>
+        <v>2256.538969616909</v>
       </c>
       <c r="F439">
-        <v>10218.071334214</v>
+        <v>7961.532364597093</v>
       </c>
       <c r="G439">
         <v>11564.076</v>
@@ -10509,10 +10509,10 @@
         <v>17.39762219286658</v>
       </c>
       <c r="E440">
-        <v>4523.381770145311</v>
+        <v>2261.690885072655</v>
       </c>
       <c r="F440">
-        <v>10241.40026420079</v>
+        <v>7979.709379128137</v>
       </c>
       <c r="G440">
         <v>11590.478</v>
@@ -10532,10 +10532,10 @@
         <v>17.43725231175694</v>
       </c>
       <c r="E441">
-        <v>4533.685601056804</v>
+        <v>2266.842800528402</v>
       </c>
       <c r="F441">
-        <v>10264.72919418758</v>
+        <v>7997.886393659181</v>
       </c>
       <c r="G441">
         <v>11616.88</v>
@@ -10555,10 +10555,10 @@
         <v>17.47688243064729</v>
       </c>
       <c r="E442">
-        <v>4543.989431968296</v>
+        <v>2271.994715984148</v>
       </c>
       <c r="F442">
-        <v>10288.05812417437</v>
+        <v>8016.063408190224</v>
       </c>
       <c r="G442">
         <v>11643.282</v>
@@ -10578,10 +10578,10 @@
         <v>17.51651254953765</v>
       </c>
       <c r="E443">
-        <v>4554.293262879789</v>
+        <v>2277.146631439894</v>
       </c>
       <c r="F443">
-        <v>10311.38705416116</v>
+        <v>8034.240422721268</v>
       </c>
       <c r="G443">
         <v>11669.684</v>
@@ -10601,10 +10601,10 @@
         <v>17.55614266842801</v>
       </c>
       <c r="E444">
-        <v>4564.597093791282</v>
+        <v>2282.298546895641</v>
       </c>
       <c r="F444">
-        <v>10334.71598414795</v>
+        <v>8052.417437252312</v>
       </c>
       <c r="G444">
         <v>11696.086</v>
@@ -10624,10 +10624,10 @@
         <v>17.59577278731836</v>
       </c>
       <c r="E445">
-        <v>4574.900924702774</v>
+        <v>2287.450462351387</v>
       </c>
       <c r="F445">
-        <v>10358.04491413474</v>
+        <v>8070.594451783356</v>
       </c>
       <c r="G445">
         <v>11722.488</v>
@@ -10647,10 +10647,10 @@
         <v>17.63540290620872</v>
       </c>
       <c r="E446">
-        <v>4585.204755614267</v>
+        <v>2292.602377807134</v>
       </c>
       <c r="F446">
-        <v>10381.37384412153</v>
+        <v>8088.771466314398</v>
       </c>
       <c r="G446">
         <v>11748.89</v>
@@ -10670,10 +10670,10 @@
         <v>17.67503302509908</v>
       </c>
       <c r="E447">
-        <v>4595.50858652576</v>
+        <v>2297.75429326288</v>
       </c>
       <c r="F447">
-        <v>10404.70277410832</v>
+        <v>8106.948480845442</v>
       </c>
       <c r="G447">
         <v>11775.292</v>
@@ -10693,10 +10693,10 @@
         <v>17.71466314398943</v>
       </c>
       <c r="E448">
-        <v>4605.812417437252</v>
+        <v>2302.906208718626</v>
       </c>
       <c r="F448">
-        <v>10428.03170409511</v>
+        <v>8125.125495376486</v>
       </c>
       <c r="G448">
         <v>11801.694</v>
@@ -10716,10 +10716,10 @@
         <v>17.75429326287979</v>
       </c>
       <c r="E449">
-        <v>4616.116248348745</v>
+        <v>2308.058124174373</v>
       </c>
       <c r="F449">
-        <v>10451.3606340819</v>
+        <v>8143.302509907529</v>
       </c>
       <c r="G449">
         <v>11828.096</v>
@@ -10739,10 +10739,10 @@
         <v>17.79392338177015</v>
       </c>
       <c r="E450">
-        <v>4626.420079260238</v>
+        <v>2313.210039630119</v>
       </c>
       <c r="F450">
-        <v>10474.68956406869</v>
+        <v>8161.479524438573</v>
       </c>
       <c r="G450">
         <v>11854.498</v>
@@ -10762,10 +10762,10 @@
         <v>17.8335535006605</v>
       </c>
       <c r="E451">
-        <v>4636.72391017173</v>
+        <v>2318.361955085865</v>
       </c>
       <c r="F451">
-        <v>10498.01849405548</v>
+        <v>8179.656538969617</v>
       </c>
       <c r="G451">
         <v>11880.9</v>
@@ -10785,10 +10785,10 @@
         <v>17.87318361955086</v>
       </c>
       <c r="E452">
-        <v>4647.027741083223</v>
+        <v>2323.513870541612</v>
       </c>
       <c r="F452">
-        <v>10521.34742404227</v>
+        <v>8197.833553500661</v>
       </c>
       <c r="G452">
         <v>11907.302</v>
@@ -10808,10 +10808,10 @@
         <v>17.91281373844122</v>
       </c>
       <c r="E453">
-        <v>4657.331571994716</v>
+        <v>2328.665785997358</v>
       </c>
       <c r="F453">
-        <v>10544.67635402906</v>
+        <v>8216.010568031705</v>
       </c>
       <c r="G453">
         <v>11933.704</v>
@@ -10831,10 +10831,10 @@
         <v>17.95244385733157</v>
       </c>
       <c r="E454">
-        <v>4667.635402906209</v>
+        <v>2333.817701453104</v>
       </c>
       <c r="F454">
-        <v>10568.00528401585</v>
+        <v>8234.187582562749</v>
       </c>
       <c r="G454">
         <v>11960.106</v>
@@ -10854,10 +10854,10 @@
         <v>17.99207397622193</v>
       </c>
       <c r="E455">
-        <v>4677.939233817702</v>
+        <v>2338.969616908851</v>
       </c>
       <c r="F455">
-        <v>10591.33421400264</v>
+        <v>8252.364597093791</v>
       </c>
       <c r="G455">
         <v>11986.508</v>
@@ -10877,10 +10877,10 @@
         <v>18.03170409511229</v>
       </c>
       <c r="E456">
-        <v>4688.243064729195</v>
+        <v>2344.121532364597</v>
       </c>
       <c r="F456">
-        <v>10614.66314398943</v>
+        <v>8270.541611624834</v>
       </c>
       <c r="G456">
         <v>12012.91</v>
@@ -10900,10 +10900,10 @@
         <v>18.07133421400264</v>
       </c>
       <c r="E457">
-        <v>4698.546895640688</v>
+        <v>2349.273447820344</v>
       </c>
       <c r="F457">
-        <v>10637.99207397622</v>
+        <v>8288.718626155878</v>
       </c>
       <c r="G457">
         <v>12039.312</v>
@@ -10923,10 +10923,10 @@
         <v>18.110964332893</v>
       </c>
       <c r="E458">
-        <v>4708.85072655218</v>
+        <v>2354.42536327609</v>
       </c>
       <c r="F458">
-        <v>10661.32100396301</v>
+        <v>8306.895640686922</v>
       </c>
       <c r="G458">
         <v>12065.714</v>
@@ -10946,10 +10946,10 @@
         <v>18.15059445178336</v>
       </c>
       <c r="E459">
-        <v>4719.154557463673</v>
+        <v>2359.577278731836</v>
       </c>
       <c r="F459">
-        <v>10684.6499339498</v>
+        <v>8325.072655217966</v>
       </c>
       <c r="G459">
         <v>12092.116</v>
@@ -10969,10 +10969,10 @@
         <v>18.19022457067371</v>
       </c>
       <c r="E460">
-        <v>4729.458388375166</v>
+        <v>2364.729194187583</v>
       </c>
       <c r="F460">
-        <v>10707.97886393659</v>
+        <v>8343.24966974901</v>
       </c>
       <c r="G460">
         <v>12118.518</v>
@@ -10992,10 +10992,10 @@
         <v>18.22985468956407</v>
       </c>
       <c r="E461">
-        <v>4739.762219286658</v>
+        <v>2369.881109643329</v>
       </c>
       <c r="F461">
-        <v>10731.30779392338</v>
+        <v>8361.426684280053</v>
       </c>
       <c r="G461">
         <v>12144.92</v>
@@ -11015,10 +11015,10 @@
         <v>18.26948480845443</v>
       </c>
       <c r="E462">
-        <v>4750.066050198151</v>
+        <v>2375.033025099076</v>
       </c>
       <c r="F462">
-        <v>10754.63672391017</v>
+        <v>8379.603698811097</v>
       </c>
       <c r="G462">
         <v>12171.322</v>
@@ -11038,10 +11038,10 @@
         <v>18.30911492734478</v>
       </c>
       <c r="E463">
-        <v>4760.369881109644</v>
+        <v>2380.184940554822</v>
       </c>
       <c r="F463">
-        <v>10777.96565389696</v>
+        <v>8397.780713342141</v>
       </c>
       <c r="G463">
         <v>12197.724</v>
@@ -11061,10 +11061,10 @@
         <v>18.34874504623514</v>
       </c>
       <c r="E464">
-        <v>4770.673712021136</v>
+        <v>2385.336856010568</v>
       </c>
       <c r="F464">
-        <v>10801.29458388375</v>
+        <v>8415.957727873185</v>
       </c>
       <c r="G464">
         <v>12224.126</v>
@@ -11084,10 +11084,10 @@
         <v>18.3883751651255</v>
       </c>
       <c r="E465">
-        <v>4780.977542932629</v>
+        <v>2390.488771466315</v>
       </c>
       <c r="F465">
-        <v>10824.62351387054</v>
+        <v>8434.134742404229</v>
       </c>
       <c r="G465">
         <v>12250.528</v>
@@ -11107,10 +11107,10 @@
         <v>18.42800528401585</v>
       </c>
       <c r="E466">
-        <v>4791.281373844122</v>
+        <v>2395.640686922061</v>
       </c>
       <c r="F466">
-        <v>10847.95244385733</v>
+        <v>8452.311756935269</v>
       </c>
       <c r="G466">
         <v>12276.93</v>
@@ -11130,10 +11130,10 @@
         <v>18.46763540290621</v>
       </c>
       <c r="E467">
-        <v>4801.585204755615</v>
+        <v>2400.792602377807</v>
       </c>
       <c r="F467">
-        <v>10871.28137384412</v>
+        <v>8470.488771466313</v>
       </c>
       <c r="G467">
         <v>12303.332</v>
@@ -11153,10 +11153,10 @@
         <v>18.50726552179657</v>
       </c>
       <c r="E468">
-        <v>4811.889035667107</v>
+        <v>2405.944517833554</v>
       </c>
       <c r="F468">
-        <v>10894.61030383091</v>
+        <v>8488.665785997357</v>
       </c>
       <c r="G468">
         <v>12329.734</v>
@@ -11176,10 +11176,10 @@
         <v>18.54689564068692</v>
       </c>
       <c r="E469">
-        <v>4822.1928665786</v>
+        <v>2411.0964332893</v>
       </c>
       <c r="F469">
-        <v>10917.9392338177</v>
+        <v>8506.8428005284</v>
       </c>
       <c r="G469">
         <v>12356.136</v>
@@ -11199,10 +11199,10 @@
         <v>18.58652575957728</v>
       </c>
       <c r="E470">
-        <v>4832.496697490093</v>
+        <v>2416.248348745046</v>
       </c>
       <c r="F470">
-        <v>10941.26816380449</v>
+        <v>8525.019815059444</v>
       </c>
       <c r="G470">
         <v>12382.538</v>
@@ -11222,10 +11222,10 @@
         <v>18.62615587846764</v>
       </c>
       <c r="E471">
-        <v>4842.800528401585</v>
+        <v>2421.400264200793</v>
       </c>
       <c r="F471">
-        <v>10964.59709379128</v>
+        <v>8543.196829590488</v>
       </c>
       <c r="G471">
         <v>12408.94</v>
@@ -11245,10 +11245,10 @@
         <v>18.66578599735799</v>
       </c>
       <c r="E472">
-        <v>4853.104359313078</v>
+        <v>2426.552179656539</v>
       </c>
       <c r="F472">
-        <v>10987.92602377807</v>
+        <v>8561.373844121532</v>
       </c>
       <c r="G472">
         <v>12435.342</v>
@@ -11268,10 +11268,10 @@
         <v>18.70541611624835</v>
       </c>
       <c r="E473">
-        <v>4863.408190224571</v>
+        <v>2431.704095112285</v>
       </c>
       <c r="F473">
-        <v>11011.25495376486</v>
+        <v>8579.550858652576</v>
       </c>
       <c r="G473">
         <v>12461.744</v>
@@ -11291,10 +11291,10 @@
         <v>18.74504623513871</v>
       </c>
       <c r="E474">
-        <v>4873.712021136063</v>
+        <v>2436.856010568032</v>
       </c>
       <c r="F474">
-        <v>11034.58388375165</v>
+        <v>8597.72787318362</v>
       </c>
       <c r="G474">
         <v>12488.146</v>
@@ -11314,10 +11314,10 @@
         <v>18.78467635402906</v>
       </c>
       <c r="E475">
-        <v>4884.015852047556</v>
+        <v>2442.007926023778</v>
       </c>
       <c r="F475">
-        <v>11057.91281373844</v>
+        <v>8615.904887714663</v>
       </c>
       <c r="G475">
         <v>12514.548</v>
@@ -11337,10 +11337,10 @@
         <v>18.82430647291942</v>
       </c>
       <c r="E476">
-        <v>4894.319682959049</v>
+        <v>2447.159841479524</v>
       </c>
       <c r="F476">
-        <v>11081.24174372523</v>
+        <v>8634.081902245707</v>
       </c>
       <c r="G476">
         <v>12540.95</v>
@@ -11360,10 +11360,10 @@
         <v>18.86393659180978</v>
       </c>
       <c r="E477">
-        <v>4904.623513870542</v>
+        <v>2452.311756935271</v>
       </c>
       <c r="F477">
-        <v>11104.57067371202</v>
+        <v>8652.258916776749</v>
       </c>
       <c r="G477">
         <v>12567.352</v>
@@ -11383,10 +11383,10 @@
         <v>18.90356671070013</v>
       </c>
       <c r="E478">
-        <v>4914.927344782034</v>
+        <v>2457.463672391017</v>
       </c>
       <c r="F478">
-        <v>11127.89960369881</v>
+        <v>8670.435931307793</v>
       </c>
       <c r="G478">
         <v>12593.754</v>
@@ -11406,10 +11406,10 @@
         <v>18.94319682959049</v>
       </c>
       <c r="E479">
-        <v>4925.231175693528</v>
+        <v>2462.615587846764</v>
       </c>
       <c r="F479">
-        <v>11151.2285336856</v>
+        <v>8688.612945838837</v>
       </c>
       <c r="G479">
         <v>12620.156</v>
@@ -11429,10 +11429,10 @@
         <v>18.98282694848085</v>
       </c>
       <c r="E480">
-        <v>4935.53500660502</v>
+        <v>2467.76750330251</v>
       </c>
       <c r="F480">
-        <v>11174.55746367239</v>
+        <v>8706.789960369881</v>
       </c>
       <c r="G480">
         <v>12646.558</v>
@@ -11452,10 +11452,10 @@
         <v>19.0224570673712</v>
       </c>
       <c r="E481">
-        <v>4945.838837516513</v>
+        <v>2472.919418758257</v>
       </c>
       <c r="F481">
-        <v>11197.88639365918</v>
+        <v>8724.966974900924</v>
       </c>
       <c r="G481">
         <v>12672.96</v>
@@ -11475,10 +11475,10 @@
         <v>19.06208718626156</v>
       </c>
       <c r="E482">
-        <v>4956.142668428006</v>
+        <v>2478.071334214003</v>
       </c>
       <c r="F482">
-        <v>11221.21532364597</v>
+        <v>8743.143989431968</v>
       </c>
       <c r="G482">
         <v>12699.362</v>
@@ -11498,10 +11498,10 @@
         <v>19.10171730515192</v>
       </c>
       <c r="E483">
-        <v>4966.446499339499</v>
+        <v>2483.223249669749</v>
       </c>
       <c r="F483">
-        <v>11244.54425363276</v>
+        <v>8761.321003963012</v>
       </c>
       <c r="G483">
         <v>12725.764</v>
@@ -11521,10 +11521,10 @@
         <v>19.14134742404227</v>
       </c>
       <c r="E484">
-        <v>4976.750330250991</v>
+        <v>2488.375165125496</v>
       </c>
       <c r="F484">
-        <v>11267.87318361955</v>
+        <v>8779.498018494056</v>
       </c>
       <c r="G484">
         <v>12752.166</v>
@@ -11544,10 +11544,10 @@
         <v>19.18097754293263</v>
       </c>
       <c r="E485">
-        <v>4987.054161162484</v>
+        <v>2493.527080581242</v>
       </c>
       <c r="F485">
-        <v>11291.20211360634</v>
+        <v>8797.6750330251</v>
       </c>
       <c r="G485">
         <v>12778.568</v>
@@ -11567,10 +11567,10 @@
         <v>19.22060766182299</v>
       </c>
       <c r="E486">
-        <v>4997.357992073977</v>
+        <v>2498.678996036988</v>
       </c>
       <c r="F486">
-        <v>11314.53104359313</v>
+        <v>8815.852047556144</v>
       </c>
       <c r="G486">
         <v>12804.97</v>
@@ -11590,10 +11590,10 @@
         <v>19.26023778071334</v>
       </c>
       <c r="E487">
-        <v>5007.661822985469</v>
+        <v>2503.830911492735</v>
       </c>
       <c r="F487">
-        <v>11337.85997357992</v>
+        <v>8834.029062087187</v>
       </c>
       <c r="G487">
         <v>12831.372</v>
@@ -11613,10 +11613,10 @@
         <v>19.2998678996037</v>
       </c>
       <c r="E488">
-        <v>5017.965653896962</v>
+        <v>2508.982826948481</v>
       </c>
       <c r="F488">
-        <v>11361.18890356671</v>
+        <v>8852.206076618229</v>
       </c>
       <c r="G488">
         <v>12857.774</v>
@@ -11636,10 +11636,10 @@
         <v>19.33949801849406</v>
       </c>
       <c r="E489">
-        <v>5028.269484808455</v>
+        <v>2514.134742404227</v>
       </c>
       <c r="F489">
-        <v>11384.5178335535</v>
+        <v>8870.383091149273</v>
       </c>
       <c r="G489">
         <v>12884.176</v>
@@ -11659,10 +11659,10 @@
         <v>19.37912813738441</v>
       </c>
       <c r="E490">
-        <v>5038.573315719947</v>
+        <v>2519.286657859974</v>
       </c>
       <c r="F490">
-        <v>11407.84676354029</v>
+        <v>8888.560105680317</v>
       </c>
       <c r="G490">
         <v>12910.578</v>
@@ -11682,10 +11682,10 @@
         <v>19.41875825627477</v>
       </c>
       <c r="E491">
-        <v>5048.87714663144</v>
+        <v>2524.43857331572</v>
       </c>
       <c r="F491">
-        <v>11431.17569352708</v>
+        <v>8906.737120211361</v>
       </c>
       <c r="G491">
         <v>12936.98</v>
@@ -11705,10 +11705,10 @@
         <v>19.45838837516512</v>
       </c>
       <c r="E492">
-        <v>5059.180977542933</v>
+        <v>2529.590488771466</v>
       </c>
       <c r="F492">
-        <v>11454.50462351387</v>
+        <v>8924.914134742405</v>
       </c>
       <c r="G492">
         <v>12963.382</v>
@@ -11728,10 +11728,10 @@
         <v>19.49801849405548</v>
       </c>
       <c r="E493">
-        <v>5069.484808454426</v>
+        <v>2534.742404227213</v>
       </c>
       <c r="F493">
-        <v>11477.83355350066</v>
+        <v>8943.091149273447</v>
       </c>
       <c r="G493">
         <v>12989.784</v>
@@ -11751,10 +11751,10 @@
         <v>19.53764861294584</v>
       </c>
       <c r="E494">
-        <v>5079.788639365918</v>
+        <v>2539.894319682959</v>
       </c>
       <c r="F494">
-        <v>11501.16248348745</v>
+        <v>8961.268163804491</v>
       </c>
       <c r="G494">
         <v>13016.186</v>
@@ -11774,10 +11774,10 @@
         <v>19.57727873183619</v>
       </c>
       <c r="E495">
-        <v>5090.092470277411</v>
+        <v>2545.046235138705</v>
       </c>
       <c r="F495">
-        <v>11524.49141347424</v>
+        <v>8979.445178335534</v>
       </c>
       <c r="G495">
         <v>13042.588</v>
@@ -11797,10 +11797,10 @@
         <v>19.61690885072655</v>
       </c>
       <c r="E496">
-        <v>5100.396301188904</v>
+        <v>2550.198150594452</v>
       </c>
       <c r="F496">
-        <v>11547.82034346103</v>
+        <v>8997.622192866578</v>
       </c>
       <c r="G496">
         <v>13068.99</v>
@@ -11820,10 +11820,10 @@
         <v>19.65653896961691</v>
       </c>
       <c r="E497">
-        <v>5110.700132100396</v>
+        <v>2555.350066050198</v>
       </c>
       <c r="F497">
-        <v>11571.14927344782</v>
+        <v>9015.799207397622</v>
       </c>
       <c r="G497">
         <v>13095.392</v>
@@ -11843,10 +11843,10 @@
         <v>19.69616908850726</v>
       </c>
       <c r="E498">
-        <v>5121.003963011889</v>
+        <v>2560.501981505945</v>
       </c>
       <c r="F498">
-        <v>11594.47820343461</v>
+        <v>9033.976221928666</v>
       </c>
       <c r="G498">
         <v>13121.794</v>
@@ -11866,10 +11866,10 @@
         <v>19.73579920739762</v>
       </c>
       <c r="E499">
-        <v>5131.307793923382</v>
+        <v>2565.653896961691</v>
       </c>
       <c r="F499">
-        <v>11617.8071334214</v>
+        <v>9052.15323645971</v>
       </c>
       <c r="G499">
         <v>13148.196</v>
@@ -11889,10 +11889,10 @@
         <v>19.77542932628798</v>
       </c>
       <c r="E500">
-        <v>5141.611624834874</v>
+        <v>2570.805812417437</v>
       </c>
       <c r="F500">
-        <v>11641.13606340819</v>
+        <v>9070.330250990752</v>
       </c>
       <c r="G500">
         <v>13174.598</v>
@@ -11912,10 +11912,10 @@
         <v>19.81505944517833</v>
       </c>
       <c r="E501">
-        <v>5151.915455746367</v>
+        <v>2575.957727873184</v>
       </c>
       <c r="F501">
-        <v>11664.46499339498</v>
+        <v>9088.507265521795</v>
       </c>
       <c r="G501">
         <v>13201</v>
@@ -11935,10 +11935,10 @@
         <v>19.85468956406869</v>
       </c>
       <c r="E502">
-        <v>5162.219286657861</v>
+        <v>2581.10964332893</v>
       </c>
       <c r="F502">
-        <v>11687.79392338177</v>
+        <v>9106.684280052839</v>
       </c>
       <c r="G502">
         <v>13227.402</v>
@@ -11958,10 +11958,10 @@
         <v>19.89431968295905</v>
       </c>
       <c r="E503">
-        <v>5172.523117569353</v>
+        <v>2586.261558784677</v>
       </c>
       <c r="F503">
-        <v>11711.12285336856</v>
+        <v>9124.861294583883</v>
       </c>
       <c r="G503">
         <v>13253.804</v>
@@ -11981,10 +11981,10 @@
         <v>19.9339498018494</v>
       </c>
       <c r="E504">
-        <v>5182.826948480846</v>
+        <v>2591.413474240423</v>
       </c>
       <c r="F504">
-        <v>11734.45178335535</v>
+        <v>9143.038309114927</v>
       </c>
       <c r="G504">
         <v>13280.206</v>
@@ -12004,10 +12004,10 @@
         <v>19.97357992073976</v>
       </c>
       <c r="E505">
-        <v>5193.130779392339</v>
+        <v>2596.565389696169</v>
       </c>
       <c r="F505">
-        <v>11757.78071334214</v>
+        <v>9161.215323645971</v>
       </c>
       <c r="G505">
         <v>13306.608</v>
@@ -12027,10 +12027,10 @@
         <v>20.01321003963012</v>
       </c>
       <c r="E506">
-        <v>5203.434610303832</v>
+        <v>2601.717305151916</v>
       </c>
       <c r="F506">
-        <v>11781.10964332893</v>
+        <v>9179.392338177015</v>
       </c>
       <c r="G506">
         <v>13333.01</v>
@@ -12050,10 +12050,10 @@
         <v>20.05284015852047</v>
       </c>
       <c r="E507">
-        <v>5213.738441215324</v>
+        <v>2606.869220607662</v>
       </c>
       <c r="F507">
-        <v>11804.43857331572</v>
+        <v>9197.569352708058</v>
       </c>
       <c r="G507">
         <v>13359.412</v>
@@ -12073,10 +12073,10 @@
         <v>20.09247027741083</v>
       </c>
       <c r="E508">
-        <v>5224.042272126817</v>
+        <v>2612.021136063408</v>
       </c>
       <c r="F508">
-        <v>11827.76750330251</v>
+        <v>9215.746367239102</v>
       </c>
       <c r="G508">
         <v>13385.814</v>
@@ -12096,10 +12096,10 @@
         <v>20.13210039630119</v>
       </c>
       <c r="E509">
-        <v>5234.34610303831</v>
+        <v>2617.173051519155</v>
       </c>
       <c r="F509">
-        <v>11851.0964332893</v>
+        <v>9233.923381770146</v>
       </c>
       <c r="G509">
         <v>13412.216</v>
@@ -12119,10 +12119,10 @@
         <v>20.17173051519154</v>
       </c>
       <c r="E510">
-        <v>5244.649933949802</v>
+        <v>2622.324966974901</v>
       </c>
       <c r="F510">
-        <v>11874.42536327609</v>
+        <v>9252.10039630119</v>
       </c>
       <c r="G510">
         <v>13438.618</v>
@@ -12142,10 +12142,10 @@
         <v>20.2113606340819</v>
       </c>
       <c r="E511">
-        <v>5254.953764861295</v>
+        <v>2627.476882430647</v>
       </c>
       <c r="F511">
-        <v>11897.75429326288</v>
+        <v>9270.277410832232</v>
       </c>
       <c r="G511">
         <v>13465.02</v>
@@ -12165,10 +12165,10 @@
         <v>20.25099075297226</v>
       </c>
       <c r="E512">
-        <v>5265.257595772788</v>
+        <v>2632.628797886394</v>
       </c>
       <c r="F512">
-        <v>11921.08322324967</v>
+        <v>9288.454425363276</v>
       </c>
       <c r="G512">
         <v>13491.422</v>
@@ -12188,10 +12188,10 @@
         <v>20.29062087186261</v>
       </c>
       <c r="E513">
-        <v>5275.56142668428</v>
+        <v>2637.78071334214</v>
       </c>
       <c r="F513">
-        <v>11944.41215323646</v>
+        <v>9306.63143989432</v>
       </c>
       <c r="G513">
         <v>13517.824</v>
@@ -12211,10 +12211,10 @@
         <v>20.33025099075297</v>
       </c>
       <c r="E514">
-        <v>5285.865257595773</v>
+        <v>2642.932628797887</v>
       </c>
       <c r="F514">
-        <v>11967.74108322325</v>
+        <v>9324.808454425363</v>
       </c>
       <c r="G514">
         <v>13544.226</v>
@@ -12234,10 +12234,10 @@
         <v>20.36988110964333</v>
       </c>
       <c r="E515">
-        <v>5296.169088507266</v>
+        <v>2648.084544253633</v>
       </c>
       <c r="F515">
-        <v>11991.07001321004</v>
+        <v>9342.985468956407</v>
       </c>
       <c r="G515">
         <v>13570.628</v>
@@ -12257,10 +12257,10 @@
         <v>20.40951122853368</v>
       </c>
       <c r="E516">
-        <v>5306.472919418758</v>
+        <v>2653.236459709379</v>
       </c>
       <c r="F516">
-        <v>12014.39894319683</v>
+        <v>9361.162483487449</v>
       </c>
       <c r="G516">
         <v>13597.03</v>
@@ -12280,10 +12280,10 @@
         <v>20.44914134742404</v>
       </c>
       <c r="E517">
-        <v>5316.776750330251</v>
+        <v>2658.388375165126</v>
       </c>
       <c r="F517">
-        <v>12037.72787318362</v>
+        <v>9379.339498018493</v>
       </c>
       <c r="G517">
         <v>13623.432</v>
@@ -12303,10 +12303,10 @@
         <v>20.4887714663144</v>
       </c>
       <c r="E518">
-        <v>5327.080581241744</v>
+        <v>2663.540290620872</v>
       </c>
       <c r="F518">
-        <v>12061.05680317041</v>
+        <v>9397.516512549537</v>
       </c>
       <c r="G518">
         <v>13649.834</v>
@@ -12326,10 +12326,10 @@
         <v>20.52840158520475</v>
       </c>
       <c r="E519">
-        <v>5337.384412153237</v>
+        <v>2668.692206076618</v>
       </c>
       <c r="F519">
-        <v>12084.3857331572</v>
+        <v>9415.693527080581</v>
       </c>
       <c r="G519">
         <v>13676.236</v>
@@ -12349,10 +12349,10 @@
         <v>20.56803170409511</v>
       </c>
       <c r="E520">
-        <v>5347.688243064729</v>
+        <v>2673.844121532365</v>
       </c>
       <c r="F520">
-        <v>12107.71466314399</v>
+        <v>9433.870541611625</v>
       </c>
       <c r="G520">
         <v>13702.638</v>
@@ -12372,10 +12372,10 @@
         <v>20.60766182298547</v>
       </c>
       <c r="E521">
-        <v>5357.992073976222</v>
+        <v>2678.996036988111</v>
       </c>
       <c r="F521">
-        <v>12131.04359313078</v>
+        <v>9452.047556142668</v>
       </c>
       <c r="G521">
         <v>13729.04</v>
@@ -12395,10 +12395,10 @@
         <v>20.64729194187582</v>
       </c>
       <c r="E522">
-        <v>5368.295904887715</v>
+        <v>2684.147952443857</v>
       </c>
       <c r="F522">
-        <v>12154.37252311757</v>
+        <v>9470.224570673712</v>
       </c>
       <c r="G522">
         <v>13755.442</v>
@@ -12418,10 +12418,10 @@
         <v>20.68692206076618</v>
       </c>
       <c r="E523">
-        <v>5378.599735799207</v>
+        <v>2689.299867899604</v>
       </c>
       <c r="F523">
-        <v>12177.70145310436</v>
+        <v>9488.401585204756</v>
       </c>
       <c r="G523">
         <v>13781.844</v>
@@ -12441,10 +12441,10 @@
         <v>20.72655217965654</v>
       </c>
       <c r="E524">
-        <v>5388.9035667107</v>
+        <v>2694.45178335535</v>
       </c>
       <c r="F524">
-        <v>12201.03038309115</v>
+        <v>9506.5785997358</v>
       </c>
       <c r="G524">
         <v>13808.246</v>
@@ -12464,10 +12464,10 @@
         <v>20.76618229854689</v>
       </c>
       <c r="E525">
-        <v>5399.207397622194</v>
+        <v>2699.603698811097</v>
       </c>
       <c r="F525">
-        <v>12224.35931307794</v>
+        <v>9524.755614266844</v>
       </c>
       <c r="G525">
         <v>13834.648</v>
@@ -12487,10 +12487,10 @@
         <v>20.80581241743725</v>
       </c>
       <c r="E526">
-        <v>5409.511228533686</v>
+        <v>2704.755614266843</v>
       </c>
       <c r="F526">
-        <v>12247.68824306473</v>
+        <v>9542.932628797887</v>
       </c>
       <c r="G526">
         <v>13861.05</v>
@@ -12510,10 +12510,10 @@
         <v>20.84544253632761</v>
       </c>
       <c r="E527">
-        <v>5419.815059445179</v>
+        <v>2709.90752972259</v>
       </c>
       <c r="F527">
-        <v>12271.01717305152</v>
+        <v>9561.109643328929</v>
       </c>
       <c r="G527">
         <v>13887.452</v>
@@ -12533,10 +12533,10 @@
         <v>20.88507265521796</v>
       </c>
       <c r="E528">
-        <v>5430.118890356672</v>
+        <v>2715.059445178336</v>
       </c>
       <c r="F528">
-        <v>12294.34610303831</v>
+        <v>9579.286657859973</v>
       </c>
       <c r="G528">
         <v>13913.854</v>
@@ -12556,10 +12556,10 @@
         <v>20.92470277410832</v>
       </c>
       <c r="E529">
-        <v>5440.422721268164</v>
+        <v>2720.211360634082</v>
       </c>
       <c r="F529">
-        <v>12317.6750330251</v>
+        <v>9597.463672391017</v>
       </c>
       <c r="G529">
         <v>13940.256</v>
@@ -12579,10 +12579,10 @@
         <v>20.96433289299868</v>
       </c>
       <c r="E530">
-        <v>5450.726552179657</v>
+        <v>2725.363276089829</v>
       </c>
       <c r="F530">
-        <v>12341.00396301189</v>
+        <v>9615.640686922061</v>
       </c>
       <c r="G530">
         <v>13966.658</v>
@@ -12602,10 +12602,10 @@
         <v>21.00396301188903</v>
       </c>
       <c r="E531">
-        <v>5461.03038309115</v>
+        <v>2730.515191545575</v>
       </c>
       <c r="F531">
-        <v>12364.33289299868</v>
+        <v>9633.817701453105</v>
       </c>
       <c r="G531">
         <v>13993.06</v>
@@ -12625,10 +12625,10 @@
         <v>21.04359313077939</v>
       </c>
       <c r="E532">
-        <v>5471.334214002643</v>
+        <v>2735.667107001321</v>
       </c>
       <c r="F532">
-        <v>12387.66182298547</v>
+        <v>9651.994715984149</v>
       </c>
       <c r="G532">
         <v>14019.462</v>
@@ -12648,10 +12648,10 @@
         <v>21.08322324966975</v>
       </c>
       <c r="E533">
-        <v>5481.638044914135</v>
+        <v>2740.819022457068</v>
       </c>
       <c r="F533">
-        <v>12410.99075297226</v>
+        <v>9670.171730515191</v>
       </c>
       <c r="G533">
         <v>14045.864</v>
@@ -12671,10 +12671,10 @@
         <v>21.1228533685601</v>
       </c>
       <c r="E534">
-        <v>5491.941875825628</v>
+        <v>2745.970937912814</v>
       </c>
       <c r="F534">
-        <v>12434.31968295905</v>
+        <v>9688.348745046234</v>
       </c>
       <c r="G534">
         <v>14072.266</v>
@@ -12694,10 +12694,10 @@
         <v>21.16248348745046</v>
       </c>
       <c r="E535">
-        <v>5502.245706737121</v>
+        <v>2751.12285336856</v>
       </c>
       <c r="F535">
-        <v>12457.64861294584</v>
+        <v>9706.525759577278</v>
       </c>
       <c r="G535">
         <v>14098.668</v>
@@ -12717,10 +12717,10 @@
         <v>21.20211360634082</v>
       </c>
       <c r="E536">
-        <v>5512.549537648613</v>
+        <v>2756.274768824307</v>
       </c>
       <c r="F536">
-        <v>12480.97754293263</v>
+        <v>9724.702774108322</v>
       </c>
       <c r="G536">
         <v>14125.07</v>
@@ -12740,10 +12740,10 @@
         <v>21.24174372523117</v>
       </c>
       <c r="E537">
-        <v>5522.853368560106</v>
+        <v>2761.426684280053</v>
       </c>
       <c r="F537">
-        <v>12504.30647291942</v>
+        <v>9742.879788639366</v>
       </c>
       <c r="G537">
         <v>14151.472</v>
@@ -12763,10 +12763,10 @@
         <v>21.28137384412153</v>
       </c>
       <c r="E538">
-        <v>5533.157199471599</v>
+        <v>2766.578599735799</v>
       </c>
       <c r="F538">
-        <v>12527.63540290621</v>
+        <v>9761.05680317041</v>
       </c>
       <c r="G538">
         <v>14177.874</v>
@@ -12786,10 +12786,10 @@
         <v>21.32100396301189</v>
       </c>
       <c r="E539">
-        <v>5543.461030383091</v>
+        <v>2771.730515191546</v>
       </c>
       <c r="F539">
-        <v>12550.964332893</v>
+        <v>9779.233817701454</v>
       </c>
       <c r="G539">
         <v>14204.276</v>
@@ -12809,10 +12809,10 @@
         <v>21.36063408190224</v>
       </c>
       <c r="E540">
-        <v>5553.764861294584</v>
+        <v>2776.882430647292</v>
       </c>
       <c r="F540">
-        <v>12574.29326287979</v>
+        <v>9797.410832232497</v>
       </c>
       <c r="G540">
         <v>14230.678</v>
@@ -12832,10 +12832,10 @@
         <v>21.4002642007926</v>
       </c>
       <c r="E541">
-        <v>5564.068692206077</v>
+        <v>2782.034346103038</v>
       </c>
       <c r="F541">
-        <v>12597.62219286658</v>
+        <v>9815.587846763541</v>
       </c>
       <c r="G541">
         <v>14257.08</v>
@@ -12855,10 +12855,10 @@
         <v>21.43989431968296</v>
       </c>
       <c r="E542">
-        <v>5574.372523117569</v>
+        <v>2787.186261558785</v>
       </c>
       <c r="F542">
-        <v>12620.95112285337</v>
+        <v>9833.764861294583</v>
       </c>
       <c r="G542">
         <v>14283.482</v>
@@ -12878,10 +12878,10 @@
         <v>21.47952443857331</v>
       </c>
       <c r="E543">
-        <v>5584.676354029062</v>
+        <v>2792.338177014531</v>
       </c>
       <c r="F543">
-        <v>12644.28005284016</v>
+        <v>9851.941875825627</v>
       </c>
       <c r="G543">
         <v>14309.884</v>
@@ -12901,10 +12901,10 @@
         <v>21.51915455746367</v>
       </c>
       <c r="E544">
-        <v>5594.980184940555</v>
+        <v>2797.490092470277</v>
       </c>
       <c r="F544">
-        <v>12667.60898282695</v>
+        <v>9870.118890356671</v>
       </c>
       <c r="G544">
         <v>14336.286</v>
@@ -12924,10 +12924,10 @@
         <v>21.55878467635403</v>
       </c>
       <c r="E545">
-        <v>5605.284015852048</v>
+        <v>2802.642007926024</v>
       </c>
       <c r="F545">
-        <v>12690.93791281374</v>
+        <v>9888.295904887715</v>
       </c>
       <c r="G545">
         <v>14362.688</v>
@@ -12947,10 +12947,10 @@
         <v>21.59841479524438</v>
       </c>
       <c r="E546">
-        <v>5615.58784676354</v>
+        <v>2807.79392338177</v>
       </c>
       <c r="F546">
-        <v>12714.26684280053</v>
+        <v>9906.472919418758</v>
       </c>
       <c r="G546">
         <v>14389.09</v>
@@ -12970,10 +12970,10 @@
         <v>21.63804491413474</v>
       </c>
       <c r="E547">
-        <v>5625.891677675033</v>
+        <v>2812.945838837516</v>
       </c>
       <c r="F547">
-        <v>12737.59577278732</v>
+        <v>9924.649933949802</v>
       </c>
       <c r="G547">
         <v>14415.492</v>
@@ -12993,10 +12993,10 @@
         <v>21.6776750330251</v>
       </c>
       <c r="E548">
-        <v>5636.195508586527</v>
+        <v>2818.097754293263</v>
       </c>
       <c r="F548">
-        <v>12760.92470277411</v>
+        <v>9942.826948480846</v>
       </c>
       <c r="G548">
         <v>14441.894</v>
@@ -13016,10 +13016,10 @@
         <v>21.71730515191545</v>
       </c>
       <c r="E549">
-        <v>5646.499339498019</v>
+        <v>2823.24966974901</v>
       </c>
       <c r="F549">
-        <v>12784.2536327609</v>
+        <v>9961.00396301189</v>
       </c>
       <c r="G549">
         <v>14468.296</v>
@@ -13039,10 +13039,10 @@
         <v>21.75693527080581</v>
       </c>
       <c r="E550">
-        <v>5656.803170409512</v>
+        <v>2828.401585204756</v>
       </c>
       <c r="F550">
-        <v>12807.58256274769</v>
+        <v>9979.180977542932</v>
       </c>
       <c r="G550">
         <v>14494.698</v>
@@ -13062,10 +13062,10 @@
         <v>21.79656538969617</v>
       </c>
       <c r="E551">
-        <v>5667.107001321005</v>
+        <v>2833.553500660502</v>
       </c>
       <c r="F551">
-        <v>12830.91149273448</v>
+        <v>9997.357992073976</v>
       </c>
       <c r="G551">
         <v>14521.1</v>
@@ -13085,10 +13085,10 @@
         <v>21.83619550858652</v>
       </c>
       <c r="E552">
-        <v>5677.410832232497</v>
+        <v>2838.705416116249</v>
       </c>
       <c r="F552">
-        <v>12854.24042272127</v>
+        <v>10015.53500660502</v>
       </c>
       <c r="G552">
         <v>14547.502</v>
@@ -13108,10 +13108,10 @@
         <v>21.87582562747688</v>
       </c>
       <c r="E553">
-        <v>5687.71466314399</v>
+        <v>2843.857331571995</v>
       </c>
       <c r="F553">
-        <v>12877.56935270806</v>
+        <v>10033.71202113606</v>
       </c>
       <c r="G553">
         <v>14573.904</v>
@@ -13131,10 +13131,10 @@
         <v>21.91545574636724</v>
       </c>
       <c r="E554">
-        <v>5698.018494055483</v>
+        <v>2849.009247027741</v>
       </c>
       <c r="F554">
-        <v>12900.89828269485</v>
+        <v>10051.88903566711</v>
       </c>
       <c r="G554">
         <v>14600.306</v>
@@ -13154,10 +13154,10 @@
         <v>21.95508586525759</v>
       </c>
       <c r="E555">
-        <v>5708.322324966975</v>
+        <v>2854.161162483488</v>
       </c>
       <c r="F555">
-        <v>12924.22721268164</v>
+        <v>10070.06605019815</v>
       </c>
       <c r="G555">
         <v>14626.708</v>
@@ -13177,10 +13177,10 @@
         <v>21.99471598414795</v>
       </c>
       <c r="E556">
-        <v>5718.626155878468</v>
+        <v>2859.313077939234</v>
       </c>
       <c r="F556">
-        <v>12947.55614266843</v>
+        <v>10088.24306472919</v>
       </c>
       <c r="G556">
         <v>14653.11</v>
@@ -13200,10 +13200,10 @@
         <v>22.03434610303831</v>
       </c>
       <c r="E557">
-        <v>5728.929986789961</v>
+        <v>2864.46499339498</v>
       </c>
       <c r="F557">
-        <v>12970.88507265522</v>
+        <v>10106.42007926024</v>
       </c>
       <c r="G557">
         <v>14679.512</v>
@@ -13223,10 +13223,10 @@
         <v>22.07397622192866</v>
       </c>
       <c r="E558">
-        <v>5739.233817701454</v>
+        <v>2869.616908850727</v>
       </c>
       <c r="F558">
-        <v>12994.21400264201</v>
+        <v>10124.59709379128</v>
       </c>
       <c r="G558">
         <v>14705.914</v>
@@ -13246,10 +13246,10 @@
         <v>22.11360634081902</v>
       </c>
       <c r="E559">
-        <v>5749.537648612946</v>
+        <v>2874.768824306473</v>
       </c>
       <c r="F559">
-        <v>13017.5429326288</v>
+        <v>10142.77410832233</v>
       </c>
       <c r="G559">
         <v>14732.316</v>
@@ -13269,10 +13269,10 @@
         <v>22.15323645970938</v>
       </c>
       <c r="E560">
-        <v>5759.841479524439</v>
+        <v>2879.920739762219</v>
       </c>
       <c r="F560">
-        <v>13040.87186261559</v>
+        <v>10160.95112285337</v>
       </c>
       <c r="G560">
         <v>14758.718</v>
@@ -13292,10 +13292,10 @@
         <v>22.19286657859973</v>
       </c>
       <c r="E561">
-        <v>5770.145310435932</v>
+        <v>2885.072655217966</v>
       </c>
       <c r="F561">
-        <v>13064.20079260238</v>
+        <v>10179.12813738441</v>
       </c>
       <c r="G561">
         <v>14785.12</v>
@@ -13315,10 +13315,10 @@
         <v>22.23249669749009</v>
       </c>
       <c r="E562">
-        <v>5780.449141347424</v>
+        <v>2890.224570673712</v>
       </c>
       <c r="F562">
-        <v>13087.52972258917</v>
+        <v>10197.30515191546</v>
       </c>
       <c r="G562">
         <v>14811.522</v>
@@ -13338,10 +13338,10 @@
         <v>22.27212681638045</v>
       </c>
       <c r="E563">
-        <v>5790.752972258917</v>
+        <v>2895.376486129458</v>
       </c>
       <c r="F563">
-        <v>13110.85865257596</v>
+        <v>10215.4821664465</v>
       </c>
       <c r="G563">
         <v>14837.924</v>
@@ -13361,10 +13361,10 @@
         <v>22.3117569352708</v>
       </c>
       <c r="E564">
-        <v>5801.05680317041</v>
+        <v>2900.528401585205</v>
       </c>
       <c r="F564">
-        <v>13134.18758256275</v>
+        <v>10233.65918097754</v>
       </c>
       <c r="G564">
         <v>14864.326</v>
@@ -13384,10 +13384,10 @@
         <v>22.35138705416116</v>
       </c>
       <c r="E565">
-        <v>5811.360634081902</v>
+        <v>2905.680317040951</v>
       </c>
       <c r="F565">
-        <v>13157.51651254954</v>
+        <v>10251.83619550859</v>
       </c>
       <c r="G565">
         <v>14890.728</v>
@@ -13407,10 +13407,10 @@
         <v>22.39101717305152</v>
       </c>
       <c r="E566">
-        <v>5821.664464993395</v>
+        <v>2910.832232496698</v>
       </c>
       <c r="F566">
-        <v>13180.84544253633</v>
+        <v>10270.01321003963</v>
       </c>
       <c r="G566">
         <v>14917.13</v>
@@ -13430,10 +13430,10 @@
         <v>22.43064729194187</v>
       </c>
       <c r="E567">
-        <v>5831.968295904888</v>
+        <v>2915.984147952444</v>
       </c>
       <c r="F567">
-        <v>13204.17437252312</v>
+        <v>10288.19022457067</v>
       </c>
       <c r="G567">
         <v>14943.532</v>
@@ -13453,10 +13453,10 @@
         <v>22.47027741083223</v>
       </c>
       <c r="E568">
-        <v>5842.27212681638</v>
+        <v>2921.13606340819</v>
       </c>
       <c r="F568">
-        <v>13227.50330250991</v>
+        <v>10306.36723910172</v>
       </c>
       <c r="G568">
         <v>14969.934</v>
@@ -13476,10 +13476,10 @@
         <v>22.50990752972259</v>
       </c>
       <c r="E569">
-        <v>5852.575957727873</v>
+        <v>2926.287978863937</v>
       </c>
       <c r="F569">
-        <v>13250.8322324967</v>
+        <v>10324.54425363276</v>
       </c>
       <c r="G569">
         <v>14996.336</v>
@@ -13499,10 +13499,10 @@
         <v>22.54953764861294</v>
       </c>
       <c r="E570">
-        <v>5862.879788639366</v>
+        <v>2931.439894319683</v>
       </c>
       <c r="F570">
-        <v>13274.16116248349</v>
+        <v>10342.7212681638</v>
       </c>
       <c r="G570">
         <v>15022.738</v>
@@ -13522,10 +13522,10 @@
         <v>22.5891677675033</v>
       </c>
       <c r="E571">
-        <v>5873.183619550859</v>
+        <v>2936.591809775429</v>
       </c>
       <c r="F571">
-        <v>13297.49009247028</v>
+        <v>10360.89828269485</v>
       </c>
       <c r="G571">
         <v>15049.14</v>
@@ -13545,10 +13545,10 @@
         <v>22.62879788639366</v>
       </c>
       <c r="E572">
-        <v>5883.487450462352</v>
+        <v>2941.743725231176</v>
       </c>
       <c r="F572">
-        <v>13320.81902245707</v>
+        <v>10379.07529722589</v>
       </c>
       <c r="G572">
         <v>15075.542</v>
@@ -13568,10 +13568,10 @@
         <v>22.66842800528401</v>
       </c>
       <c r="E573">
-        <v>5893.791281373845</v>
+        <v>2946.895640686922</v>
       </c>
       <c r="F573">
-        <v>13344.14795244386</v>
+        <v>10397.25231175694</v>
       </c>
       <c r="G573">
         <v>15101.944</v>
@@ -13591,10 +13591,10 @@
         <v>22.70805812417437</v>
       </c>
       <c r="E574">
-        <v>5904.095112285338</v>
+        <v>2952.047556142669</v>
       </c>
       <c r="F574">
-        <v>13367.47688243065</v>
+        <v>10415.42932628798</v>
       </c>
       <c r="G574">
         <v>15128.346</v>
@@ -13614,10 +13614,10 @@
         <v>22.74768824306473</v>
       </c>
       <c r="E575">
-        <v>5914.39894319683</v>
+        <v>2957.199471598415</v>
       </c>
       <c r="F575">
-        <v>13390.80581241744</v>
+        <v>10433.60634081902</v>
       </c>
       <c r="G575">
         <v>15154.748</v>
@@ -13637,10 +13637,10 @@
         <v>22.78731836195508</v>
       </c>
       <c r="E576">
-        <v>5924.702774108323</v>
+        <v>2962.351387054161</v>
       </c>
       <c r="F576">
-        <v>13414.13474240423</v>
+        <v>10451.78335535007</v>
       </c>
       <c r="G576">
         <v>15181.15</v>
@@ -13660,10 +13660,10 @@
         <v>22.82694848084544</v>
       </c>
       <c r="E577">
-        <v>5935.006605019816</v>
+        <v>2967.503302509908</v>
       </c>
       <c r="F577">
-        <v>13437.46367239102</v>
+        <v>10469.96036988111</v>
       </c>
       <c r="G577">
         <v>15207.552</v>
@@ -13683,10 +13683,10 @@
         <v>22.8665785997358</v>
       </c>
       <c r="E578">
-        <v>5945.310435931308</v>
+        <v>2972.655217965654</v>
       </c>
       <c r="F578">
-        <v>13460.79260237781</v>
+        <v>10488.13738441215</v>
       </c>
       <c r="G578">
         <v>15233.954</v>
@@ -13706,10 +13706,10 @@
         <v>22.90620871862615</v>
       </c>
       <c r="E579">
-        <v>5955.614266842801</v>
+        <v>2977.807133421401</v>
       </c>
       <c r="F579">
-        <v>13484.1215323646</v>
+        <v>10506.3143989432</v>
       </c>
       <c r="G579">
         <v>15260.356</v>
@@ -13729,10 +13729,10 @@
         <v>22.94583883751651</v>
       </c>
       <c r="E580">
-        <v>5965.918097754294</v>
+        <v>2982.959048877147</v>
       </c>
       <c r="F580">
-        <v>13507.45046235139</v>
+        <v>10524.49141347424</v>
       </c>
       <c r="G580">
         <v>15286.758</v>
@@ -13752,10 +13752,10 @@
         <v>22.98546895640687</v>
       </c>
       <c r="E581">
-        <v>5976.221928665786</v>
+        <v>2988.110964332893</v>
       </c>
       <c r="F581">
-        <v>13530.77939233818</v>
+        <v>10542.66842800529</v>
       </c>
       <c r="G581">
         <v>15313.16</v>
@@ -13775,10 +13775,10 @@
         <v>23.02509907529722</v>
       </c>
       <c r="E582">
-        <v>5986.525759577279</v>
+        <v>2993.26287978864</v>
       </c>
       <c r="F582">
-        <v>13554.10832232497</v>
+        <v>10560.84544253633</v>
       </c>
       <c r="G582">
         <v>15339.562</v>
@@ -13798,10 +13798,10 @@
         <v>23.06472919418758</v>
       </c>
       <c r="E583">
-        <v>5996.829590488772</v>
+        <v>2998.414795244386</v>
       </c>
       <c r="F583">
-        <v>13577.43725231176</v>
+        <v>10579.02245706737</v>
       </c>
       <c r="G583">
         <v>15365.964</v>
@@ -13821,10 +13821,10 @@
         <v>23.10435931307794</v>
       </c>
       <c r="E584">
-        <v>6007.133421400265</v>
+        <v>3003.566710700132</v>
       </c>
       <c r="F584">
-        <v>13600.76618229855</v>
+        <v>10597.19947159841</v>
       </c>
       <c r="G584">
         <v>15392.366</v>
@@ -13844,10 +13844,10 @@
         <v>23.14398943196829</v>
       </c>
       <c r="E585">
-        <v>6017.437252311757</v>
+        <v>3008.718626155879</v>
       </c>
       <c r="F585">
-        <v>13624.09511228534</v>
+        <v>10615.37648612946</v>
       </c>
       <c r="G585">
         <v>15418.768</v>
@@ -13867,10 +13867,10 @@
         <v>23.18361955085865</v>
       </c>
       <c r="E586">
-        <v>6027.74108322325</v>
+        <v>3013.870541611625</v>
       </c>
       <c r="F586">
-        <v>13647.42404227213</v>
+        <v>10633.5535006605</v>
       </c>
       <c r="G586">
         <v>15445.17</v>
@@ -13890,10 +13890,10 @@
         <v>23.22324966974901</v>
       </c>
       <c r="E587">
-        <v>6038.044914134743</v>
+        <v>3019.022457067371</v>
       </c>
       <c r="F587">
-        <v>13670.75297225892</v>
+        <v>10651.73051519155</v>
       </c>
       <c r="G587">
         <v>15471.572</v>
@@ -13913,10 +13913,10 @@
         <v>23.26287978863936</v>
       </c>
       <c r="E588">
-        <v>6048.348745046235</v>
+        <v>3024.174372523118</v>
       </c>
       <c r="F588">
-        <v>13694.08190224571</v>
+        <v>10669.90752972259</v>
       </c>
       <c r="G588">
         <v>15497.974</v>
@@ -13936,10 +13936,10 @@
         <v>23.30250990752972</v>
       </c>
       <c r="E589">
-        <v>6058.652575957728</v>
+        <v>3029.326287978864</v>
       </c>
       <c r="F589">
-        <v>13717.4108322325</v>
+        <v>10688.08454425363</v>
       </c>
       <c r="G589">
         <v>15524.376</v>
@@ -13959,10 +13959,10 @@
         <v>23.34214002642008</v>
       </c>
       <c r="E590">
-        <v>6068.956406869221</v>
+        <v>3034.47820343461</v>
       </c>
       <c r="F590">
-        <v>13740.73976221929</v>
+        <v>10706.26155878468</v>
       </c>
       <c r="G590">
         <v>15550.778</v>
@@ -13982,10 +13982,10 @@
         <v>23.38177014531043</v>
       </c>
       <c r="E591">
-        <v>6079.260237780713</v>
+        <v>3039.630118890357</v>
       </c>
       <c r="F591">
-        <v>13764.06869220608</v>
+        <v>10724.43857331572</v>
       </c>
       <c r="G591">
         <v>15577.18</v>
@@ -14005,10 +14005,10 @@
         <v>23.42140026420079</v>
       </c>
       <c r="E592">
-        <v>6089.564068692206</v>
+        <v>3044.782034346103</v>
       </c>
       <c r="F592">
-        <v>13787.39762219287</v>
+        <v>10742.61558784676</v>
       </c>
       <c r="G592">
         <v>15603.582</v>
@@ -14028,10 +14028,10 @@
         <v>23.46103038309115</v>
       </c>
       <c r="E593">
-        <v>6099.867899603699</v>
+        <v>3049.933949801849</v>
       </c>
       <c r="F593">
-        <v>13810.72655217966</v>
+        <v>10760.79260237781</v>
       </c>
       <c r="G593">
         <v>15629.984</v>
@@ -14051,10 +14051,10 @@
         <v>23.5006605019815</v>
       </c>
       <c r="E594">
-        <v>6110.171730515191</v>
+        <v>3055.085865257596</v>
       </c>
       <c r="F594">
-        <v>13834.05548216645</v>
+        <v>10778.96961690885</v>
       </c>
       <c r="G594">
         <v>15656.386</v>
@@ -14074,10 +14074,10 @@
         <v>23.54029062087186</v>
       </c>
       <c r="E595">
-        <v>6120.475561426685</v>
+        <v>3060.237780713343</v>
       </c>
       <c r="F595">
-        <v>13857.38441215324</v>
+        <v>10797.14663143989</v>
       </c>
       <c r="G595">
         <v>15682.788</v>
@@ -14097,10 +14097,10 @@
         <v>23.57992073976222</v>
       </c>
       <c r="E596">
-        <v>6130.779392338178</v>
+        <v>3065.389696169089</v>
       </c>
       <c r="F596">
-        <v>13880.71334214003</v>
+        <v>10815.32364597094</v>
       </c>
       <c r="G596">
         <v>15709.19</v>
@@ -14120,10 +14120,10 @@
         <v>23.61955085865257</v>
       </c>
       <c r="E597">
-        <v>6141.08322324967</v>
+        <v>3070.541611624835</v>
       </c>
       <c r="F597">
-        <v>13904.04227212682</v>
+        <v>10833.50066050198</v>
       </c>
       <c r="G597">
         <v>15735.592</v>
@@ -14143,10 +14143,10 @@
         <v>23.65918097754293</v>
       </c>
       <c r="E598">
-        <v>6151.387054161163</v>
+        <v>3075.693527080582</v>
       </c>
       <c r="F598">
-        <v>13927.37120211361</v>
+        <v>10851.67767503302</v>
       </c>
       <c r="G598">
         <v>15761.994</v>
@@ -14166,10 +14166,10 @@
         <v>23.69881109643329</v>
       </c>
       <c r="E599">
-        <v>6161.690885072656</v>
+        <v>3080.845442536328</v>
       </c>
       <c r="F599">
-        <v>13950.7001321004</v>
+        <v>10869.85468956407</v>
       </c>
       <c r="G599">
         <v>15788.396</v>
@@ -14189,10 +14189,10 @@
         <v>23.73844121532364</v>
       </c>
       <c r="E600">
-        <v>6171.994715984149</v>
+        <v>3085.997357992074</v>
       </c>
       <c r="F600">
-        <v>13974.02906208719</v>
+        <v>10888.03170409511</v>
       </c>
       <c r="G600">
         <v>15814.798</v>
@@ -14212,10 +14212,10 @@
         <v>23.778071334214</v>
       </c>
       <c r="E601">
-        <v>6182.298546895641</v>
+        <v>3091.149273447821</v>
       </c>
       <c r="F601">
-        <v>13997.35799207398</v>
+        <v>10906.20871862616</v>
       </c>
       <c r="G601">
         <v>15841.2</v>
@@ -14235,10 +14235,10 @@
         <v>23.81770145310436</v>
       </c>
       <c r="E602">
-        <v>6192.602377807134</v>
+        <v>3096.301188903567</v>
       </c>
       <c r="F602">
-        <v>14020.68692206077</v>
+        <v>10924.3857331572</v>
       </c>
       <c r="G602">
         <v>15867.602</v>
@@ -14258,10 +14258,10 @@
         <v>23.85733157199471</v>
       </c>
       <c r="E603">
-        <v>6202.906208718627</v>
+        <v>3101.453104359313</v>
       </c>
       <c r="F603">
-        <v>14044.01585204756</v>
+        <v>10942.56274768824</v>
       </c>
       <c r="G603">
         <v>15894.004</v>
@@ -14281,10 +14281,10 @@
         <v>23.89696169088507</v>
       </c>
       <c r="E604">
-        <v>6213.210039630119</v>
+        <v>3106.60501981506</v>
       </c>
       <c r="F604">
-        <v>14067.34478203435</v>
+        <v>10960.73976221929</v>
       </c>
       <c r="G604">
         <v>15920.406</v>
@@ -14304,10 +14304,10 @@
         <v>23.93659180977543</v>
       </c>
       <c r="E605">
-        <v>6223.513870541612</v>
+        <v>3111.756935270806</v>
       </c>
       <c r="F605">
-        <v>14090.67371202114</v>
+        <v>10978.91677675033</v>
       </c>
       <c r="G605">
         <v>15946.808</v>
@@ -14327,10 +14327,10 @@
         <v>23.97622192866578</v>
       </c>
       <c r="E606">
-        <v>6233.817701453105</v>
+        <v>3116.908850726552</v>
       </c>
       <c r="F606">
-        <v>14114.00264200793</v>
+        <v>10997.09379128138</v>
       </c>
       <c r="G606">
         <v>15973.21</v>
@@ -14350,10 +14350,10 @@
         <v>24.01585204755614</v>
       </c>
       <c r="E607">
-        <v>6244.121532364597</v>
+        <v>3122.060766182299</v>
       </c>
       <c r="F607">
-        <v>14137.33157199472</v>
+        <v>11015.27080581242</v>
       </c>
       <c r="G607">
         <v>15999.612</v>
@@ -14373,10 +14373,10 @@
         <v>24.0554821664465</v>
       </c>
       <c r="E608">
-        <v>6254.42536327609</v>
+        <v>3127.212681638045</v>
       </c>
       <c r="F608">
-        <v>14160.66050198151</v>
+        <v>11033.44782034346</v>
       </c>
       <c r="G608">
         <v>16026.014</v>
@@ -14396,10 +14396,10 @@
         <v>24.09511228533685</v>
       </c>
       <c r="E609">
-        <v>6264.729194187583</v>
+        <v>3132.364597093791</v>
       </c>
       <c r="F609">
-        <v>14183.9894319683</v>
+        <v>11051.6248348745</v>
       </c>
       <c r="G609">
         <v>16052.416</v>
@@ -14419,10 +14419,10 @@
         <v>24.13474240422721</v>
       </c>
       <c r="E610">
-        <v>6275.033025099076</v>
+        <v>3137.516512549538</v>
       </c>
       <c r="F610">
-        <v>14207.31836195509</v>
+        <v>11069.80184940555</v>
       </c>
       <c r="G610">
         <v>16078.818</v>
@@ -14442,10 +14442,10 @@
         <v>24.17437252311757</v>
       </c>
       <c r="E611">
-        <v>6285.336856010568</v>
+        <v>3142.668428005284</v>
       </c>
       <c r="F611">
-        <v>14230.64729194188</v>
+        <v>11087.97886393659</v>
       </c>
       <c r="G611">
         <v>16105.22</v>
@@ -14465,10 +14465,10 @@
         <v>24.21400264200793</v>
       </c>
       <c r="E612">
-        <v>6295.640686922061</v>
+        <v>3147.82034346103</v>
       </c>
       <c r="F612">
-        <v>14253.97622192867</v>
+        <v>11106.15587846763</v>
       </c>
       <c r="G612">
         <v>16131.622</v>
@@ -14488,10 +14488,10 @@
         <v>24.25363276089828</v>
       </c>
       <c r="E613">
-        <v>6305.944517833554</v>
+        <v>3152.972258916777</v>
       </c>
       <c r="F613">
-        <v>14277.30515191546</v>
+        <v>11124.33289299868</v>
       </c>
       <c r="G613">
         <v>16158.024</v>
@@ -14511,10 +14511,10 @@
         <v>24.29326287978864</v>
       </c>
       <c r="E614">
-        <v>6316.248348745046</v>
+        <v>3158.124174372523</v>
       </c>
       <c r="F614">
-        <v>14300.63408190225</v>
+        <v>11142.50990752972</v>
       </c>
       <c r="G614">
         <v>16184.426</v>
@@ -14534,10 +14534,10 @@
         <v>24.332892998679</v>
       </c>
       <c r="E615">
-        <v>6326.552179656539</v>
+        <v>3163.27608982827</v>
       </c>
       <c r="F615">
-        <v>14323.96301188903</v>
+        <v>11160.68692206077</v>
       </c>
       <c r="G615">
         <v>16210.828</v>
@@ -14557,10 +14557,10 @@
         <v>24.37252311756935</v>
       </c>
       <c r="E616">
-        <v>6336.856010568032</v>
+        <v>3168.428005284016</v>
       </c>
       <c r="F616">
-        <v>14347.29194187582</v>
+        <v>11178.86393659181</v>
       </c>
       <c r="G616">
         <v>16237.23</v>
@@ -14580,10 +14580,10 @@
         <v>24.41215323645971</v>
       </c>
       <c r="E617">
-        <v>6347.159841479524</v>
+        <v>3173.579920739762</v>
       </c>
       <c r="F617">
-        <v>14370.62087186261</v>
+        <v>11197.04095112285</v>
       </c>
       <c r="G617">
         <v>16263.632</v>
@@ -14603,10 +14603,10 @@
         <v>24.45178335535007</v>
       </c>
       <c r="E618">
-        <v>6357.463672391018</v>
+        <v>3178.731836195509</v>
       </c>
       <c r="F618">
-        <v>14393.94980184941</v>
+        <v>11215.2179656539</v>
       </c>
       <c r="G618">
         <v>16290.034</v>
@@ -14626,10 +14626,10 @@
         <v>24.49141347424042</v>
       </c>
       <c r="E619">
-        <v>6367.767503302511</v>
+        <v>3183.883751651255</v>
       </c>
       <c r="F619">
-        <v>14417.2787318362</v>
+        <v>11233.39498018494</v>
       </c>
       <c r="G619">
         <v>16316.436</v>
@@ -14649,10 +14649,10 @@
         <v>24.53104359313078</v>
       </c>
       <c r="E620">
-        <v>6378.071334214003</v>
+        <v>3189.035667107002</v>
       </c>
       <c r="F620">
-        <v>14440.60766182299</v>
+        <v>11251.57199471598</v>
       </c>
       <c r="G620">
         <v>16342.838</v>
@@ -14672,10 +14672,10 @@
         <v>24.57067371202114</v>
       </c>
       <c r="E621">
-        <v>6388.375165125496</v>
+        <v>3194.187582562748</v>
       </c>
       <c r="F621">
-        <v>14463.93659180978</v>
+        <v>11269.74900924703</v>
       </c>
       <c r="G621">
         <v>16369.24</v>
@@ -14695,10 +14695,10 @@
         <v>24.61030383091149</v>
       </c>
       <c r="E622">
-        <v>6398.678996036989</v>
+        <v>3199.339498018494</v>
       </c>
       <c r="F622">
-        <v>14487.26552179657</v>
+        <v>11287.92602377807</v>
       </c>
       <c r="G622">
         <v>16395.642</v>
@@ -14718,10 +14718,10 @@
         <v>24.64993394980185</v>
       </c>
       <c r="E623">
-        <v>6408.982826948481</v>
+        <v>3204.491413474241</v>
       </c>
       <c r="F623">
-        <v>14510.59445178336</v>
+        <v>11306.10303830912</v>
       </c>
       <c r="G623">
         <v>16422.044</v>
@@ -14741,10 +14741,10 @@
         <v>24.68956406869221</v>
       </c>
       <c r="E624">
-        <v>6419.286657859974</v>
+        <v>3209.643328929987</v>
       </c>
       <c r="F624">
-        <v>14533.92338177015</v>
+        <v>11324.28005284016</v>
       </c>
       <c r="G624">
         <v>16448.446</v>
@@ -14764,10 +14764,10 @@
         <v>24.72919418758256</v>
       </c>
       <c r="E625">
-        <v>6429.590488771467</v>
+        <v>3214.795244385733</v>
       </c>
       <c r="F625">
-        <v>14557.25231175694</v>
+        <v>11342.4570673712</v>
       </c>
       <c r="G625">
         <v>16474.848</v>
@@ -14787,10 +14787,10 @@
         <v>24.76882430647292</v>
       </c>
       <c r="E626">
-        <v>6439.89431968296</v>
+        <v>3219.94715984148</v>
       </c>
       <c r="F626">
-        <v>14580.58124174373</v>
+        <v>11360.63408190225</v>
       </c>
       <c r="G626">
         <v>16501.25</v>
@@ -14810,10 +14810,10 @@
         <v>24.80845442536328</v>
       </c>
       <c r="E627">
-        <v>6450.198150594452</v>
+        <v>3225.099075297226</v>
       </c>
       <c r="F627">
-        <v>14603.91017173052</v>
+        <v>11378.81109643329</v>
       </c>
       <c r="G627">
         <v>16527.652</v>
@@ -14833,10 +14833,10 @@
         <v>24.84808454425363</v>
       </c>
       <c r="E628">
-        <v>6460.501981505945</v>
+        <v>3230.250990752972</v>
       </c>
       <c r="F628">
-        <v>14627.2391017173</v>
+        <v>11396.98811096433</v>
       </c>
       <c r="G628">
         <v>16554.054</v>
@@ -14856,10 +14856,10 @@
         <v>24.88771466314399</v>
       </c>
       <c r="E629">
-        <v>6470.805812417438</v>
+        <v>3235.402906208719</v>
       </c>
       <c r="F629">
-        <v>14650.5680317041</v>
+        <v>11415.16512549538</v>
       </c>
       <c r="G629">
         <v>16580.456</v>
@@ -14879,10 +14879,10 @@
         <v>24.92734478203435</v>
       </c>
       <c r="E630">
-        <v>6481.10964332893</v>
+        <v>3240.554821664465</v>
       </c>
       <c r="F630">
-        <v>14673.89696169089</v>
+        <v>11433.34214002642</v>
       </c>
       <c r="G630">
         <v>16606.858</v>
@@ -14902,10 +14902,10 @@
         <v>24.9669749009247</v>
       </c>
       <c r="E631">
-        <v>6491.413474240423</v>
+        <v>3245.706737120212</v>
       </c>
       <c r="F631">
-        <v>14697.22589167768</v>
+        <v>11451.51915455747</v>
       </c>
       <c r="G631">
         <v>16633.26</v>
@@ -14925,10 +14925,10 @@
         <v>25.00660501981506</v>
       </c>
       <c r="E632">
-        <v>6501.717305151916</v>
+        <v>3250.858652575958</v>
       </c>
       <c r="F632">
-        <v>14720.55482166446</v>
+        <v>11469.69616908851</v>
       </c>
       <c r="G632">
         <v>16659.662</v>
@@ -14948,10 +14948,10 @@
         <v>25.04623513870542</v>
       </c>
       <c r="E633">
-        <v>6512.021136063408</v>
+        <v>3256.010568031704</v>
       </c>
       <c r="F633">
-        <v>14743.88375165125</v>
+        <v>11487.87318361955</v>
       </c>
       <c r="G633">
         <v>16686.064</v>
@@ -14971,10 +14971,10 @@
         <v>25.08586525759577</v>
       </c>
       <c r="E634">
-        <v>6522.324966974901</v>
+        <v>3261.162483487451</v>
       </c>
       <c r="F634">
-        <v>14767.21268163804</v>
+        <v>11506.05019815059</v>
       </c>
       <c r="G634">
         <v>16712.466</v>
@@ -14994,10 +14994,10 @@
         <v>25.12549537648613</v>
       </c>
       <c r="E635">
-        <v>6532.628797886394</v>
+        <v>3266.314398943197</v>
       </c>
       <c r="F635">
-        <v>14790.54161162483</v>
+        <v>11524.22721268164</v>
       </c>
       <c r="G635">
         <v>16738.868</v>
@@ -15017,10 +15017,10 @@
         <v>25.16512549537649</v>
       </c>
       <c r="E636">
-        <v>6542.932628797887</v>
+        <v>3271.466314398943</v>
       </c>
       <c r="F636">
-        <v>14813.87054161162</v>
+        <v>11542.40422721268</v>
       </c>
       <c r="G636">
         <v>16765.27</v>
@@ -15040,10 +15040,10 @@
         <v>25.20475561426684</v>
       </c>
       <c r="E637">
-        <v>6553.236459709379</v>
+        <v>3276.61822985469</v>
       </c>
       <c r="F637">
-        <v>14837.19947159841</v>
+        <v>11560.58124174372</v>
       </c>
       <c r="G637">
         <v>16791.672</v>
@@ -15063,10 +15063,10 @@
         <v>25.2443857331572</v>
       </c>
       <c r="E638">
-        <v>6563.540290620872</v>
+        <v>3281.770145310436</v>
       </c>
       <c r="F638">
-        <v>14860.5284015852</v>
+        <v>11578.75825627477</v>
       </c>
       <c r="G638">
         <v>16818.074</v>
@@ -15086,10 +15086,10 @@
         <v>25.28401585204756</v>
       </c>
       <c r="E639">
-        <v>6573.844121532365</v>
+        <v>3286.922060766182</v>
       </c>
       <c r="F639">
-        <v>14883.85733157199</v>
+        <v>11596.93527080581</v>
       </c>
       <c r="G639">
         <v>16844.476</v>
@@ -15109,10 +15109,10 @@
         <v>25.32364597093791</v>
       </c>
       <c r="E640">
-        <v>6584.147952443857</v>
+        <v>3292.073976221929</v>
       </c>
       <c r="F640">
-        <v>14907.18626155879</v>
+        <v>11615.11228533686</v>
       </c>
       <c r="G640">
         <v>16870.878</v>
@@ -15132,10 +15132,10 @@
         <v>25.36327608982827</v>
       </c>
       <c r="E641">
-        <v>6594.451783355351</v>
+        <v>3297.225891677675</v>
       </c>
       <c r="F641">
-        <v>14930.51519154558</v>
+        <v>11633.2892998679</v>
       </c>
       <c r="G641">
         <v>16897.28</v>
@@ -15155,10 +15155,10 @@
         <v>25.40290620871863</v>
       </c>
       <c r="E642">
-        <v>6604.755614266844</v>
+        <v>3302.377807133422</v>
       </c>
       <c r="F642">
-        <v>14953.84412153237</v>
+        <v>11651.46631439894</v>
       </c>
       <c r="G642">
         <v>16923.682</v>
@@ -15178,10 +15178,10 @@
         <v>25.44253632760898</v>
       </c>
       <c r="E643">
-        <v>6615.059445178336</v>
+        <v>3307.529722589168</v>
       </c>
       <c r="F643">
-        <v>14977.17305151916</v>
+        <v>11669.64332892999</v>
       </c>
       <c r="G643">
         <v>16950.084</v>
@@ -15201,10 +15201,10 @@
         <v>25.48216644649934</v>
       </c>
       <c r="E644">
-        <v>6625.363276089829</v>
+        <v>3312.681638044915</v>
       </c>
       <c r="F644">
-        <v>15000.50198150595</v>
+        <v>11687.82034346103</v>
       </c>
       <c r="G644">
         <v>16976.486</v>
@@ -15224,10 +15224,10 @@
         <v>25.5217965653897</v>
       </c>
       <c r="E645">
-        <v>6635.667107001322</v>
+        <v>3317.833553500661</v>
       </c>
       <c r="F645">
-        <v>15023.83091149274</v>
+        <v>11705.99735799208</v>
       </c>
       <c r="G645">
         <v>17002.888</v>
@@ -15247,10 +15247,10 @@
         <v>25.56142668428005</v>
       </c>
       <c r="E646">
-        <v>6645.970937912814</v>
+        <v>3322.985468956407</v>
       </c>
       <c r="F646">
-        <v>15047.15984147952</v>
+        <v>11724.17437252312</v>
       </c>
       <c r="G646">
         <v>17029.29</v>
@@ -15270,10 +15270,10 @@
         <v>25.60105680317041</v>
       </c>
       <c r="E647">
-        <v>6656.274768824307</v>
+        <v>3328.137384412154</v>
       </c>
       <c r="F647">
-        <v>15070.48877146631</v>
+        <v>11742.35138705416</v>
       </c>
       <c r="G647">
         <v>17055.692</v>
@@ -15293,10 +15293,10 @@
         <v>25.64068692206077</v>
       </c>
       <c r="E648">
-        <v>6666.5785997358</v>
+        <v>3333.2892998679</v>
       </c>
       <c r="F648">
-        <v>15093.8177014531</v>
+        <v>11760.5284015852</v>
       </c>
       <c r="G648">
         <v>17082.094</v>
@@ -15316,10 +15316,10 @@
         <v>25.68031704095112</v>
       </c>
       <c r="E649">
-        <v>6676.882430647292</v>
+        <v>3338.441215323646</v>
       </c>
       <c r="F649">
-        <v>15117.14663143989</v>
+        <v>11778.70541611625</v>
       </c>
       <c r="G649">
         <v>17108.496</v>
@@ -15339,10 +15339,10 @@
         <v>25.71994715984148</v>
       </c>
       <c r="E650">
-        <v>6687.186261558785</v>
+        <v>3343.593130779393</v>
       </c>
       <c r="F650">
-        <v>15140.47556142669</v>
+        <v>11796.88243064729</v>
       </c>
       <c r="G650">
         <v>17134.898</v>
@@ -15362,10 +15362,10 @@
         <v>25.75957727873184</v>
       </c>
       <c r="E651">
-        <v>6697.490092470278</v>
+        <v>3348.745046235139</v>
       </c>
       <c r="F651">
-        <v>15163.80449141348</v>
+        <v>11815.05944517834</v>
       </c>
       <c r="G651">
         <v>17161.3</v>
@@ -15385,10 +15385,10 @@
         <v>25.79920739762219</v>
       </c>
       <c r="E652">
-        <v>6707.793923381771</v>
+        <v>3353.896961690885</v>
       </c>
       <c r="F652">
-        <v>15187.13342140026</v>
+        <v>11833.23645970938</v>
       </c>
       <c r="G652">
         <v>17187.702</v>
@@ -15408,10 +15408,10 @@
         <v>25.83883751651255</v>
       </c>
       <c r="E653">
-        <v>6718.097754293263</v>
+        <v>3359.048877146632</v>
       </c>
       <c r="F653">
-        <v>15210.46235138705</v>
+        <v>11851.41347424042</v>
       </c>
       <c r="G653">
         <v>17214.104</v>
@@ -15431,10 +15431,10 @@
         <v>25.87846763540291</v>
       </c>
       <c r="E654">
-        <v>6728.401585204756</v>
+        <v>3364.200792602378</v>
       </c>
       <c r="F654">
-        <v>15233.79128137384</v>
+        <v>11869.59048877147</v>
       </c>
       <c r="G654">
         <v>17240.506</v>
@@ -15454,10 +15454,10 @@
         <v>25.91809775429326</v>
       </c>
       <c r="E655">
-        <v>6738.705416116249</v>
+        <v>3369.352708058124</v>
       </c>
       <c r="F655">
-        <v>15257.12021136063</v>
+        <v>11887.76750330251</v>
       </c>
       <c r="G655">
         <v>17266.908</v>
@@ -15477,10 +15477,10 @@
         <v>25.95772787318362</v>
       </c>
       <c r="E656">
-        <v>6749.009247027741</v>
+        <v>3374.504623513871</v>
       </c>
       <c r="F656">
-        <v>15280.44914134742</v>
+        <v>11905.94451783355</v>
       </c>
       <c r="G656">
         <v>17293.31</v>
@@ -15500,10 +15500,10 @@
         <v>25.99735799207398</v>
       </c>
       <c r="E657">
-        <v>6759.313077939234</v>
+        <v>3379.656538969617</v>
       </c>
       <c r="F657">
-        <v>15303.77807133421</v>
+        <v>11924.1215323646</v>
       </c>
       <c r="G657">
         <v>17319.712</v>
@@ -15523,10 +15523,10 @@
         <v>26.03698811096433</v>
       </c>
       <c r="E658">
-        <v>6769.616908850727</v>
+        <v>3384.808454425363</v>
       </c>
       <c r="F658">
-        <v>15327.107001321</v>
+        <v>11942.29854689564</v>
       </c>
       <c r="G658">
         <v>17346.114</v>
@@ -15546,10 +15546,10 @@
         <v>26.07661822985469</v>
       </c>
       <c r="E659">
-        <v>6779.920739762219</v>
+        <v>3389.96036988111</v>
       </c>
       <c r="F659">
-        <v>15350.43593130779</v>
+        <v>11960.47556142668</v>
       </c>
       <c r="G659">
         <v>17372.516</v>
@@ -15569,10 +15569,10 @@
         <v>26.11624834874505</v>
       </c>
       <c r="E660">
-        <v>6790.224570673712</v>
+        <v>3395.112285336856</v>
       </c>
       <c r="F660">
-        <v>15373.76486129458</v>
+        <v>11978.65257595773</v>
       </c>
       <c r="G660">
         <v>17398.918</v>
@@ -15592,10 +15592,10 @@
         <v>26.1558784676354</v>
       </c>
       <c r="E661">
-        <v>6800.528401585205</v>
+        <v>3400.264200792602</v>
       </c>
       <c r="F661">
-        <v>15397.09379128137</v>
+        <v>11996.82959048877</v>
       </c>
       <c r="G661">
         <v>17425.32</v>
@@ -15615,10 +15615,10 @@
         <v>26.19550858652576</v>
       </c>
       <c r="E662">
-        <v>6810.832232496698</v>
+        <v>3405.416116248349</v>
       </c>
       <c r="F662">
-        <v>15420.42272126817</v>
+        <v>12015.00660501982</v>
       </c>
       <c r="G662">
         <v>17451.722</v>
@@ -15638,10 +15638,10 @@
         <v>26.23513870541612</v>
       </c>
       <c r="E663">
-        <v>6821.13606340819</v>
+        <v>3410.568031704095</v>
       </c>
       <c r="F663">
-        <v>15443.75165125495</v>
+        <v>12033.18361955086</v>
       </c>
       <c r="G663">
         <v>17478.124</v>
@@ -15661,10 +15661,10 @@
         <v>26.27476882430647</v>
       </c>
       <c r="E664">
-        <v>6831.439894319683</v>
+        <v>3415.719947159841</v>
       </c>
       <c r="F664">
-        <v>15467.08058124174</v>
+        <v>12051.3606340819</v>
       </c>
       <c r="G664">
         <v>17504.526</v>
@@ -15684,10 +15684,10 @@
         <v>26.31439894319683</v>
       </c>
       <c r="E665">
-        <v>6841.743725231177</v>
+        <v>3420.871862615588</v>
       </c>
       <c r="F665">
-        <v>15490.40951122854</v>
+        <v>12069.53764861295</v>
       </c>
       <c r="G665">
         <v>17530.928</v>
@@ -15707,10 +15707,10 @@
         <v>26.35402906208719</v>
       </c>
       <c r="E666">
-        <v>6852.047556142669</v>
+        <v>3426.023778071335</v>
       </c>
       <c r="F666">
-        <v>15513.73844121533</v>
+        <v>12087.71466314399</v>
       </c>
       <c r="G666">
         <v>17557.33</v>
@@ -15730,10 +15730,10 @@
         <v>26.39365918097754</v>
       </c>
       <c r="E667">
-        <v>6862.351387054162</v>
+        <v>3431.175693527081</v>
       </c>
       <c r="F667">
-        <v>15537.06737120212</v>
+        <v>12105.89167767503</v>
       </c>
       <c r="G667">
         <v>17583.732</v>
@@ -15753,10 +15753,10 @@
         <v>26.4332892998679</v>
       </c>
       <c r="E668">
-        <v>6872.655217965655</v>
+        <v>3436.327608982827</v>
       </c>
       <c r="F668">
-        <v>15560.3963011889</v>
+        <v>12124.06869220608</v>
       </c>
       <c r="G668">
         <v>17610.134</v>
@@ -15776,10 +15776,10 @@
         <v>26.47291941875826</v>
       </c>
       <c r="E669">
-        <v>6882.959048877147</v>
+        <v>3441.479524438574</v>
       </c>
       <c r="F669">
-        <v>15583.72523117569</v>
+        <v>12142.24570673712</v>
       </c>
       <c r="G669">
         <v>17636.536</v>
@@ -15799,10 +15799,10 @@
         <v>26.51254953764861</v>
       </c>
       <c r="E670">
-        <v>6893.26287978864</v>
+        <v>3446.63143989432</v>
       </c>
       <c r="F670">
-        <v>15607.05416116248</v>
+        <v>12160.42272126816</v>
       </c>
       <c r="G670">
         <v>17662.938</v>
@@ -15822,10 +15822,10 @@
         <v>26.55217965653897</v>
       </c>
       <c r="E671">
-        <v>6903.566710700133</v>
+        <v>3451.783355350066</v>
       </c>
       <c r="F671">
-        <v>15630.38309114927</v>
+        <v>12178.59973579921</v>
       </c>
       <c r="G671">
         <v>17689.34</v>
@@ -15845,10 +15845,10 @@
         <v>26.59180977542933</v>
       </c>
       <c r="E672">
-        <v>6913.870541611625</v>
+        <v>3456.935270805813</v>
       </c>
       <c r="F672">
-        <v>15653.71202113606</v>
+        <v>12196.77675033025</v>
       </c>
       <c r="G672">
         <v>17715.742</v>
@@ -15868,10 +15868,10 @@
         <v>26.63143989431968</v>
       </c>
       <c r="E673">
-        <v>6924.174372523118</v>
+        <v>3462.087186261559</v>
       </c>
       <c r="F673">
-        <v>15677.04095112285</v>
+        <v>12214.95376486129</v>
       </c>
       <c r="G673">
         <v>17742.144</v>
@@ -15891,10 +15891,10 @@
         <v>26.67107001321004</v>
       </c>
       <c r="E674">
-        <v>6934.478203434611</v>
+        <v>3467.239101717305</v>
       </c>
       <c r="F674">
-        <v>15700.36988110964</v>
+        <v>12233.13077939234</v>
       </c>
       <c r="G674">
         <v>17768.546</v>
@@ -15914,10 +15914,10 @@
         <v>26.7107001321004</v>
       </c>
       <c r="E675">
-        <v>6944.782034346104</v>
+        <v>3472.391017173052</v>
       </c>
       <c r="F675">
-        <v>15723.69881109643</v>
+        <v>12251.30779392338</v>
       </c>
       <c r="G675">
         <v>17794.948</v>
@@ -15937,10 +15937,10 @@
         <v>26.75033025099075</v>
       </c>
       <c r="E676">
-        <v>6955.085865257596</v>
+        <v>3477.542932628798</v>
       </c>
       <c r="F676">
-        <v>15747.02774108322</v>
+        <v>12269.48480845442</v>
       </c>
       <c r="G676">
         <v>17821.35</v>
@@ -15960,10 +15960,10 @@
         <v>26.78996036988111</v>
       </c>
       <c r="E677">
-        <v>6965.389696169089</v>
+        <v>3482.694848084544</v>
       </c>
       <c r="F677">
-        <v>15770.35667107001</v>
+        <v>12287.66182298547</v>
       </c>
       <c r="G677">
         <v>17847.752</v>
@@ -15983,10 +15983,10 @@
         <v>26.82959048877147</v>
       </c>
       <c r="E678">
-        <v>6975.693527080582</v>
+        <v>3487.846763540291</v>
       </c>
       <c r="F678">
-        <v>15793.6856010568</v>
+        <v>12305.83883751651</v>
       </c>
       <c r="G678">
         <v>17874.154</v>
@@ -16006,10 +16006,10 @@
         <v>26.86922060766182</v>
       </c>
       <c r="E679">
-        <v>6985.997357992074</v>
+        <v>3492.998678996037</v>
       </c>
       <c r="F679">
-        <v>15817.01453104359</v>
+        <v>12324.01585204756</v>
       </c>
       <c r="G679">
         <v>17900.556</v>
@@ -16029,10 +16029,10 @@
         <v>26.90885072655218</v>
       </c>
       <c r="E680">
-        <v>6996.301188903567</v>
+        <v>3498.150594451783</v>
       </c>
       <c r="F680">
-        <v>15840.34346103038</v>
+        <v>12342.1928665786</v>
       </c>
       <c r="G680">
         <v>17926.958</v>
@@ -16052,10 +16052,10 @@
         <v>26.94848084544254</v>
       </c>
       <c r="E681">
-        <v>7006.60501981506</v>
+        <v>3503.30250990753</v>
       </c>
       <c r="F681">
-        <v>15863.67239101717</v>
+        <v>12360.36988110964</v>
       </c>
       <c r="G681">
         <v>17953.36</v>
@@ -16075,10 +16075,10 @@
         <v>26.98811096433289</v>
       </c>
       <c r="E682">
-        <v>7016.908850726552</v>
+        <v>3508.454425363276</v>
       </c>
       <c r="F682">
-        <v>15887.00132100396</v>
+        <v>12378.54689564069</v>
       </c>
       <c r="G682">
         <v>17979.762</v>
@@ -16098,10 +16098,10 @@
         <v>27.02774108322325</v>
       </c>
       <c r="E683">
-        <v>7027.212681638045</v>
+        <v>3513.606340819023</v>
       </c>
       <c r="F683">
-        <v>15910.33025099075</v>
+        <v>12396.72391017173</v>
       </c>
       <c r="G683">
         <v>18006.164</v>
@@ -16121,10 +16121,10 @@
         <v>27.06737120211361</v>
       </c>
       <c r="E684">
-        <v>7037.516512549538</v>
+        <v>3518.758256274769</v>
       </c>
       <c r="F684">
-        <v>15933.65918097755</v>
+        <v>12414.90092470278</v>
       </c>
       <c r="G684">
         <v>18032.566</v>
@@ -16144,10 +16144,10 @@
         <v>27.10700132100396</v>
       </c>
       <c r="E685">
-        <v>7047.82034346103</v>
+        <v>3523.910171730515</v>
       </c>
       <c r="F685">
-        <v>15956.98811096433</v>
+        <v>12433.07793923382</v>
       </c>
       <c r="G685">
         <v>18058.968</v>
@@ -16167,10 +16167,10 @@
         <v>27.14663143989432</v>
       </c>
       <c r="E686">
-        <v>7058.124174372523</v>
+        <v>3529.062087186262</v>
       </c>
       <c r="F686">
-        <v>15980.31704095112</v>
+        <v>12451.25495376486</v>
       </c>
       <c r="G686">
         <v>18085.37</v>
@@ -16190,10 +16190,10 @@
         <v>27.18626155878468</v>
       </c>
       <c r="E687">
-        <v>7068.428005284016</v>
+        <v>3534.214002642008</v>
       </c>
       <c r="F687">
-        <v>16003.64597093791</v>
+        <v>12469.4319682959</v>
       </c>
       <c r="G687">
         <v>18111.772</v>
@@ -16213,10 +16213,10 @@
         <v>27.22589167767503</v>
       </c>
       <c r="E688">
-        <v>7078.731836195509</v>
+        <v>3539.365918097755</v>
       </c>
       <c r="F688">
-        <v>16026.9749009247</v>
+        <v>12487.60898282695</v>
       </c>
       <c r="G688">
         <v>18138.174</v>
@@ -16236,10 +16236,10 @@
         <v>27.26552179656539</v>
       </c>
       <c r="E689">
-        <v>7089.035667107002</v>
+        <v>3544.517833553501</v>
       </c>
       <c r="F689">
-        <v>16050.30383091149</v>
+        <v>12505.78599735799</v>
       </c>
       <c r="G689">
         <v>18164.576</v>
@@ -16259,10 +16259,10 @@
         <v>27.30515191545575</v>
       </c>
       <c r="E690">
-        <v>7099.339498018495</v>
+        <v>3549.669749009247</v>
       </c>
       <c r="F690">
-        <v>16073.63276089828</v>
+        <v>12523.96301188903</v>
       </c>
       <c r="G690">
         <v>18190.978</v>
@@ -16282,10 +16282,10 @@
         <v>27.3447820343461</v>
       </c>
       <c r="E691">
-        <v>7109.643328929988</v>
+        <v>3554.821664464994</v>
       </c>
       <c r="F691">
-        <v>16096.96169088507</v>
+        <v>12542.14002642008</v>
       </c>
       <c r="G691">
         <v>18217.38</v>
@@ -16305,10 +16305,10 @@
         <v>27.38441215323646</v>
       </c>
       <c r="E692">
-        <v>7119.94715984148</v>
+        <v>3559.97357992074</v>
       </c>
       <c r="F692">
-        <v>16120.29062087186</v>
+        <v>12560.31704095112</v>
       </c>
       <c r="G692">
         <v>18243.782</v>
@@ -16328,10 +16328,10 @@
         <v>27.42404227212682</v>
       </c>
       <c r="E693">
-        <v>7130.250990752973</v>
+        <v>3565.125495376486</v>
       </c>
       <c r="F693">
-        <v>16143.61955085865</v>
+        <v>12578.49405548217</v>
       </c>
       <c r="G693">
         <v>18270.184</v>
@@ -16351,10 +16351,10 @@
         <v>27.46367239101717</v>
       </c>
       <c r="E694">
-        <v>7140.554821664466</v>
+        <v>3570.277410832233</v>
       </c>
       <c r="F694">
-        <v>16166.94848084544</v>
+        <v>12596.67107001321</v>
       </c>
       <c r="G694">
         <v>18296.586</v>
@@ -16374,10 +16374,10 @@
         <v>27.50330250990753</v>
       </c>
       <c r="E695">
-        <v>7150.858652575958</v>
+        <v>3575.429326287979</v>
       </c>
       <c r="F695">
-        <v>16190.27741083223</v>
+        <v>12614.84808454425</v>
       </c>
       <c r="G695">
         <v>18322.988</v>
@@ -16397,10 +16397,10 @@
         <v>27.54293262879789</v>
       </c>
       <c r="E696">
-        <v>7161.162483487451</v>
+        <v>3580.581241743726</v>
       </c>
       <c r="F696">
-        <v>16213.60634081902</v>
+        <v>12633.0250990753</v>
       </c>
       <c r="G696">
         <v>18349.39</v>
@@ -16420,10 +16420,10 @@
         <v>27.58256274768824</v>
       </c>
       <c r="E697">
-        <v>7171.466314398944</v>
+        <v>3585.733157199472</v>
       </c>
       <c r="F697">
-        <v>16236.93527080581</v>
+        <v>12651.20211360634</v>
       </c>
       <c r="G697">
         <v>18375.792</v>
@@ -16443,10 +16443,10 @@
         <v>27.6221928665786</v>
       </c>
       <c r="E698">
-        <v>7181.770145310436</v>
+        <v>3590.885072655218</v>
       </c>
       <c r="F698">
-        <v>16260.2642007926</v>
+        <v>12669.37912813739</v>
       </c>
       <c r="G698">
         <v>18402.194</v>
@@ -16466,10 +16466,10 @@
         <v>27.66182298546896</v>
       </c>
       <c r="E699">
-        <v>7192.073976221929</v>
+        <v>3596.036988110965</v>
       </c>
       <c r="F699">
-        <v>16283.59313077939</v>
+        <v>12687.55614266843</v>
       </c>
       <c r="G699">
         <v>18428.596</v>
@@ -16489,10 +16489,10 @@
         <v>27.70145310435931</v>
       </c>
       <c r="E700">
-        <v>7202.377807133422</v>
+        <v>3601.188903566711</v>
       </c>
       <c r="F700">
-        <v>16306.92206076618</v>
+        <v>12705.73315719947</v>
       </c>
       <c r="G700">
         <v>18454.998</v>
@@ -16512,10 +16512,10 @@
         <v>27.74108322324967</v>
       </c>
       <c r="E701">
-        <v>7212.681638044915</v>
+        <v>3606.340819022457</v>
       </c>
       <c r="F701">
-        <v>16330.25099075297</v>
+        <v>12723.91017173052</v>
       </c>
       <c r="G701">
         <v>18481.4</v>
@@ -16535,10 +16535,10 @@
         <v>27.78071334214003</v>
       </c>
       <c r="E702">
-        <v>7222.985468956407</v>
+        <v>3611.492734478204</v>
       </c>
       <c r="F702">
-        <v>16353.57992073976</v>
+        <v>12742.08718626156</v>
       </c>
       <c r="G702">
         <v>18507.802</v>
@@ -16558,10 +16558,10 @@
         <v>27.82034346103038</v>
       </c>
       <c r="E703">
-        <v>7233.2892998679</v>
+        <v>3616.64464993395</v>
       </c>
       <c r="F703">
-        <v>16376.90885072655</v>
+        <v>12760.2642007926</v>
       </c>
       <c r="G703">
         <v>18534.204</v>
@@ -16581,10 +16581,10 @@
         <v>27.85997357992074</v>
       </c>
       <c r="E704">
-        <v>7243.593130779393</v>
+        <v>3621.796565389696</v>
       </c>
       <c r="F704">
-        <v>16400.23778071335</v>
+        <v>12778.44121532365</v>
       </c>
       <c r="G704">
         <v>18560.606</v>
@@ -16604,10 +16604,10 @@
         <v>27.8996036988111</v>
       </c>
       <c r="E705">
-        <v>7253.896961690885</v>
+        <v>3626.948480845443</v>
       </c>
       <c r="F705">
-        <v>16423.56671070013</v>
+        <v>12796.61822985469</v>
       </c>
       <c r="G705">
         <v>18587.008</v>
@@ -16627,10 +16627,10 @@
         <v>27.93923381770145</v>
       </c>
       <c r="E706">
-        <v>7264.200792602378</v>
+        <v>3632.100396301189</v>
       </c>
       <c r="F706">
-        <v>16446.89564068693</v>
+        <v>12814.79524438574</v>
       </c>
       <c r="G706">
         <v>18613.41</v>
@@ -16650,10 +16650,10 @@
         <v>27.97886393659181</v>
       </c>
       <c r="E707">
-        <v>7274.504623513871</v>
+        <v>3637.252311756935</v>
       </c>
       <c r="F707">
-        <v>16470.22457067371</v>
+        <v>12832.97225891678</v>
       </c>
       <c r="G707">
         <v>18639.812</v>
@@ -16673,10 +16673,10 @@
         <v>28.01849405548217</v>
       </c>
       <c r="E708">
-        <v>7284.808454425363</v>
+        <v>3642.404227212682</v>
       </c>
       <c r="F708">
-        <v>16493.5535006605</v>
+        <v>12851.14927344782</v>
       </c>
       <c r="G708">
         <v>18666.214</v>
@@ -16696,10 +16696,10 @@
         <v>28.05812417437252</v>
       </c>
       <c r="E709">
-        <v>7295.112285336856</v>
+        <v>3647.556142668428</v>
       </c>
       <c r="F709">
-        <v>16516.88243064729</v>
+        <v>12869.32628797886</v>
       </c>
       <c r="G709">
         <v>18692.616</v>
@@ -16719,10 +16719,10 @@
         <v>28.09775429326288</v>
       </c>
       <c r="E710">
-        <v>7305.416116248349</v>
+        <v>3652.708058124174</v>
       </c>
       <c r="F710">
-        <v>16540.21136063408</v>
+        <v>12887.50330250991</v>
       </c>
       <c r="G710">
         <v>18719.018</v>
@@ -16742,10 +16742,10 @@
         <v>28.13738441215324</v>
       </c>
       <c r="E711">
-        <v>7315.719947159842</v>
+        <v>3657.859973579921</v>
       </c>
       <c r="F711">
-        <v>16563.54029062087</v>
+        <v>12905.68031704095</v>
       </c>
       <c r="G711">
         <v>18745.42</v>
@@ -16765,10 +16765,10 @@
         <v>28.17701453104359</v>
       </c>
       <c r="E712">
-        <v>7326.023778071335</v>
+        <v>3663.011889035668</v>
       </c>
       <c r="F712">
-        <v>16586.86922060766</v>
+        <v>12923.857331572</v>
       </c>
       <c r="G712">
         <v>18771.822</v>
@@ -16788,10 +16788,10 @@
         <v>28.21664464993395</v>
       </c>
       <c r="E713">
-        <v>7336.327608982828</v>
+        <v>3668.163804491414</v>
       </c>
       <c r="F713">
-        <v>16610.19815059445</v>
+        <v>12942.03434610304</v>
       </c>
       <c r="G713">
         <v>18798.224</v>
@@ -16811,10 +16811,10 @@
         <v>28.2562747688243</v>
       </c>
       <c r="E714">
-        <v>7346.63143989432</v>
+        <v>3673.31571994716</v>
       </c>
       <c r="F714">
-        <v>16633.52708058124</v>
+        <v>12960.21136063408</v>
       </c>
       <c r="G714">
         <v>18824.626</v>
@@ -16834,10 +16834,10 @@
         <v>28.29590488771466</v>
       </c>
       <c r="E715">
-        <v>7356.935270805813</v>
+        <v>3678.467635402907</v>
       </c>
       <c r="F715">
-        <v>16656.85601056803</v>
+        <v>12978.38837516513</v>
       </c>
       <c r="G715">
         <v>18851.028</v>
@@ -16857,10 +16857,10 @@
         <v>28.33553500660502</v>
       </c>
       <c r="E716">
-        <v>7367.239101717306</v>
+        <v>3683.619550858653</v>
       </c>
       <c r="F716">
-        <v>16680.18494055482</v>
+        <v>12996.56538969617</v>
       </c>
       <c r="G716">
         <v>18877.43</v>
@@ -16880,10 +16880,10 @@
         <v>28.37516512549537</v>
       </c>
       <c r="E717">
-        <v>7377.542932628799</v>
+        <v>3688.771466314399</v>
       </c>
       <c r="F717">
-        <v>16703.51387054161</v>
+        <v>13014.74240422721</v>
       </c>
       <c r="G717">
         <v>18903.832</v>
@@ -16903,10 +16903,10 @@
         <v>28.41479524438573</v>
       </c>
       <c r="E718">
-        <v>7387.846763540291</v>
+        <v>3693.923381770146</v>
       </c>
       <c r="F718">
-        <v>16726.8428005284</v>
+        <v>13032.91941875826</v>
       </c>
       <c r="G718">
         <v>18930.234</v>
@@ -16926,10 +16926,10 @@
         <v>28.45442536327609</v>
       </c>
       <c r="E719">
-        <v>7398.150594451784</v>
+        <v>3699.075297225892</v>
       </c>
       <c r="F719">
-        <v>16750.17173051519</v>
+        <v>13051.0964332893</v>
       </c>
       <c r="G719">
         <v>18956.636</v>
@@ -16949,10 +16949,10 @@
         <v>28.49405548216644</v>
       </c>
       <c r="E720">
-        <v>7408.454425363277</v>
+        <v>3704.227212681638</v>
       </c>
       <c r="F720">
-        <v>16773.50066050198</v>
+        <v>13069.27344782034</v>
       </c>
       <c r="G720">
         <v>18983.038</v>
@@ -16972,10 +16972,10 @@
         <v>28.5336856010568</v>
       </c>
       <c r="E721">
-        <v>7418.758256274769</v>
+        <v>3709.379128137385</v>
       </c>
       <c r="F721">
-        <v>16796.82959048877</v>
+        <v>13087.45046235139</v>
       </c>
       <c r="G721">
         <v>19009.44</v>
@@ -16995,10 +16995,10 @@
         <v>28.57331571994716</v>
       </c>
       <c r="E722">
-        <v>7429.062087186262</v>
+        <v>3714.531043593131</v>
       </c>
       <c r="F722">
-        <v>16820.15852047556</v>
+        <v>13105.62747688243</v>
       </c>
       <c r="G722">
         <v>19035.842</v>
@@ -17018,10 +17018,10 @@
         <v>28.61294583883751</v>
       </c>
       <c r="E723">
-        <v>7439.365918097755</v>
+        <v>3719.682959048877</v>
       </c>
       <c r="F723">
-        <v>16843.48745046235</v>
+        <v>13123.80449141348</v>
       </c>
       <c r="G723">
         <v>19062.244</v>
@@ -17041,10 +17041,10 @@
         <v>28.65257595772787</v>
       </c>
       <c r="E724">
-        <v>7449.669749009247</v>
+        <v>3724.834874504624</v>
       </c>
       <c r="F724">
-        <v>16866.81638044914</v>
+        <v>13141.98150594452</v>
       </c>
       <c r="G724">
         <v>19088.646</v>
@@ -17064,10 +17064,10 @@
         <v>28.69220607661823</v>
       </c>
       <c r="E725">
-        <v>7459.97357992074</v>
+        <v>3729.98678996037</v>
       </c>
       <c r="F725">
-        <v>16890.14531043593</v>
+        <v>13160.15852047556</v>
       </c>
       <c r="G725">
         <v>19115.048</v>
@@ -17087,10 +17087,10 @@
         <v>28.73183619550858</v>
       </c>
       <c r="E726">
-        <v>7470.277410832233</v>
+        <v>3735.138705416116</v>
       </c>
       <c r="F726">
-        <v>16913.47424042272</v>
+        <v>13178.33553500661</v>
       </c>
       <c r="G726">
         <v>19141.45</v>
@@ -17110,10 +17110,10 @@
         <v>28.77146631439894</v>
       </c>
       <c r="E727">
-        <v>7480.581241743726</v>
+        <v>3740.290620871863</v>
       </c>
       <c r="F727">
-        <v>16936.80317040951</v>
+        <v>13196.51254953765</v>
       </c>
       <c r="G727">
         <v>19167.852</v>
@@ -17133,10 +17133,10 @@
         <v>28.8110964332893</v>
       </c>
       <c r="E728">
-        <v>7490.885072655218</v>
+        <v>3745.442536327609</v>
       </c>
       <c r="F728">
-        <v>16960.1321003963</v>
+        <v>13214.68956406869</v>
       </c>
       <c r="G728">
         <v>19194.254</v>
@@ -17156,10 +17156,10 @@
         <v>28.85072655217965</v>
       </c>
       <c r="E729">
-        <v>7501.188903566711</v>
+        <v>3750.594451783355</v>
       </c>
       <c r="F729">
-        <v>16983.46103038309</v>
+        <v>13232.86657859974</v>
       </c>
       <c r="G729">
         <v>19220.656</v>
@@ -17179,10 +17179,10 @@
         <v>28.89035667107001</v>
       </c>
       <c r="E730">
-        <v>7511.492734478204</v>
+        <v>3755.746367239102</v>
       </c>
       <c r="F730">
-        <v>17006.78996036988</v>
+        <v>13251.04359313078</v>
       </c>
       <c r="G730">
         <v>19247.058</v>
@@ -17202,10 +17202,10 @@
         <v>28.92998678996037</v>
       </c>
       <c r="E731">
-        <v>7521.796565389696</v>
+        <v>3760.898282694848</v>
       </c>
       <c r="F731">
-        <v>17030.11889035667</v>
+        <v>13269.22060766182</v>
       </c>
       <c r="G731">
         <v>19273.46</v>
@@ -17225,10 +17225,10 @@
         <v>28.96961690885072</v>
       </c>
       <c r="E732">
-        <v>7532.100396301189</v>
+        <v>3766.050198150594</v>
       </c>
       <c r="F732">
-        <v>17053.44782034346</v>
+        <v>13287.39762219287</v>
       </c>
       <c r="G732">
         <v>19299.862</v>
@@ -17248,10 +17248,10 @@
         <v>29.00924702774108</v>
       </c>
       <c r="E733">
-        <v>7542.404227212682</v>
+        <v>3771.202113606341</v>
       </c>
       <c r="F733">
-        <v>17076.77675033025</v>
+        <v>13305.57463672391</v>
       </c>
       <c r="G733">
         <v>19326.264</v>
@@ -17271,10 +17271,10 @@
         <v>29.04887714663144</v>
       </c>
       <c r="E734">
-        <v>7552.708058124174</v>
+        <v>3776.354029062087</v>
       </c>
       <c r="F734">
-        <v>17100.10568031704</v>
+        <v>13323.75165125495</v>
       </c>
       <c r="G734">
         <v>19352.666</v>
@@ -17294,10 +17294,10 @@
         <v>29.08850726552179</v>
       </c>
       <c r="E735">
-        <v>7563.011889035668</v>
+        <v>3781.505944517834</v>
       </c>
       <c r="F735">
-        <v>17123.43461030383</v>
+        <v>13341.928665786</v>
       </c>
       <c r="G735">
         <v>19379.068</v>
@@ -17317,10 +17317,10 @@
         <v>29.12813738441215</v>
       </c>
       <c r="E736">
-        <v>7573.315719947161</v>
+        <v>3786.65785997358</v>
       </c>
       <c r="F736">
-        <v>17146.76354029062</v>
+        <v>13360.10568031704</v>
       </c>
       <c r="G736">
         <v>19405.47</v>
@@ -17340,10 +17340,10 @@
         <v>29.16776750330251</v>
       </c>
       <c r="E737">
-        <v>7583.619550858653</v>
+        <v>3791.809775429327</v>
       </c>
       <c r="F737">
-        <v>17170.09247027741</v>
+        <v>13378.28269484808</v>
       </c>
       <c r="G737">
         <v>19431.872</v>
@@ -17363,10 +17363,10 @@
         <v>29.20739762219286</v>
       </c>
       <c r="E738">
-        <v>7593.923381770146</v>
+        <v>3796.961690885073</v>
       </c>
       <c r="F738">
-        <v>17193.4214002642</v>
+        <v>13396.45970937913</v>
       </c>
       <c r="G738">
         <v>19458.274</v>
@@ -17386,10 +17386,10 @@
         <v>29.24702774108322</v>
       </c>
       <c r="E739">
-        <v>7604.227212681639</v>
+        <v>3802.113606340819</v>
       </c>
       <c r="F739">
-        <v>17216.75033025099</v>
+        <v>13414.63672391017</v>
       </c>
       <c r="G739">
         <v>19484.676</v>
@@ -17409,10 +17409,10 @@
         <v>29.28665785997358</v>
       </c>
       <c r="E740">
-        <v>7614.531043593131</v>
+        <v>3807.265521796566</v>
       </c>
       <c r="F740">
-        <v>17240.07926023778</v>
+        <v>13432.81373844121</v>
       </c>
       <c r="G740">
         <v>19511.078</v>
@@ -17432,10 +17432,10 @@
         <v>29.32628797886393</v>
       </c>
       <c r="E741">
-        <v>7624.834874504624</v>
+        <v>3812.417437252312</v>
       </c>
       <c r="F741">
-        <v>17263.40819022457</v>
+        <v>13450.99075297226</v>
       </c>
       <c r="G741">
         <v>19537.48</v>
@@ -17455,10 +17455,10 @@
         <v>29.36591809775429</v>
       </c>
       <c r="E742">
-        <v>7635.138705416117</v>
+        <v>3817.569352708058</v>
       </c>
       <c r="F742">
-        <v>17286.73712021136</v>
+        <v>13469.1677675033</v>
       </c>
       <c r="G742">
         <v>19563.882</v>
@@ -17478,10 +17478,10 @@
         <v>29.40554821664465</v>
       </c>
       <c r="E743">
-        <v>7645.44253632761</v>
+        <v>3822.721268163805</v>
       </c>
       <c r="F743">
-        <v>17310.06605019815</v>
+        <v>13487.34478203435</v>
       </c>
       <c r="G743">
         <v>19590.284</v>
@@ -17501,10 +17501,10 @@
         <v>29.445178335535</v>
       </c>
       <c r="E744">
-        <v>7655.746367239102</v>
+        <v>3827.873183619551</v>
       </c>
       <c r="F744">
-        <v>17333.39498018494</v>
+        <v>13505.52179656539</v>
       </c>
       <c r="G744">
         <v>19616.686</v>
@@ -17524,10 +17524,10 @@
         <v>29.48480845442536</v>
       </c>
       <c r="E745">
-        <v>7666.050198150595</v>
+        <v>3833.025099075297</v>
       </c>
       <c r="F745">
-        <v>17356.72391017173</v>
+        <v>13523.69881109643</v>
       </c>
       <c r="G745">
         <v>19643.088</v>
@@ -17547,10 +17547,10 @@
         <v>29.52443857331572</v>
       </c>
       <c r="E746">
-        <v>7676.354029062088</v>
+        <v>3838.177014531044</v>
       </c>
       <c r="F746">
-        <v>17380.05284015852</v>
+        <v>13541.87582562748</v>
       </c>
       <c r="G746">
         <v>19669.49</v>
@@ -17570,10 +17570,10 @@
         <v>29.56406869220607</v>
       </c>
       <c r="E747">
-        <v>7686.65785997358</v>
+        <v>3843.32892998679</v>
       </c>
       <c r="F747">
-        <v>17403.38177014531</v>
+        <v>13560.05284015852</v>
       </c>
       <c r="G747">
         <v>19695.892</v>
@@ -17593,10 +17593,10 @@
         <v>29.60369881109643</v>
       </c>
       <c r="E748">
-        <v>7696.961690885073</v>
+        <v>3848.480845442537</v>
       </c>
       <c r="F748">
-        <v>17426.7107001321</v>
+        <v>13578.22985468957</v>
       </c>
       <c r="G748">
         <v>19722.294</v>
@@ -17616,10 +17616,10 @@
         <v>29.64332892998679</v>
       </c>
       <c r="E749">
-        <v>7707.265521796566</v>
+        <v>3853.632760898283</v>
       </c>
       <c r="F749">
-        <v>17450.03963011889</v>
+        <v>13596.40686922061</v>
       </c>
       <c r="G749">
         <v>19748.696</v>
@@ -17639,10 +17639,10 @@
         <v>29.68295904887714</v>
       </c>
       <c r="E750">
-        <v>7717.569352708058</v>
+        <v>3858.784676354029</v>
       </c>
       <c r="F750">
-        <v>17473.36856010568</v>
+        <v>13614.58388375165</v>
       </c>
       <c r="G750">
         <v>19775.098</v>
@@ -17662,10 +17662,10 @@
         <v>29.7225891677675</v>
       </c>
       <c r="E751">
-        <v>7727.873183619551</v>
+        <v>3863.936591809776</v>
       </c>
       <c r="F751">
-        <v>17496.69749009247</v>
+        <v>13632.7608982827</v>
       </c>
       <c r="G751">
         <v>19801.5</v>
@@ -17685,10 +17685,10 @@
         <v>29.76221928665786</v>
       </c>
       <c r="E752">
-        <v>7738.177014531044</v>
+        <v>3869.088507265522</v>
       </c>
       <c r="F752">
-        <v>17520.02642007926</v>
+        <v>13650.93791281374</v>
       </c>
       <c r="G752">
         <v>19827.902</v>
@@ -17708,10 +17708,10 @@
         <v>29.80184940554821</v>
       </c>
       <c r="E753">
-        <v>7748.480845442537</v>
+        <v>3874.240422721268</v>
       </c>
       <c r="F753">
-        <v>17543.35535006605</v>
+        <v>13669.11492734478</v>
       </c>
       <c r="G753">
         <v>19854.304</v>
@@ -17731,10 +17731,10 @@
         <v>29.84147952443857</v>
       </c>
       <c r="E754">
-        <v>7758.784676354029</v>
+        <v>3879.392338177015</v>
       </c>
       <c r="F754">
-        <v>17566.68428005284</v>
+        <v>13687.29194187583</v>
       </c>
       <c r="G754">
         <v>19880.706</v>
@@ -17754,10 +17754,10 @@
         <v>29.88110964332893</v>
       </c>
       <c r="E755">
-        <v>7769.088507265522</v>
+        <v>3884.544253632761</v>
       </c>
       <c r="F755">
-        <v>17590.01321003963</v>
+        <v>13705.46895640687</v>
       </c>
       <c r="G755">
         <v>19907.108</v>
@@ -17777,10 +17777,10 @@
         <v>29.92073976221928</v>
       </c>
       <c r="E756">
-        <v>7779.392338177015</v>
+        <v>3889.696169088507</v>
       </c>
       <c r="F756">
-        <v>17613.34214002642</v>
+        <v>13723.64597093791</v>
       </c>
       <c r="G756">
         <v>19933.51</v>
@@ -17800,10 +17800,10 @@
         <v>29.96036988110964</v>
       </c>
       <c r="E757">
-        <v>7789.696169088507</v>
+        <v>3894.848084544254</v>
       </c>
       <c r="F757">
-        <v>17636.67107001321</v>
+        <v>13741.82298546896</v>
       </c>
       <c r="G757">
         <v>19959.912</v>
@@ -17823,10 +17823,10 @@
         <v>30</v>
       </c>
       <c r="E758">
-        <v>7800.000000000001</v>
+        <v>3900</v>
       </c>
       <c r="F758">
-        <v>17660</v>
+        <v>13760</v>
       </c>
       <c r="G758">
         <v>19986.314</v>
